--- a/2018_image_index.xlsx
+++ b/2018_image_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{624C7AAD-3624-4D5A-97E5-F6AC941899E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7563F9DC-9EDA-459D-B1BD-611CC7471798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8513,8 +8513,8 @@
   <dimension ref="A1:X214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.3"/>
@@ -9447,7 +9447,7 @@
       <c r="W28" s="44"/>
       <c r="X28" s="44"/>
     </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
         <v>666</v>
       </c>
@@ -9477,7 +9477,7 @@
       <c r="W29" s="44"/>
       <c r="X29" s="44"/>
     </row>
-    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>667</v>
       </c>
@@ -9507,7 +9507,7 @@
       <c r="W30" s="44"/>
       <c r="X30" s="44"/>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
         <v>668</v>
       </c>
@@ -10125,7 +10125,7 @@
       <c r="W50" s="44"/>
       <c r="X50" s="44"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="40" t="s">
         <v>590</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="W57" s="44"/>
       <c r="X57" s="44"/>
     </row>
-    <row r="58" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" s="42" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="40" t="s">
         <v>677</v>
       </c>
@@ -10387,7 +10387,7 @@
       <c r="W58" s="45"/>
       <c r="X58" s="45"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="40" t="s">
         <v>662</v>
       </c>
@@ -10419,7 +10419,7 @@
       <c r="W59" s="44"/>
       <c r="X59" s="44"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="40" t="s">
         <v>678</v>
       </c>
@@ -10449,7 +10449,7 @@
       <c r="W60" s="44"/>
       <c r="X60" s="44"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="40" t="s">
         <v>652</v>
       </c>
@@ -11439,7 +11439,7 @@
       <c r="W92" s="44"/>
       <c r="X92" s="44"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="40" t="s">
         <v>574</v>
       </c>
@@ -11505,7 +11505,7 @@
       <c r="W94" s="44"/>
       <c r="X94" s="44"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="40" t="s">
         <v>575</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="40" t="s">
         <v>679</v>
       </c>
@@ -12649,7 +12649,7 @@
       <c r="W131" s="44"/>
       <c r="X131" s="44"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="40" t="s">
         <v>680</v>
       </c>
@@ -12679,7 +12679,7 @@
       <c r="W132" s="44"/>
       <c r="X132" s="44"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="40" t="s">
         <v>681</v>
       </c>
@@ -13047,7 +13047,7 @@
       <c r="W144" s="44"/>
       <c r="X144" s="44"/>
     </row>
-    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A145" s="40" t="s">
         <v>670</v>
       </c>
@@ -13171,7 +13171,7 @@
       <c r="W148" s="44"/>
       <c r="X148" s="44"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="40" t="s">
         <v>648</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="W156" s="44"/>
       <c r="X156" s="44"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="40" t="s">
         <v>623</v>
       </c>
@@ -13753,7 +13753,7 @@
       <c r="W166" s="44"/>
       <c r="X166" s="44"/>
     </row>
-    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A167" s="40" t="s">
         <v>671</v>
       </c>
@@ -13783,7 +13783,7 @@
       <c r="W167" s="44"/>
       <c r="X167" s="44"/>
     </row>
-    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A168" s="40" t="s">
         <v>672</v>
       </c>
@@ -13939,7 +13939,7 @@
       <c r="W172" s="44"/>
       <c r="X172" s="44"/>
     </row>
-    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A173" s="40" t="s">
         <v>673</v>
       </c>
@@ -13999,7 +13999,7 @@
       <c r="W174" s="44"/>
       <c r="X174" s="44"/>
     </row>
-    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A175" s="40" t="s">
         <v>674</v>
       </c>
@@ -14029,7 +14029,7 @@
       <c r="W175" s="44"/>
       <c r="X175" s="44"/>
     </row>
-    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A176" s="40" t="s">
         <v>675</v>
       </c>
@@ -14123,7 +14123,7 @@
       <c r="W178" s="44"/>
       <c r="X178" s="44"/>
     </row>
-    <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A179" s="40" t="s">
         <v>636</v>
       </c>
@@ -14217,7 +14217,7 @@
       <c r="W181" s="44"/>
       <c r="X181" s="44"/>
     </row>
-    <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A182" s="40" t="s">
         <v>637</v>
       </c>
@@ -15023,7 +15023,7 @@
       <c r="W207" s="44"/>
       <c r="X207" s="44"/>
     </row>
-    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A208" s="40" t="s">
         <v>676</v>
       </c>
@@ -15243,7 +15243,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:X214" xr:uid="{C34A31A2-E50D-4F4C-878B-1094CC19B96D}">
-    <filterColumn colId="0">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/2018_image_index.xlsx
+++ b/2018_image_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7563F9DC-9EDA-459D-B1BD-611CC7471798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CAA3848E-4138-46C2-AA5A-AF7F3CDD54CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="721">
   <si>
     <t>the Faux Studio: customer feedback</t>
   </si>
@@ -8509,12 +8509,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EFD56E-7DCB-4592-9D65-EDBBFBC20859}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D156" sqref="D156"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.3"/>
@@ -8609,7 +8608,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>495</v>
       </c>
@@ -8641,7 +8640,7 @@
       <c r="W2" s="44"/>
       <c r="X2" s="44"/>
     </row>
-    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>584</v>
       </c>
@@ -8671,7 +8670,7 @@
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>535</v>
       </c>
@@ -8701,7 +8700,7 @@
       <c r="W4" s="44"/>
       <c r="X4" s="44"/>
     </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>585</v>
       </c>
@@ -8731,7 +8730,7 @@
       <c r="W5" s="44"/>
       <c r="X5" s="44"/>
     </row>
-    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>586</v>
       </c>
@@ -8761,7 +8760,7 @@
       <c r="W6" s="44"/>
       <c r="X6" s="44"/>
     </row>
-    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>536</v>
       </c>
@@ -8791,7 +8790,7 @@
       <c r="W7" s="44"/>
       <c r="X7" s="44"/>
     </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>537</v>
       </c>
@@ -8821,7 +8820,7 @@
       <c r="W8" s="44"/>
       <c r="X8" s="44"/>
     </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>538</v>
       </c>
@@ -8851,7 +8850,7 @@
       <c r="W9" s="44"/>
       <c r="X9" s="44"/>
     </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>539</v>
       </c>
@@ -8881,7 +8880,7 @@
       <c r="W10" s="44"/>
       <c r="X10" s="44"/>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>540</v>
       </c>
@@ -8911,7 +8910,7 @@
       <c r="W11" s="44"/>
       <c r="X11" s="44"/>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>496</v>
       </c>
@@ -8945,7 +8944,7 @@
       <c r="W12" s="44"/>
       <c r="X12" s="44"/>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>497</v>
       </c>
@@ -8979,7 +8978,7 @@
       <c r="W13" s="44"/>
       <c r="X13" s="44"/>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>498</v>
       </c>
@@ -9013,7 +9012,7 @@
       <c r="W14" s="44"/>
       <c r="X14" s="44"/>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>499</v>
       </c>
@@ -9045,7 +9044,7 @@
       <c r="W15" s="44"/>
       <c r="X15" s="44"/>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>500</v>
       </c>
@@ -9077,7 +9076,7 @@
       <c r="W16" s="44"/>
       <c r="X16" s="44"/>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>541</v>
       </c>
@@ -9107,7 +9106,7 @@
       <c r="W17" s="44"/>
       <c r="X17" s="44"/>
     </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>542</v>
       </c>
@@ -9137,7 +9136,7 @@
       <c r="W18" s="44"/>
       <c r="X18" s="44"/>
     </row>
-    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>489</v>
       </c>
@@ -9169,7 +9168,7 @@
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
     </row>
-    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>490</v>
       </c>
@@ -9201,7 +9200,7 @@
       <c r="W20" s="44"/>
       <c r="X20" s="44"/>
     </row>
-    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>514</v>
       </c>
@@ -9233,7 +9232,7 @@
       <c r="W21" s="44"/>
       <c r="X21" s="44"/>
     </row>
-    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>515</v>
       </c>
@@ -9265,7 +9264,7 @@
       <c r="W22" s="44"/>
       <c r="X22" s="44"/>
     </row>
-    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>516</v>
       </c>
@@ -9297,14 +9296,16 @@
       <c r="W23" s="44"/>
       <c r="X23" s="44"/>
     </row>
-    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>543</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="E24" s="44" t="s">
+        <v>338</v>
+      </c>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
@@ -9327,14 +9328,16 @@
       <c r="W24" s="44"/>
       <c r="X24" s="44"/>
     </row>
-    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>544</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="E25" s="44" t="s">
+        <v>338</v>
+      </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
@@ -9357,14 +9360,16 @@
       <c r="W25" s="44"/>
       <c r="X25" s="44"/>
     </row>
-    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>545</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="E26" s="44" t="s">
+        <v>338</v>
+      </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
@@ -9387,7 +9392,7 @@
       <c r="W26" s="44"/>
       <c r="X26" s="44"/>
     </row>
-    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>501</v>
       </c>
@@ -9417,7 +9422,7 @@
       <c r="W27" s="44"/>
       <c r="X27" s="44"/>
     </row>
-    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>502</v>
       </c>
@@ -9537,7 +9542,7 @@
       <c r="W31" s="44"/>
       <c r="X31" s="44"/>
     </row>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>503</v>
       </c>
@@ -9569,7 +9574,7 @@
       <c r="W32" s="44"/>
       <c r="X32" s="44"/>
     </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>504</v>
       </c>
@@ -9601,7 +9606,7 @@
       <c r="W33" s="44"/>
       <c r="X33" s="44"/>
     </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>505</v>
       </c>
@@ -9633,7 +9638,7 @@
       <c r="W34" s="44"/>
       <c r="X34" s="44"/>
     </row>
-    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>517</v>
       </c>
@@ -9665,7 +9670,7 @@
       <c r="W35" s="44"/>
       <c r="X35" s="44"/>
     </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>518</v>
       </c>
@@ -9697,7 +9702,7 @@
       <c r="W36" s="44"/>
       <c r="X36" s="44"/>
     </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>519</v>
       </c>
@@ -9729,7 +9734,7 @@
       <c r="W37" s="44"/>
       <c r="X37" s="44"/>
     </row>
-    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>546</v>
       </c>
@@ -9759,7 +9764,7 @@
       <c r="W38" s="44"/>
       <c r="X38" s="44"/>
     </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>547</v>
       </c>
@@ -9789,7 +9794,7 @@
       <c r="W39" s="44"/>
       <c r="X39" s="44"/>
     </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>548</v>
       </c>
@@ -9819,7 +9824,7 @@
       <c r="W40" s="44"/>
       <c r="X40" s="44"/>
     </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>549</v>
       </c>
@@ -9849,7 +9854,7 @@
       <c r="W41" s="44"/>
       <c r="X41" s="44"/>
     </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>550</v>
       </c>
@@ -9879,7 +9884,7 @@
       <c r="W42" s="44"/>
       <c r="X42" s="44"/>
     </row>
-    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>587</v>
       </c>
@@ -9909,7 +9914,7 @@
       <c r="W43" s="44"/>
       <c r="X43" s="44"/>
     </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>588</v>
       </c>
@@ -9939,7 +9944,7 @@
       <c r="W44" s="44"/>
       <c r="X44" s="44"/>
     </row>
-    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>506</v>
       </c>
@@ -9969,7 +9974,7 @@
       <c r="W45" s="44"/>
       <c r="X45" s="44"/>
     </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>507</v>
       </c>
@@ -9999,7 +10004,7 @@
       <c r="W46" s="44"/>
       <c r="X46" s="44"/>
     </row>
-    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>520</v>
       </c>
@@ -10031,7 +10036,7 @@
       <c r="W47" s="44"/>
       <c r="X47" s="44"/>
     </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>521</v>
       </c>
@@ -10063,7 +10068,7 @@
       <c r="W48" s="44"/>
       <c r="X48" s="44"/>
     </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>522</v>
       </c>
@@ -10095,7 +10100,7 @@
       <c r="W49" s="44"/>
       <c r="X49" s="44"/>
     </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>589</v>
       </c>
@@ -10125,7 +10130,7 @@
       <c r="W50" s="44"/>
       <c r="X50" s="44"/>
     </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="40" t="s">
         <v>590</v>
       </c>
@@ -10157,7 +10162,7 @@
       <c r="W51" s="44"/>
       <c r="X51" s="44"/>
     </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>591</v>
       </c>
@@ -10187,7 +10192,7 @@
       <c r="W52" s="44"/>
       <c r="X52" s="44"/>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>592</v>
       </c>
@@ -10217,7 +10222,7 @@
       <c r="W53" s="44"/>
       <c r="X53" s="44"/>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>508</v>
       </c>
@@ -10253,7 +10258,7 @@
       <c r="W54" s="44"/>
       <c r="X54" s="44"/>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
         <v>509</v>
       </c>
@@ -10289,7 +10294,7 @@
       <c r="W55" s="44"/>
       <c r="X55" s="44"/>
     </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
         <v>510</v>
       </c>
@@ -10357,7 +10362,7 @@
       <c r="W57" s="44"/>
       <c r="X57" s="44"/>
     </row>
-    <row r="58" spans="1:24" s="42" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="40" t="s">
         <v>677</v>
       </c>
@@ -10387,7 +10392,7 @@
       <c r="W58" s="45"/>
       <c r="X58" s="45"/>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="40" t="s">
         <v>662</v>
       </c>
@@ -10419,7 +10424,7 @@
       <c r="W59" s="44"/>
       <c r="X59" s="44"/>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="40" t="s">
         <v>678</v>
       </c>
@@ -10449,7 +10454,7 @@
       <c r="W60" s="44"/>
       <c r="X60" s="44"/>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="40" t="s">
         <v>652</v>
       </c>
@@ -10483,7 +10488,7 @@
       <c r="W61" s="44"/>
       <c r="X61" s="44"/>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
         <v>653</v>
       </c>
@@ -10513,7 +10518,7 @@
       <c r="W62" s="44"/>
       <c r="X62" s="44"/>
     </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="40" t="s">
         <v>654</v>
       </c>
@@ -10543,7 +10548,7 @@
       <c r="W63" s="44"/>
       <c r="X63" s="44"/>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>523</v>
       </c>
@@ -10575,7 +10580,7 @@
       <c r="W64" s="44"/>
       <c r="X64" s="44"/>
     </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>524</v>
       </c>
@@ -10607,7 +10612,7 @@
       <c r="W65" s="44"/>
       <c r="X65" s="44"/>
     </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>525</v>
       </c>
@@ -10639,7 +10644,7 @@
       <c r="W66" s="44"/>
       <c r="X66" s="44"/>
     </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>526</v>
       </c>
@@ -10671,7 +10676,7 @@
       <c r="W67" s="44"/>
       <c r="X67" s="44"/>
     </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
         <v>527</v>
       </c>
@@ -10703,7 +10708,7 @@
       <c r="W68" s="44"/>
       <c r="X68" s="44"/>
     </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
         <v>551</v>
       </c>
@@ -10733,7 +10738,7 @@
       <c r="W69" s="44"/>
       <c r="X69" s="44"/>
     </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
         <v>552</v>
       </c>
@@ -10763,7 +10768,7 @@
       <c r="W70" s="44"/>
       <c r="X70" s="44"/>
     </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
         <v>528</v>
       </c>
@@ -10795,7 +10800,7 @@
       <c r="W71" s="44"/>
       <c r="X71" s="44"/>
     </row>
-    <row r="72" spans="1:24" s="42" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="40" t="s">
         <v>593</v>
       </c>
@@ -10827,7 +10832,7 @@
       <c r="W72" s="45"/>
       <c r="X72" s="45"/>
     </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="40" t="s">
         <v>655</v>
       </c>
@@ -10857,7 +10862,7 @@
       <c r="W73" s="44"/>
       <c r="X73" s="44"/>
     </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="41" t="s">
         <v>594</v>
       </c>
@@ -10887,7 +10892,7 @@
       <c r="W74" s="44"/>
       <c r="X74" s="44"/>
     </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="41" t="s">
         <v>595</v>
       </c>
@@ -10917,7 +10922,7 @@
       <c r="W75" s="44"/>
       <c r="X75" s="44"/>
     </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>700</v>
       </c>
@@ -10947,7 +10952,7 @@
       <c r="W76" s="44"/>
       <c r="X76" s="44"/>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
         <v>701</v>
       </c>
@@ -10977,7 +10982,7 @@
       <c r="W77" s="44"/>
       <c r="X77" s="44"/>
     </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="40" t="s">
         <v>702</v>
       </c>
@@ -11007,7 +11012,7 @@
       <c r="W78" s="44"/>
       <c r="X78" s="44"/>
     </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
         <v>529</v>
       </c>
@@ -11039,7 +11044,7 @@
       <c r="W79" s="44"/>
       <c r="X79" s="44"/>
     </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="41" t="s">
         <v>530</v>
       </c>
@@ -11071,7 +11076,7 @@
       <c r="W80" s="44"/>
       <c r="X80" s="44"/>
     </row>
-    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="41" t="s">
         <v>531</v>
       </c>
@@ -11103,7 +11108,7 @@
       <c r="W81" s="44"/>
       <c r="X81" s="44"/>
     </row>
-    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>570</v>
       </c>
@@ -11133,7 +11138,7 @@
       <c r="W82" s="44"/>
       <c r="X82" s="44"/>
     </row>
-    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>568</v>
       </c>
@@ -11163,7 +11168,7 @@
       <c r="W83" s="44"/>
       <c r="X83" s="44"/>
     </row>
-    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>569</v>
       </c>
@@ -11193,7 +11198,7 @@
       <c r="W84" s="44"/>
       <c r="X84" s="44"/>
     </row>
-    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>555</v>
       </c>
@@ -11223,7 +11228,7 @@
       <c r="W85" s="44"/>
       <c r="X85" s="44"/>
     </row>
-    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>553</v>
       </c>
@@ -11253,7 +11258,7 @@
       <c r="W86" s="44"/>
       <c r="X86" s="44"/>
     </row>
-    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
         <v>554</v>
       </c>
@@ -11283,7 +11288,7 @@
       <c r="W87" s="44"/>
       <c r="X87" s="44"/>
     </row>
-    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="41" t="s">
         <v>596</v>
       </c>
@@ -11313,7 +11318,7 @@
       <c r="W88" s="44"/>
       <c r="X88" s="44"/>
     </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="41" t="s">
         <v>597</v>
       </c>
@@ -11343,7 +11348,7 @@
       <c r="W89" s="44"/>
       <c r="X89" s="44"/>
     </row>
-    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>571</v>
       </c>
@@ -11375,7 +11380,7 @@
       <c r="W90" s="44"/>
       <c r="X90" s="44"/>
     </row>
-    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
         <v>572</v>
       </c>
@@ -11407,7 +11412,7 @@
       <c r="W91" s="44"/>
       <c r="X91" s="44"/>
     </row>
-    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
         <v>573</v>
       </c>
@@ -11439,7 +11444,7 @@
       <c r="W92" s="44"/>
       <c r="X92" s="44"/>
     </row>
-    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="40" t="s">
         <v>574</v>
       </c>
@@ -11473,7 +11478,7 @@
       <c r="W93" s="44"/>
       <c r="X93" s="44"/>
     </row>
-    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="38" t="s">
         <v>574</v>
       </c>
@@ -11505,7 +11510,7 @@
       <c r="W94" s="44"/>
       <c r="X94" s="44"/>
     </row>
-    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" s="40" t="s">
         <v>575</v>
       </c>
@@ -11541,7 +11546,7 @@
       <c r="W95" s="44"/>
       <c r="X95" s="44"/>
     </row>
-    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
         <v>576</v>
       </c>
@@ -11573,7 +11578,7 @@
       <c r="W96" s="44"/>
       <c r="X96" s="44"/>
     </row>
-    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="38" t="s">
         <v>577</v>
       </c>
@@ -11605,7 +11610,7 @@
       <c r="W97" s="44"/>
       <c r="X97" s="44"/>
     </row>
-    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
         <v>578</v>
       </c>
@@ -11637,7 +11642,7 @@
       <c r="W98" s="44"/>
       <c r="X98" s="44"/>
     </row>
-    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
         <v>616</v>
       </c>
@@ -11667,7 +11672,7 @@
       </c>
       <c r="X99" s="44"/>
     </row>
-    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
         <v>617</v>
       </c>
@@ -11697,7 +11702,7 @@
       </c>
       <c r="X100" s="44"/>
     </row>
-    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
         <v>618</v>
       </c>
@@ -11727,7 +11732,7 @@
       </c>
       <c r="X101" s="44"/>
     </row>
-    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
         <v>619</v>
       </c>
@@ -11757,7 +11762,7 @@
       </c>
       <c r="X102" s="44"/>
     </row>
-    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="41" t="s">
         <v>598</v>
       </c>
@@ -11787,7 +11792,7 @@
       <c r="W103" s="44"/>
       <c r="X103" s="44"/>
     </row>
-    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="41" t="s">
         <v>599</v>
       </c>
@@ -11817,7 +11822,7 @@
       <c r="W104" s="44"/>
       <c r="X104" s="44"/>
     </row>
-    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="41" t="s">
         <v>600</v>
       </c>
@@ -11847,7 +11852,7 @@
       <c r="W105" s="44"/>
       <c r="X105" s="44"/>
     </row>
-    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
         <v>491</v>
       </c>
@@ -11879,7 +11884,7 @@
       <c r="W106" s="44"/>
       <c r="X106" s="44"/>
     </row>
-    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
         <v>492</v>
       </c>
@@ -11911,7 +11916,7 @@
       <c r="W107" s="44"/>
       <c r="X107" s="44"/>
     </row>
-    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
         <v>601</v>
       </c>
@@ -11941,7 +11946,7 @@
       <c r="W108" s="44"/>
       <c r="X108" s="44"/>
     </row>
-    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
         <v>532</v>
       </c>
@@ -11973,7 +11978,7 @@
       <c r="W109" s="44"/>
       <c r="X109" s="44"/>
     </row>
-    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="38" t="s">
         <v>533</v>
       </c>
@@ -12007,7 +12012,7 @@
       </c>
       <c r="X110" s="44"/>
     </row>
-    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="38" t="s">
         <v>620</v>
       </c>
@@ -12037,7 +12042,7 @@
       </c>
       <c r="X111" s="44"/>
     </row>
-    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="38" t="s">
         <v>621</v>
       </c>
@@ -12067,7 +12072,7 @@
       </c>
       <c r="X112" s="44"/>
     </row>
-    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="38" t="s">
         <v>534</v>
       </c>
@@ -12101,7 +12106,7 @@
       </c>
       <c r="X113" s="44"/>
     </row>
-    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="s">
         <v>622</v>
       </c>
@@ -12131,7 +12136,7 @@
       </c>
       <c r="X114" s="44"/>
     </row>
-    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="38" t="s">
         <v>511</v>
       </c>
@@ -12163,7 +12168,7 @@
       <c r="W115" s="44"/>
       <c r="X115" s="44"/>
     </row>
-    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="38" t="s">
         <v>512</v>
       </c>
@@ -12195,7 +12200,7 @@
       <c r="W116" s="44"/>
       <c r="X116" s="44"/>
     </row>
-    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="38" t="s">
         <v>513</v>
       </c>
@@ -12227,7 +12232,7 @@
       <c r="W117" s="44"/>
       <c r="X117" s="44"/>
     </row>
-    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118" s="40" t="s">
         <v>663</v>
       </c>
@@ -12257,7 +12262,7 @@
       <c r="W118" s="44"/>
       <c r="X118" s="44"/>
     </row>
-    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119" s="40" t="s">
         <v>556</v>
       </c>
@@ -12289,7 +12294,7 @@
       <c r="W119" s="44"/>
       <c r="X119" s="44"/>
     </row>
-    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="38" t="s">
         <v>557</v>
       </c>
@@ -12319,7 +12324,7 @@
       <c r="W120" s="44"/>
       <c r="X120" s="44"/>
     </row>
-    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="38" t="s">
         <v>558</v>
       </c>
@@ -12349,7 +12354,7 @@
       <c r="W121" s="44"/>
       <c r="X121" s="44"/>
     </row>
-    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="38" t="s">
         <v>493</v>
       </c>
@@ -12379,7 +12384,7 @@
       <c r="W122" s="44"/>
       <c r="X122" s="44"/>
     </row>
-    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="38" t="s">
         <v>494</v>
       </c>
@@ -12409,7 +12414,7 @@
       <c r="W123" s="44"/>
       <c r="X123" s="44"/>
     </row>
-    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="38" t="s">
         <v>625</v>
       </c>
@@ -12439,7 +12444,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="38" t="s">
         <v>626</v>
       </c>
@@ -12469,7 +12474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="38" t="s">
         <v>627</v>
       </c>
@@ -12499,7 +12504,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="38" t="s">
         <v>628</v>
       </c>
@@ -12529,7 +12534,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128" s="40" t="s">
         <v>679</v>
       </c>
@@ -12559,7 +12564,7 @@
       <c r="W128" s="44"/>
       <c r="X128" s="44"/>
     </row>
-    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="38" t="s">
         <v>559</v>
       </c>
@@ -12589,7 +12594,7 @@
       <c r="W129" s="44"/>
       <c r="X129" s="44"/>
     </row>
-    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="38" t="s">
         <v>560</v>
       </c>
@@ -12619,7 +12624,7 @@
       <c r="W130" s="44"/>
       <c r="X130" s="44"/>
     </row>
-    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="38" t="s">
         <v>561</v>
       </c>
@@ -12649,7 +12654,7 @@
       <c r="W131" s="44"/>
       <c r="X131" s="44"/>
     </row>
-    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" s="40" t="s">
         <v>680</v>
       </c>
@@ -12679,7 +12684,7 @@
       <c r="W132" s="44"/>
       <c r="X132" s="44"/>
     </row>
-    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133" s="40" t="s">
         <v>681</v>
       </c>
@@ -12709,7 +12714,7 @@
       <c r="W133" s="44"/>
       <c r="X133" s="44"/>
     </row>
-    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="38" t="s">
         <v>581</v>
       </c>
@@ -12739,7 +12744,7 @@
       <c r="W134" s="44"/>
       <c r="X134" s="44"/>
     </row>
-    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="38" t="s">
         <v>579</v>
       </c>
@@ -12769,7 +12774,7 @@
       <c r="W135" s="44"/>
       <c r="X135" s="44"/>
     </row>
-    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="38" t="s">
         <v>580</v>
       </c>
@@ -12799,7 +12804,7 @@
       <c r="W136" s="44"/>
       <c r="X136" s="44"/>
     </row>
-    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="38" t="s">
         <v>562</v>
       </c>
@@ -12831,7 +12836,7 @@
       <c r="W137" s="44"/>
       <c r="X137" s="44"/>
     </row>
-    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="38" t="s">
         <v>563</v>
       </c>
@@ -12863,7 +12868,7 @@
       <c r="W138" s="44"/>
       <c r="X138" s="44"/>
     </row>
-    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139" s="40" t="s">
         <v>564</v>
       </c>
@@ -12895,7 +12900,7 @@
       <c r="W139" s="44"/>
       <c r="X139" s="44"/>
     </row>
-    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="41" t="s">
         <v>565</v>
       </c>
@@ -12927,7 +12932,7 @@
       <c r="W140" s="44"/>
       <c r="X140" s="44"/>
     </row>
-    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="41" t="s">
         <v>582</v>
       </c>
@@ -12957,7 +12962,7 @@
       <c r="W141" s="44"/>
       <c r="X141" s="44"/>
     </row>
-    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="41" t="s">
         <v>566</v>
       </c>
@@ -12987,7 +12992,7 @@
       <c r="W142" s="44"/>
       <c r="X142" s="44"/>
     </row>
-    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143" s="40" t="s">
         <v>656</v>
       </c>
@@ -13017,7 +13022,7 @@
       <c r="W143" s="44"/>
       <c r="X143" s="44"/>
     </row>
-    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="41" t="s">
         <v>602</v>
       </c>
@@ -13077,7 +13082,7 @@
       <c r="W145" s="44"/>
       <c r="X145" s="44"/>
     </row>
-    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="41" t="s">
         <v>603</v>
       </c>
@@ -13107,7 +13112,7 @@
       <c r="W146" s="44"/>
       <c r="X146" s="44"/>
     </row>
-    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A147" s="40" t="s">
         <v>646</v>
       </c>
@@ -13139,7 +13144,7 @@
       <c r="W147" s="44"/>
       <c r="X147" s="44"/>
     </row>
-    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A148" s="40" t="s">
         <v>647</v>
       </c>
@@ -13171,7 +13176,7 @@
       <c r="W148" s="44"/>
       <c r="X148" s="44"/>
     </row>
-    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A149" s="40" t="s">
         <v>648</v>
       </c>
@@ -13205,7 +13210,7 @@
       <c r="W149" s="44"/>
       <c r="X149" s="44"/>
     </row>
-    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A150" s="40" t="s">
         <v>649</v>
       </c>
@@ -13237,7 +13242,7 @@
       <c r="W150" s="44"/>
       <c r="X150" s="44"/>
     </row>
-    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A151" s="40" t="s">
         <v>650</v>
       </c>
@@ -13269,7 +13274,7 @@
       <c r="W151" s="44"/>
       <c r="X151" s="44"/>
     </row>
-    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A152" s="40" t="s">
         <v>651</v>
       </c>
@@ -13301,7 +13306,7 @@
       <c r="W152" s="44"/>
       <c r="X152" s="44"/>
     </row>
-    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="41" t="s">
         <v>604</v>
       </c>
@@ -13333,7 +13338,7 @@
       <c r="W153" s="44"/>
       <c r="X153" s="44"/>
     </row>
-    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="41" t="s">
         <v>605</v>
       </c>
@@ -13365,7 +13370,7 @@
       <c r="W154" s="44"/>
       <c r="X154" s="44"/>
     </row>
-    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="41" t="s">
         <v>606</v>
       </c>
@@ -13397,7 +13402,7 @@
       <c r="W155" s="44"/>
       <c r="X155" s="44"/>
     </row>
-    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="41" t="s">
         <v>607</v>
       </c>
@@ -13429,7 +13434,7 @@
       <c r="W156" s="44"/>
       <c r="X156" s="44"/>
     </row>
-    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A157" s="40" t="s">
         <v>623</v>
       </c>
@@ -13499,7 +13504,7 @@
       </c>
       <c r="X158" s="44"/>
     </row>
-    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="41" t="s">
         <v>567</v>
       </c>
@@ -13531,7 +13536,7 @@
       <c r="W159" s="44"/>
       <c r="X159" s="44"/>
     </row>
-    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="41" t="s">
         <v>583</v>
       </c>
@@ -13561,7 +13566,7 @@
       <c r="W160" s="44"/>
       <c r="X160" s="44"/>
     </row>
-    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="41" t="s">
         <v>611</v>
       </c>
@@ -13593,7 +13598,7 @@
       <c r="W161" s="44"/>
       <c r="X161" s="44"/>
     </row>
-    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="41" t="s">
         <v>608</v>
       </c>
@@ -13625,7 +13630,7 @@
       <c r="W162" s="44"/>
       <c r="X162" s="44"/>
     </row>
-    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="41" t="s">
         <v>612</v>
       </c>
@@ -13657,7 +13662,7 @@
       <c r="W163" s="44"/>
       <c r="X163" s="44"/>
     </row>
-    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="41" t="s">
         <v>609</v>
       </c>
@@ -13689,7 +13694,7 @@
       <c r="W164" s="44"/>
       <c r="X164" s="44"/>
     </row>
-    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="41" t="s">
         <v>613</v>
       </c>
@@ -13721,7 +13726,7 @@
       <c r="W165" s="44"/>
       <c r="X165" s="44"/>
     </row>
-    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="41" t="s">
         <v>610</v>
       </c>
@@ -13813,7 +13818,7 @@
       <c r="W168" s="44"/>
       <c r="X168" s="44"/>
     </row>
-    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A169" s="40" t="s">
         <v>703</v>
       </c>
@@ -13843,7 +13848,7 @@
       </c>
       <c r="X169" s="44"/>
     </row>
-    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="43" t="s">
         <v>691</v>
       </c>
@@ -13875,7 +13880,7 @@
       <c r="W170" s="44"/>
       <c r="X170" s="44"/>
     </row>
-    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="41" t="s">
         <v>614</v>
       </c>
@@ -13907,7 +13912,7 @@
       <c r="W171" s="44"/>
       <c r="X171" s="44"/>
     </row>
-    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="41" t="s">
         <v>615</v>
       </c>
@@ -13969,7 +13974,7 @@
       <c r="W173" s="44"/>
       <c r="X173" s="44"/>
     </row>
-    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A174" s="40" t="s">
         <v>660</v>
       </c>
@@ -14059,7 +14064,7 @@
       <c r="W176" s="44"/>
       <c r="X176" s="44"/>
     </row>
-    <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="43" t="s">
         <v>692</v>
       </c>
@@ -14091,7 +14096,7 @@
       <c r="W177" s="44"/>
       <c r="X177" s="44"/>
     </row>
-    <row r="178" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="43" t="s">
         <v>693</v>
       </c>
@@ -14157,7 +14162,7 @@
       <c r="W179" s="44"/>
       <c r="X179" s="44"/>
     </row>
-    <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A180" s="40" t="s">
         <v>657</v>
       </c>
@@ -14187,7 +14192,7 @@
       <c r="W180" s="44"/>
       <c r="X180" s="44"/>
     </row>
-    <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A181" s="40" t="s">
         <v>658</v>
       </c>
@@ -14251,7 +14256,7 @@
       <c r="W182" s="44"/>
       <c r="X182" s="44"/>
     </row>
-    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183" s="40" t="s">
         <v>659</v>
       </c>
@@ -14281,7 +14286,7 @@
       <c r="W183" s="44"/>
       <c r="X183" s="44"/>
     </row>
-    <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184" s="40" t="s">
         <v>688</v>
       </c>
@@ -14311,7 +14316,7 @@
       <c r="W184" s="44"/>
       <c r="X184" s="44"/>
     </row>
-    <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185" s="40" t="s">
         <v>689</v>
       </c>
@@ -14343,7 +14348,7 @@
       </c>
       <c r="X185" s="44"/>
     </row>
-    <row r="186" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="43" t="s">
         <v>694</v>
       </c>
@@ -14375,7 +14380,7 @@
       <c r="W186" s="44"/>
       <c r="X186" s="44"/>
     </row>
-    <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="43" t="s">
         <v>695</v>
       </c>
@@ -14407,7 +14412,7 @@
       <c r="W187" s="44"/>
       <c r="X187" s="44"/>
     </row>
-    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A188" s="40" t="s">
         <v>634</v>
       </c>
@@ -14439,7 +14444,7 @@
       <c r="W188" s="44"/>
       <c r="X188" s="44"/>
     </row>
-    <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A189" s="40" t="s">
         <v>635</v>
       </c>
@@ -14471,7 +14476,7 @@
       <c r="W189" s="44"/>
       <c r="X189" s="44"/>
     </row>
-    <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A190" s="40" t="s">
         <v>638</v>
       </c>
@@ -14501,7 +14506,7 @@
       <c r="W190" s="44"/>
       <c r="X190" s="44"/>
     </row>
-    <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A191" s="40" t="s">
         <v>639</v>
       </c>
@@ -14531,7 +14536,7 @@
       <c r="W191" s="44"/>
       <c r="X191" s="44"/>
     </row>
-    <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A192" s="40" t="s">
         <v>640</v>
       </c>
@@ -14561,7 +14566,7 @@
       <c r="W192" s="44"/>
       <c r="X192" s="44"/>
     </row>
-    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="43" t="s">
         <v>696</v>
       </c>
@@ -14591,7 +14596,7 @@
       <c r="W193" s="44"/>
       <c r="X193" s="44"/>
     </row>
-    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="43" t="s">
         <v>697</v>
       </c>
@@ -14621,7 +14626,7 @@
       <c r="W194" s="44"/>
       <c r="X194" s="44"/>
     </row>
-    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A195" s="40" t="s">
         <v>664</v>
       </c>
@@ -14651,7 +14656,7 @@
       <c r="W195" s="44"/>
       <c r="X195" s="44"/>
     </row>
-    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A196" s="40" t="s">
         <v>664</v>
       </c>
@@ -14681,7 +14686,7 @@
       <c r="W196" s="44"/>
       <c r="X196" s="44"/>
     </row>
-    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A197" s="40" t="s">
         <v>643</v>
       </c>
@@ -14713,7 +14718,7 @@
       <c r="W197" s="44"/>
       <c r="X197" s="44"/>
     </row>
-    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A198" s="40" t="s">
         <v>644</v>
       </c>
@@ -14743,7 +14748,7 @@
       <c r="W198" s="44"/>
       <c r="X198" s="44"/>
     </row>
-    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A199" s="40" t="s">
         <v>690</v>
       </c>
@@ -14773,7 +14778,7 @@
       <c r="W199" s="44"/>
       <c r="X199" s="44"/>
     </row>
-    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A200" s="40" t="s">
         <v>645</v>
       </c>
@@ -14805,7 +14810,7 @@
       <c r="W200" s="44"/>
       <c r="X200" s="44"/>
     </row>
-    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A201" s="40" t="s">
         <v>682</v>
       </c>
@@ -14835,7 +14840,7 @@
       <c r="W201" s="44"/>
       <c r="X201" s="44"/>
     </row>
-    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A202" s="40" t="s">
         <v>641</v>
       </c>
@@ -14867,7 +14872,7 @@
       <c r="W202" s="44"/>
       <c r="X202" s="44"/>
     </row>
-    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A203" s="40" t="s">
         <v>642</v>
       </c>
@@ -14899,7 +14904,7 @@
       <c r="W203" s="44"/>
       <c r="X203" s="44"/>
     </row>
-    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A204" s="40" t="s">
         <v>683</v>
       </c>
@@ -14929,7 +14934,7 @@
       <c r="W204" s="44"/>
       <c r="X204" s="44"/>
     </row>
-    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A205" s="40" t="s">
         <v>661</v>
       </c>
@@ -14959,7 +14964,7 @@
       <c r="W205" s="44"/>
       <c r="X205" s="44"/>
     </row>
-    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="43" t="s">
         <v>698</v>
       </c>
@@ -14991,7 +14996,7 @@
       <c r="W206" s="44"/>
       <c r="X206" s="44"/>
     </row>
-    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="43" t="s">
         <v>699</v>
       </c>
@@ -15053,7 +15058,7 @@
       <c r="W208" s="44"/>
       <c r="X208" s="44"/>
     </row>
-    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A209" s="40" t="s">
         <v>665</v>
       </c>
@@ -15083,7 +15088,7 @@
       <c r="W209" s="44"/>
       <c r="X209" s="44"/>
     </row>
-    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A210" s="40" t="s">
         <v>704</v>
       </c>
@@ -15113,7 +15118,7 @@
       </c>
       <c r="X210" s="44"/>
     </row>
-    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A211" s="40" t="s">
         <v>684</v>
       </c>
@@ -15145,7 +15150,7 @@
       <c r="W211" s="44"/>
       <c r="X211" s="44"/>
     </row>
-    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A212" s="40" t="s">
         <v>685</v>
       </c>
@@ -15177,7 +15182,7 @@
       <c r="W212" s="44"/>
       <c r="X212" s="44"/>
     </row>
-    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A213" s="40" t="s">
         <v>686</v>
       </c>
@@ -15209,7 +15214,7 @@
       <c r="W213" s="44"/>
       <c r="X213" s="44"/>
     </row>
-    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A214" s="40" t="s">
         <v>687</v>
       </c>
@@ -15242,13 +15247,7 @@
       <c r="X214" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:X214" xr:uid="{C34A31A2-E50D-4F4C-878B-1094CC19B96D}">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:X214" xr:uid="{C34A31A2-E50D-4F4C-878B-1094CC19B96D}"/>
   <sortState ref="A2:X215">
     <sortCondition ref="A2:A215"/>
   </sortState>

--- a/2018_image_index.xlsx
+++ b/2018_image_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CAA3848E-4138-46C2-AA5A-AF7F3CDD54CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C938E281-2275-43C3-8539-E12D5F90386A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="image_naming_convention" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="724">
   <si>
     <t>the Faux Studio: customer feedback</t>
   </si>
@@ -2255,6 +2255,15 @@
   </si>
   <si>
     <t>murals</t>
+  </si>
+  <si>
+    <t>b605</t>
+  </si>
+  <si>
+    <t>MacFarland Wedding</t>
+  </si>
+  <si>
+    <t>wedding</t>
   </si>
 </sst>
 </file>
@@ -3076,11 +3085,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB171"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H29" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="H65" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="U79" sqref="U79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3243,7 +3252,7 @@
       </c>
       <c r="V2" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W2" s="8">
         <f t="shared" si="0"/>
@@ -3251,7 +3260,7 @@
       </c>
       <c r="X2" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y2" s="8">
         <f t="shared" si="0"/>
@@ -6068,8 +6077,21 @@
       <c r="T78" s="8"/>
     </row>
     <row r="79" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C79" s="3"/>
-      <c r="G79" s="5"/>
+      <c r="C79" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G79" s="5">
+        <v>42705</v>
+      </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
@@ -6083,6 +6105,12 @@
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
+      <c r="V79" s="4">
+        <v>1</v>
+      </c>
+      <c r="X79" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="3:25" x14ac:dyDescent="0.25">
       <c r="G80" s="5"/>
@@ -8511,9 +8539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EFD56E-7DCB-4592-9D65-EDBBFBC20859}">
   <dimension ref="A1:X214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.3"/>

--- a/2018_image_index.xlsx
+++ b/2018_image_index.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F4D48CD0-F370-4F59-991E-2ED8A6CBE0C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B411DC4E-B71F-4C87-8747-2F6292AE1C49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="image_naming_convention" sheetId="2" r:id="rId1"/>
     <sheet name="jobs" sheetId="4" r:id="rId2"/>
     <sheet name="Keywords Title Desc" sheetId="6" r:id="rId3"/>
     <sheet name="SiteMap 2012" sheetId="10" r:id="rId4"/>
-    <sheet name="nano html" sheetId="9" r:id="rId5"/>
+    <sheet name="mural" sheetId="9" r:id="rId5"/>
+    <sheet name="event" sheetId="11" r:id="rId6"/>
+    <sheet name="canvas" sheetId="12" r:id="rId7"/>
+    <sheet name="floral" sheetId="13" r:id="rId8"/>
+    <sheet name="interior" sheetId="14" r:id="rId9"/>
+    <sheet name="furniture" sheetId="15" r:id="rId10"/>
+    <sheet name="wall" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">jobs!$C$1:$Y$79</definedName>
@@ -84,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="926">
   <si>
     <t>the Faux Studio: customer feedback</t>
   </si>
@@ -2404,22 +2410,472 @@
     <t>&lt;a href="</t>
   </si>
   <si>
-    <t>images_fl/</t>
-  </si>
-  <si>
-    <t>b005_fl_venetian_plaster_room2_7022.jpg</t>
-  </si>
-  <si>
     <t>" data-ngthumb="</t>
   </si>
   <si>
-    <t>images_fl/b005_fl_venetian_plaster_room2_7022.jpg</t>
-  </si>
-  <si>
-    <t>Label Text</t>
-  </si>
-  <si>
     <t>&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>b500_IMG_1486.jpg</t>
+  </si>
+  <si>
+    <t>b501_IMG_2371.jpg</t>
+  </si>
+  <si>
+    <t>b502_IMG_2438.jpg</t>
+  </si>
+  <si>
+    <t>b502_IMG_3130.jpg</t>
+  </si>
+  <si>
+    <t>b503_IMG_2521.jpg</t>
+  </si>
+  <si>
+    <t>images_raw/canvas/</t>
+  </si>
+  <si>
+    <t>images_raw/canvas/th/</t>
+  </si>
+  <si>
+    <t>b003_0016.JPG</t>
+  </si>
+  <si>
+    <t>b003_2192T.jpg</t>
+  </si>
+  <si>
+    <t>b003_fl_mural_wall1_2182T.jpg</t>
+  </si>
+  <si>
+    <t>b003_fl_mural_wall2_2186T.jpg</t>
+  </si>
+  <si>
+    <t>b011_fl_bluebird_mural_0102.jpg</t>
+  </si>
+  <si>
+    <t>b011_fl_bridge_mural_695.jpg</t>
+  </si>
+  <si>
+    <t>b011_fl_mural_finish1_833.jpg</t>
+  </si>
+  <si>
+    <t>b011_fl_mural_wall1_614.jpg</t>
+  </si>
+  <si>
+    <t>b011_fl_mural_wall2_883.jpg</t>
+  </si>
+  <si>
+    <t>b011_fl_mural_wall3_865.jpg</t>
+  </si>
+  <si>
+    <t>b011_fl_robin_mural_467.jpg</t>
+  </si>
+  <si>
+    <t>b111_fl_chinoiserie_mural_19.jpg</t>
+  </si>
+  <si>
+    <t>b112_fl_bluebird_mural_446.jpg</t>
+  </si>
+  <si>
+    <t>b119_IMG_0203.jpg</t>
+  </si>
+  <si>
+    <t>b350_DSC_0832.jpg</t>
+  </si>
+  <si>
+    <t>images_raw/mural/</t>
+  </si>
+  <si>
+    <t>images_raw/mural/th/</t>
+  </si>
+  <si>
+    <t>b510_IMG_0968.jpg</t>
+  </si>
+  <si>
+    <t>b510_IMG_0970.jpg</t>
+  </si>
+  <si>
+    <t>b510_IMG_0971.jpg</t>
+  </si>
+  <si>
+    <t>b510_IMG_0972.jpg</t>
+  </si>
+  <si>
+    <t>b510_IMG_0974.jpg</t>
+  </si>
+  <si>
+    <t>b510_IMG_0979.jpg</t>
+  </si>
+  <si>
+    <t>b510_IMG_0981.jpg</t>
+  </si>
+  <si>
+    <t>b510_IMG_0983.jpg</t>
+  </si>
+  <si>
+    <t>b510_IMG_0984.jpg</t>
+  </si>
+  <si>
+    <t>b510_IMG_0985.jpg</t>
+  </si>
+  <si>
+    <t>b780_IMG_0751.jpg</t>
+  </si>
+  <si>
+    <t>b780_IMG_0752.jpg</t>
+  </si>
+  <si>
+    <t>b780_IMG_0866.jpg</t>
+  </si>
+  <si>
+    <t>b780_IMG_0867.jpg</t>
+  </si>
+  <si>
+    <t>b780_IMG_0869.jpg</t>
+  </si>
+  <si>
+    <t>images_raw/event/</t>
+  </si>
+  <si>
+    <t>images_raw/event/th/</t>
+  </si>
+  <si>
+    <t>images_raw/floral/</t>
+  </si>
+  <si>
+    <t>images_raw/floral/th/</t>
+  </si>
+  <si>
+    <t>b660_IMG_5126.jpg</t>
+  </si>
+  <si>
+    <t>b660_IMG_5129.jpg</t>
+  </si>
+  <si>
+    <t>b660_IMG_5139.jpg</t>
+  </si>
+  <si>
+    <t>b660_IMG_5141.jpg</t>
+  </si>
+  <si>
+    <t>b660_IMG_5142.jpg</t>
+  </si>
+  <si>
+    <t>b660_IMG_5143.jpg</t>
+  </si>
+  <si>
+    <t>b660_IMG_5146.jpg</t>
+  </si>
+  <si>
+    <t>b660_IMG_5181.jpg</t>
+  </si>
+  <si>
+    <t>b660_IMG_7579.jpg</t>
+  </si>
+  <si>
+    <t>b670_IMG_1355.jpg</t>
+  </si>
+  <si>
+    <t>b695_IMG_2126.jpg</t>
+  </si>
+  <si>
+    <t>b695_IMG_7598.jpg</t>
+  </si>
+  <si>
+    <t>b695_IMG_7601.jpg</t>
+  </si>
+  <si>
+    <t>b695_IMG_7604.jpg</t>
+  </si>
+  <si>
+    <t>b695_IMG_7625.jpg</t>
+  </si>
+  <si>
+    <t>b695_IMG_8729.jpg</t>
+  </si>
+  <si>
+    <t>b695_IMG_8749.jpg</t>
+  </si>
+  <si>
+    <t>b695_IMG_8754.jpg</t>
+  </si>
+  <si>
+    <t>b770_IMG_0351.jpg</t>
+  </si>
+  <si>
+    <t>b770_IMG_0353.jpg</t>
+  </si>
+  <si>
+    <t>b770_IMG_0354.jpg</t>
+  </si>
+  <si>
+    <t>b770_IMG_0384.jpg</t>
+  </si>
+  <si>
+    <t>b770_IMG_0425.jpg</t>
+  </si>
+  <si>
+    <t>b781_IMG_1136.jpg</t>
+  </si>
+  <si>
+    <t>b781_IMG_1137.jpg</t>
+  </si>
+  <si>
+    <t>b781_IMG_1139.jpg</t>
+  </si>
+  <si>
+    <t>b781_IMG_1165.jpg</t>
+  </si>
+  <si>
+    <t>b781_IMG_1175.jpg</t>
+  </si>
+  <si>
+    <t>b785_IMG_1611.jpg</t>
+  </si>
+  <si>
+    <t>b785_IMG_1700.jpg</t>
+  </si>
+  <si>
+    <t>b790_IMG_1932.jpg</t>
+  </si>
+  <si>
+    <t>b795_IMG_2066.jpg</t>
+  </si>
+  <si>
+    <t>b820_IMG_2618.jpg</t>
+  </si>
+  <si>
+    <t>b840_IMG_3033.jpg</t>
+  </si>
+  <si>
+    <t>b106_fl_spring_house1-23.jpg</t>
+  </si>
+  <si>
+    <t>b106_fl_spring_house2-26.jpg</t>
+  </si>
+  <si>
+    <t>b106_fl_spring_house3-28.jpg</t>
+  </si>
+  <si>
+    <t>b106_fl_spring_house4-46.jpg</t>
+  </si>
+  <si>
+    <t>b106_fl_spring_house5-77.jpg</t>
+  </si>
+  <si>
+    <t>b400_IMG_2364.jpg</t>
+  </si>
+  <si>
+    <t>b502a_IMG_1070.JPG</t>
+  </si>
+  <si>
+    <t>b502a_IMG_1304.JPG</t>
+  </si>
+  <si>
+    <t>b502a_IMG_1306.JPG</t>
+  </si>
+  <si>
+    <t>b502a_IMG_2445.JPG</t>
+  </si>
+  <si>
+    <t>b502a_IMG_2446.JPG</t>
+  </si>
+  <si>
+    <t>b502a_IMG_2447.JPG</t>
+  </si>
+  <si>
+    <t>b502a_IMG_2448.JPG</t>
+  </si>
+  <si>
+    <t>b502b_IMG_1464.JPG</t>
+  </si>
+  <si>
+    <t>b502b_IMG_1465.JPG</t>
+  </si>
+  <si>
+    <t>b502b_IMG_1466.JPG</t>
+  </si>
+  <si>
+    <t>b502b_IMG_1467.JPG</t>
+  </si>
+  <si>
+    <t>b502c_IMG_2437.JPG</t>
+  </si>
+  <si>
+    <t>b502c_IMG_2438.JPG</t>
+  </si>
+  <si>
+    <t>b502c_IMG_2440.JPG</t>
+  </si>
+  <si>
+    <t>b502d_IMG_1505.JPG</t>
+  </si>
+  <si>
+    <t>b502e_IMG_1299.JPG</t>
+  </si>
+  <si>
+    <t>b502e_IMG_1458.JPG</t>
+  </si>
+  <si>
+    <t>b502e_IMG_2443.JPG</t>
+  </si>
+  <si>
+    <t>b502e_IMG_2444.JPG</t>
+  </si>
+  <si>
+    <t>b502f_IMG_1083.JPG</t>
+  </si>
+  <si>
+    <t>b502g_IMG_1463.JPG</t>
+  </si>
+  <si>
+    <t>b502h_IMG_1082.JPG</t>
+  </si>
+  <si>
+    <t>b502i_IMG_2441.jpeg</t>
+  </si>
+  <si>
+    <t>b502i_IMG_2442.JPG</t>
+  </si>
+  <si>
+    <t>b502_IMG_1307.JPG</t>
+  </si>
+  <si>
+    <t>b502_IMG_2439.JPG</t>
+  </si>
+  <si>
+    <t>b560_IMG_1896.JPG</t>
+  </si>
+  <si>
+    <t>b580_IMG_2823.JPG</t>
+  </si>
+  <si>
+    <t>b710_IMG_1493.JPG</t>
+  </si>
+  <si>
+    <t>images_raw/interior/</t>
+  </si>
+  <si>
+    <t>b480_IMG_0182.jpg</t>
+  </si>
+  <si>
+    <t>b112_fl_cabinet_antiquing1_312.jpg</t>
+  </si>
+  <si>
+    <t>b112_fl_cabinet_antiquing2_654.jpg</t>
+  </si>
+  <si>
+    <t>b502_IMG_1262.JPG</t>
+  </si>
+  <si>
+    <t>b502_IMG_2599.JPG</t>
+  </si>
+  <si>
+    <t>b610_IMG_3693.jpg</t>
+  </si>
+  <si>
+    <t>b610_IMG_3694.JPG</t>
+  </si>
+  <si>
+    <t>b610_IMG_3695.JPG</t>
+  </si>
+  <si>
+    <t>b610_IMG_3696.JPG</t>
+  </si>
+  <si>
+    <t>b621_IMG_3829.JPG</t>
+  </si>
+  <si>
+    <t>b621_IMG_3830.JPG</t>
+  </si>
+  <si>
+    <t>b621_IMG_4017.JPG</t>
+  </si>
+  <si>
+    <t>b621_IMG_4153.JPG</t>
+  </si>
+  <si>
+    <t>b621_IMG_4154.JPG</t>
+  </si>
+  <si>
+    <t>b621_IMG_4155.JPG</t>
+  </si>
+  <si>
+    <t>b622_IMG_3923.JPG</t>
+  </si>
+  <si>
+    <t>b622_IMG_4016.JPG</t>
+  </si>
+  <si>
+    <t>b630_IMG_4014.JPG</t>
+  </si>
+  <si>
+    <t>b631_IMG_4018.JPG</t>
+  </si>
+  <si>
+    <t>b791_IMG_1929.jpg</t>
+  </si>
+  <si>
+    <t>b791_IMG_1950.jpg</t>
+  </si>
+  <si>
+    <t>images_raw/furniture/</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>images_raw/wall/</t>
+  </si>
+  <si>
+    <t>a800_fl_a3979.JPG</t>
+  </si>
+  <si>
+    <t>a800_fl_b4050.JPG</t>
+  </si>
+  <si>
+    <t>a810_fl_4174.jpg</t>
+  </si>
+  <si>
+    <t>a810_fl_4186.jpg</t>
+  </si>
+  <si>
+    <t>a840_fl_4541.jpg</t>
+  </si>
+  <si>
+    <t>a860_fl_4734.jpg</t>
+  </si>
+  <si>
+    <t>a901_fl_tuscany_color_wash_room2_059_wide.jpg</t>
+  </si>
+  <si>
+    <t>a902_5218_wide.jpg</t>
+  </si>
+  <si>
+    <t>a903_fl_modello_5286.JPG</t>
+  </si>
+  <si>
+    <t>b002_fl_room2_6025_wide.jpg</t>
+  </si>
+  <si>
+    <t>b006_0181.JPG</t>
+  </si>
+  <si>
+    <t>b006_fl_6474_wide.jpg</t>
+  </si>
+  <si>
+    <t>b112_44.jpg</t>
+  </si>
+  <si>
+    <t>b112_528.jpg</t>
+  </si>
+  <si>
+    <t>b690_IMG_7256.JPG</t>
+  </si>
+  <si>
+    <t>b710_IMG_8036.JPG</t>
   </si>
 </sst>
 </file>
@@ -3230,11 +3686,1107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2053E9-8D8A-409C-B8F4-BD8851F40782}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E1" t="s">
+        <v>906</v>
+      </c>
+      <c r="F1" t="s">
+        <v>888</v>
+      </c>
+      <c r="G1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" t="s">
+        <v>907</v>
+      </c>
+      <c r="I1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>906</v>
+      </c>
+      <c r="F2" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" t="s">
+        <v>908</v>
+      </c>
+      <c r="I2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E3" t="s">
+        <v>906</v>
+      </c>
+      <c r="F3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" t="s">
+        <v>908</v>
+      </c>
+      <c r="I3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" t="s">
+        <v>891</v>
+      </c>
+      <c r="D4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" t="s">
+        <v>906</v>
+      </c>
+      <c r="F4" t="s">
+        <v>891</v>
+      </c>
+      <c r="G4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" t="s">
+        <v>908</v>
+      </c>
+      <c r="I4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C5" t="s">
+        <v>892</v>
+      </c>
+      <c r="D5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>906</v>
+      </c>
+      <c r="F5" t="s">
+        <v>892</v>
+      </c>
+      <c r="G5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" t="s">
+        <v>908</v>
+      </c>
+      <c r="I5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>906</v>
+      </c>
+      <c r="C6" t="s">
+        <v>893</v>
+      </c>
+      <c r="D6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" t="s">
+        <v>906</v>
+      </c>
+      <c r="F6" t="s">
+        <v>893</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>908</v>
+      </c>
+      <c r="I6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C7" t="s">
+        <v>894</v>
+      </c>
+      <c r="D7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E7" t="s">
+        <v>906</v>
+      </c>
+      <c r="F7" t="s">
+        <v>894</v>
+      </c>
+      <c r="G7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" t="s">
+        <v>907</v>
+      </c>
+      <c r="I7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>906</v>
+      </c>
+      <c r="C8" t="s">
+        <v>895</v>
+      </c>
+      <c r="D8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E8" t="s">
+        <v>906</v>
+      </c>
+      <c r="F8" t="s">
+        <v>895</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>907</v>
+      </c>
+      <c r="I8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B9" t="s">
+        <v>906</v>
+      </c>
+      <c r="C9" t="s">
+        <v>896</v>
+      </c>
+      <c r="D9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" t="s">
+        <v>906</v>
+      </c>
+      <c r="F9" t="s">
+        <v>896</v>
+      </c>
+      <c r="G9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>908</v>
+      </c>
+      <c r="I9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>906</v>
+      </c>
+      <c r="C10" t="s">
+        <v>897</v>
+      </c>
+      <c r="D10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E10" t="s">
+        <v>906</v>
+      </c>
+      <c r="F10" t="s">
+        <v>897</v>
+      </c>
+      <c r="G10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" t="s">
+        <v>908</v>
+      </c>
+      <c r="I10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C11" t="s">
+        <v>898</v>
+      </c>
+      <c r="D11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E11" t="s">
+        <v>906</v>
+      </c>
+      <c r="F11" t="s">
+        <v>898</v>
+      </c>
+      <c r="G11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" t="s">
+        <v>908</v>
+      </c>
+      <c r="I11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="s">
+        <v>906</v>
+      </c>
+      <c r="C12" t="s">
+        <v>899</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" t="s">
+        <v>906</v>
+      </c>
+      <c r="F12" t="s">
+        <v>899</v>
+      </c>
+      <c r="G12" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" t="s">
+        <v>908</v>
+      </c>
+      <c r="I12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" t="s">
+        <v>906</v>
+      </c>
+      <c r="C13" t="s">
+        <v>900</v>
+      </c>
+      <c r="D13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" t="s">
+        <v>906</v>
+      </c>
+      <c r="F13" t="s">
+        <v>900</v>
+      </c>
+      <c r="G13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" t="s">
+        <v>907</v>
+      </c>
+      <c r="I13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B14" t="s">
+        <v>906</v>
+      </c>
+      <c r="C14" t="s">
+        <v>901</v>
+      </c>
+      <c r="D14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" t="s">
+        <v>906</v>
+      </c>
+      <c r="F14" t="s">
+        <v>901</v>
+      </c>
+      <c r="G14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" t="s">
+        <v>908</v>
+      </c>
+      <c r="I14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" t="s">
+        <v>906</v>
+      </c>
+      <c r="C15" t="s">
+        <v>905</v>
+      </c>
+      <c r="D15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
+        <v>906</v>
+      </c>
+      <c r="F15" t="s">
+        <v>905</v>
+      </c>
+      <c r="G15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" t="s">
+        <v>907</v>
+      </c>
+      <c r="I15" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>769</v>
+      </c>
+      <c r="B16" t="s">
+        <v>906</v>
+      </c>
+      <c r="C16" t="s">
+        <v>904</v>
+      </c>
+      <c r="D16" t="s">
+        <v>770</v>
+      </c>
+      <c r="E16" t="s">
+        <v>906</v>
+      </c>
+      <c r="F16" t="s">
+        <v>904</v>
+      </c>
+      <c r="G16" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16" t="s">
+        <v>908</v>
+      </c>
+      <c r="I16" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" t="s">
+        <v>906</v>
+      </c>
+      <c r="C17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D17" t="s">
+        <v>770</v>
+      </c>
+      <c r="E17" t="s">
+        <v>906</v>
+      </c>
+      <c r="F17" t="s">
+        <v>902</v>
+      </c>
+      <c r="G17" t="s">
+        <v>431</v>
+      </c>
+      <c r="H17" t="s">
+        <v>908</v>
+      </c>
+      <c r="I17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>769</v>
+      </c>
+      <c r="B18" t="s">
+        <v>906</v>
+      </c>
+      <c r="C18" t="s">
+        <v>903</v>
+      </c>
+      <c r="D18" t="s">
+        <v>770</v>
+      </c>
+      <c r="E18" t="s">
+        <v>906</v>
+      </c>
+      <c r="F18" t="s">
+        <v>903</v>
+      </c>
+      <c r="G18" t="s">
+        <v>431</v>
+      </c>
+      <c r="H18" t="s">
+        <v>908</v>
+      </c>
+      <c r="I18" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>769</v>
+      </c>
+      <c r="B19" t="s">
+        <v>906</v>
+      </c>
+      <c r="C19" t="s">
+        <v>886</v>
+      </c>
+      <c r="D19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" t="s">
+        <v>906</v>
+      </c>
+      <c r="F19" t="s">
+        <v>886</v>
+      </c>
+      <c r="G19" t="s">
+        <v>431</v>
+      </c>
+      <c r="H19" t="s">
+        <v>908</v>
+      </c>
+      <c r="I19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20" t="s">
+        <v>906</v>
+      </c>
+      <c r="C20" t="s">
+        <v>887</v>
+      </c>
+      <c r="D20" t="s">
+        <v>770</v>
+      </c>
+      <c r="E20" t="s">
+        <v>906</v>
+      </c>
+      <c r="F20" t="s">
+        <v>887</v>
+      </c>
+      <c r="G20" t="s">
+        <v>431</v>
+      </c>
+      <c r="H20" t="s">
+        <v>908</v>
+      </c>
+      <c r="I20" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253918D-7970-44E5-9176-F61118E11904}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.9140625" customWidth="1"/>
+    <col min="9" max="9" width="4.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" t="s">
+        <v>907</v>
+      </c>
+      <c r="I1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>909</v>
+      </c>
+      <c r="F2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" t="s">
+        <v>907</v>
+      </c>
+      <c r="I2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E3" t="s">
+        <v>909</v>
+      </c>
+      <c r="F3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" t="s">
+        <v>907</v>
+      </c>
+      <c r="I3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" t="s">
+        <v>909</v>
+      </c>
+      <c r="F4" t="s">
+        <v>913</v>
+      </c>
+      <c r="G4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" t="s">
+        <v>907</v>
+      </c>
+      <c r="I4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>909</v>
+      </c>
+      <c r="F5" t="s">
+        <v>914</v>
+      </c>
+      <c r="G5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" t="s">
+        <v>907</v>
+      </c>
+      <c r="I5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>909</v>
+      </c>
+      <c r="C6" t="s">
+        <v>915</v>
+      </c>
+      <c r="D6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" t="s">
+        <v>909</v>
+      </c>
+      <c r="F6" t="s">
+        <v>915</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>907</v>
+      </c>
+      <c r="I6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" t="s">
+        <v>909</v>
+      </c>
+      <c r="C7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E7" t="s">
+        <v>909</v>
+      </c>
+      <c r="F7" t="s">
+        <v>916</v>
+      </c>
+      <c r="G7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" t="s">
+        <v>907</v>
+      </c>
+      <c r="I7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C8" t="s">
+        <v>917</v>
+      </c>
+      <c r="D8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E8" t="s">
+        <v>909</v>
+      </c>
+      <c r="F8" t="s">
+        <v>917</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>907</v>
+      </c>
+      <c r="I8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C9" t="s">
+        <v>918</v>
+      </c>
+      <c r="D9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" t="s">
+        <v>909</v>
+      </c>
+      <c r="F9" t="s">
+        <v>918</v>
+      </c>
+      <c r="G9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>907</v>
+      </c>
+      <c r="I9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>909</v>
+      </c>
+      <c r="C10" t="s">
+        <v>919</v>
+      </c>
+      <c r="D10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E10" t="s">
+        <v>909</v>
+      </c>
+      <c r="F10" t="s">
+        <v>919</v>
+      </c>
+      <c r="G10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" t="s">
+        <v>907</v>
+      </c>
+      <c r="I10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C11" t="s">
+        <v>920</v>
+      </c>
+      <c r="D11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E11" t="s">
+        <v>909</v>
+      </c>
+      <c r="F11" t="s">
+        <v>920</v>
+      </c>
+      <c r="G11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" t="s">
+        <v>907</v>
+      </c>
+      <c r="I11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="s">
+        <v>909</v>
+      </c>
+      <c r="C12" t="s">
+        <v>921</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" t="s">
+        <v>909</v>
+      </c>
+      <c r="F12" t="s">
+        <v>921</v>
+      </c>
+      <c r="G12" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" t="s">
+        <v>907</v>
+      </c>
+      <c r="I12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" t="s">
+        <v>909</v>
+      </c>
+      <c r="C13" t="s">
+        <v>922</v>
+      </c>
+      <c r="D13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" t="s">
+        <v>909</v>
+      </c>
+      <c r="F13" t="s">
+        <v>922</v>
+      </c>
+      <c r="G13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" t="s">
+        <v>907</v>
+      </c>
+      <c r="I13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B14" t="s">
+        <v>909</v>
+      </c>
+      <c r="C14" t="s">
+        <v>923</v>
+      </c>
+      <c r="D14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" t="s">
+        <v>909</v>
+      </c>
+      <c r="F14" t="s">
+        <v>923</v>
+      </c>
+      <c r="G14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" t="s">
+        <v>907</v>
+      </c>
+      <c r="I14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" t="s">
+        <v>909</v>
+      </c>
+      <c r="C15" t="s">
+        <v>924</v>
+      </c>
+      <c r="D15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
+        <v>909</v>
+      </c>
+      <c r="F15" t="s">
+        <v>924</v>
+      </c>
+      <c r="G15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" t="s">
+        <v>907</v>
+      </c>
+      <c r="I15" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>769</v>
+      </c>
+      <c r="B16" t="s">
+        <v>909</v>
+      </c>
+      <c r="C16" t="s">
+        <v>925</v>
+      </c>
+      <c r="D16" t="s">
+        <v>770</v>
+      </c>
+      <c r="E16" t="s">
+        <v>909</v>
+      </c>
+      <c r="F16" t="s">
+        <v>925</v>
+      </c>
+      <c r="G16" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16" t="s">
+        <v>907</v>
+      </c>
+      <c r="I16" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="H87" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
@@ -3344,75 +4896,75 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="8">
-        <f>SUM(H3:H104)</f>
+        <f t="shared" ref="H2:Y2" si="0">SUM(H3:H104)</f>
         <v>4</v>
       </c>
       <c r="I2" s="8">
-        <f>SUM(I3:I104)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J2" s="8">
-        <f>SUM(J3:J104)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K2" s="8">
-        <f>SUM(K3:K104)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L2" s="8">
-        <f>SUM(L3:L104)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="M2" s="8">
-        <f>SUM(M3:M104)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N2" s="8">
-        <f>SUM(N3:N104)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="O2" s="8">
-        <f>SUM(O3:O104)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P2" s="8">
-        <f>SUM(P3:P104)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Q2" s="8">
-        <f>SUM(Q3:Q104)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="R2" s="8">
-        <f>SUM(R3:R104)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="S2" s="8">
-        <f>SUM(S3:S104)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="T2" s="8">
-        <f>SUM(T3:T104)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U2" s="8">
-        <f>SUM(U3:U104)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="V2" s="8">
-        <f>SUM(V3:V104)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="W2" s="8">
-        <f>SUM(W3:W104)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="X2" s="8">
-        <f>SUM(X3:X104)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Y2" s="8">
-        <f>SUM(Y3:Y104)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -16072,21 +17624,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="47" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -16094,25 +17646,2854 @@
         <v>769</v>
       </c>
       <c r="B1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D1" t="s">
         <v>770</v>
       </c>
+      <c r="E1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F1" t="s">
+        <v>779</v>
+      </c>
+      <c r="G1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F3" t="s">
+        <v>781</v>
+      </c>
+      <c r="G3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" t="s">
+        <v>795</v>
+      </c>
+      <c r="F4" t="s">
+        <v>782</v>
+      </c>
+      <c r="G4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C5" t="s">
+        <v>783</v>
+      </c>
+      <c r="D5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F5" t="s">
+        <v>783</v>
+      </c>
+      <c r="G5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C6" t="s">
+        <v>784</v>
+      </c>
+      <c r="D6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" t="s">
+        <v>795</v>
+      </c>
+      <c r="F6" t="s">
+        <v>784</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" t="s">
+        <v>785</v>
+      </c>
+      <c r="D7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E7" t="s">
+        <v>795</v>
+      </c>
+      <c r="F7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>794</v>
+      </c>
+      <c r="C8" t="s">
+        <v>786</v>
+      </c>
+      <c r="D8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F8" t="s">
+        <v>786</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C9" t="s">
+        <v>787</v>
+      </c>
+      <c r="D9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F9" t="s">
+        <v>787</v>
+      </c>
+      <c r="G9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C10" t="s">
+        <v>788</v>
+      </c>
+      <c r="D10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E10" t="s">
+        <v>795</v>
+      </c>
+      <c r="F10" t="s">
+        <v>788</v>
+      </c>
+      <c r="G10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" t="s">
+        <v>794</v>
+      </c>
+      <c r="C11" t="s">
+        <v>789</v>
+      </c>
+      <c r="D11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E11" t="s">
+        <v>795</v>
+      </c>
+      <c r="F11" t="s">
+        <v>789</v>
+      </c>
+      <c r="G11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="s">
+        <v>794</v>
+      </c>
+      <c r="C12" t="s">
+        <v>790</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" t="s">
+        <v>795</v>
+      </c>
+      <c r="F12" t="s">
+        <v>790</v>
+      </c>
+      <c r="G12" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" t="s">
+        <v>794</v>
+      </c>
+      <c r="C13" t="s">
+        <v>791</v>
+      </c>
+      <c r="D13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" t="s">
+        <v>795</v>
+      </c>
+      <c r="F13" t="s">
+        <v>791</v>
+      </c>
+      <c r="G13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B14" t="s">
+        <v>794</v>
+      </c>
+      <c r="C14" t="s">
+        <v>792</v>
+      </c>
+      <c r="D14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" t="s">
+        <v>795</v>
+      </c>
+      <c r="F14" t="s">
+        <v>792</v>
+      </c>
+      <c r="G14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" t="s">
+        <v>794</v>
+      </c>
+      <c r="C15" t="s">
+        <v>793</v>
+      </c>
+      <c r="D15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
+        <v>795</v>
+      </c>
+      <c r="F15" t="s">
+        <v>793</v>
+      </c>
+      <c r="G15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5924E57C-CA5E-4F06-A225-71DD4A2F7491}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" t="s">
+        <v>811</v>
+      </c>
       <c r="C1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" t="s">
         <v>771</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C4" t="s">
+        <v>799</v>
+      </c>
+      <c r="D4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F4" t="s">
+        <v>799</v>
+      </c>
+      <c r="G4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C5" t="s">
+        <v>800</v>
+      </c>
+      <c r="D5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>812</v>
+      </c>
+      <c r="F5" t="s">
+        <v>800</v>
+      </c>
+      <c r="G5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>811</v>
+      </c>
+      <c r="C6" t="s">
+        <v>801</v>
+      </c>
+      <c r="D6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" t="s">
+        <v>812</v>
+      </c>
+      <c r="F6" t="s">
+        <v>801</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C7" t="s">
+        <v>802</v>
+      </c>
+      <c r="D7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E7" t="s">
+        <v>812</v>
+      </c>
+      <c r="F7" t="s">
+        <v>802</v>
+      </c>
+      <c r="G7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C8" t="s">
+        <v>803</v>
+      </c>
+      <c r="D8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E8" t="s">
+        <v>812</v>
+      </c>
+      <c r="F8" t="s">
+        <v>803</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C9" t="s">
+        <v>804</v>
+      </c>
+      <c r="D9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" t="s">
+        <v>812</v>
+      </c>
+      <c r="F9" t="s">
+        <v>804</v>
+      </c>
+      <c r="G9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C10" t="s">
+        <v>805</v>
+      </c>
+      <c r="D10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E10" t="s">
+        <v>812</v>
+      </c>
+      <c r="F10" t="s">
+        <v>805</v>
+      </c>
+      <c r="G10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C11" t="s">
+        <v>806</v>
+      </c>
+      <c r="D11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E11" t="s">
+        <v>812</v>
+      </c>
+      <c r="F11" t="s">
+        <v>806</v>
+      </c>
+      <c r="G11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="s">
+        <v>811</v>
+      </c>
+      <c r="C12" t="s">
+        <v>807</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" t="s">
+        <v>812</v>
+      </c>
+      <c r="F12" t="s">
+        <v>807</v>
+      </c>
+      <c r="G12" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" t="s">
+        <v>811</v>
+      </c>
+      <c r="C13" t="s">
+        <v>808</v>
+      </c>
+      <c r="D13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" t="s">
+        <v>812</v>
+      </c>
+      <c r="F13" t="s">
+        <v>808</v>
+      </c>
+      <c r="G13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B14" t="s">
+        <v>811</v>
+      </c>
+      <c r="C14" t="s">
+        <v>809</v>
+      </c>
+      <c r="D14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" t="s">
+        <v>812</v>
+      </c>
+      <c r="F14" t="s">
+        <v>809</v>
+      </c>
+      <c r="G14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" t="s">
+        <v>811</v>
+      </c>
+      <c r="C15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
+        <v>812</v>
+      </c>
+      <c r="F15" t="s">
+        <v>810</v>
+      </c>
+      <c r="G15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FD9727-E3C6-4384-9626-C148FECD0BDD}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1" t="s">
+        <v>772</v>
+      </c>
       <c r="D1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1" t="s">
         <v>772</v>
       </c>
+      <c r="G1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>778</v>
+      </c>
+      <c r="F2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F3" t="s">
+        <v>774</v>
+      </c>
+      <c r="G3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" t="s">
+        <v>778</v>
+      </c>
+      <c r="F4" t="s">
+        <v>775</v>
+      </c>
+      <c r="G4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>777</v>
+      </c>
+      <c r="C5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F5" t="s">
+        <v>776</v>
+      </c>
+      <c r="G5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C6" t="s">
+        <v>810</v>
+      </c>
+      <c r="D6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" t="s">
+        <v>778</v>
+      </c>
+      <c r="F6" t="s">
+        <v>810</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0076009B-2F92-4A64-9AA5-AECD98CFFD8A}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D1" t="s">
+        <v>770</v>
+      </c>
       <c r="E1" t="s">
-        <v>773</v>
+        <v>814</v>
       </c>
       <c r="F1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G1" t="s">
         <v>431</v>
       </c>
+      <c r="H1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F3" t="s">
+        <v>817</v>
+      </c>
+      <c r="G3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C4" t="s">
+        <v>818</v>
+      </c>
+      <c r="D4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>813</v>
+      </c>
+      <c r="C5" t="s">
+        <v>819</v>
+      </c>
+      <c r="D5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>814</v>
+      </c>
+      <c r="F5" t="s">
+        <v>819</v>
+      </c>
+      <c r="G5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C6" t="s">
+        <v>820</v>
+      </c>
+      <c r="D6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" t="s">
+        <v>814</v>
+      </c>
+      <c r="F6" t="s">
+        <v>820</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F7" t="s">
+        <v>821</v>
+      </c>
+      <c r="G7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C8" t="s">
+        <v>822</v>
+      </c>
+      <c r="D8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E8" t="s">
+        <v>814</v>
+      </c>
+      <c r="F8" t="s">
+        <v>822</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B9" t="s">
+        <v>813</v>
+      </c>
+      <c r="C9" t="s">
+        <v>823</v>
+      </c>
+      <c r="D9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" t="s">
+        <v>814</v>
+      </c>
+      <c r="F9" t="s">
+        <v>823</v>
+      </c>
+      <c r="G9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>813</v>
+      </c>
+      <c r="C10" t="s">
+        <v>824</v>
+      </c>
+      <c r="D10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E10" t="s">
+        <v>814</v>
+      </c>
+      <c r="F10" t="s">
+        <v>824</v>
+      </c>
+      <c r="G10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C11" t="s">
+        <v>825</v>
+      </c>
+      <c r="D11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E11" t="s">
+        <v>814</v>
+      </c>
+      <c r="F11" t="s">
+        <v>825</v>
+      </c>
+      <c r="G11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="s">
+        <v>813</v>
+      </c>
+      <c r="C12" t="s">
+        <v>826</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" t="s">
+        <v>814</v>
+      </c>
+      <c r="F12" t="s">
+        <v>826</v>
+      </c>
+      <c r="G12" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13" t="s">
+        <v>827</v>
+      </c>
+      <c r="D13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" t="s">
+        <v>814</v>
+      </c>
+      <c r="F13" t="s">
+        <v>827</v>
+      </c>
+      <c r="G13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B14" t="s">
+        <v>813</v>
+      </c>
+      <c r="C14" t="s">
+        <v>828</v>
+      </c>
+      <c r="D14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" t="s">
+        <v>814</v>
+      </c>
+      <c r="F14" t="s">
+        <v>828</v>
+      </c>
+      <c r="G14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" t="s">
+        <v>813</v>
+      </c>
+      <c r="C15" t="s">
+        <v>829</v>
+      </c>
+      <c r="D15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
+        <v>814</v>
+      </c>
+      <c r="F15" t="s">
+        <v>829</v>
+      </c>
+      <c r="G15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>769</v>
+      </c>
+      <c r="B16" t="s">
+        <v>813</v>
+      </c>
+      <c r="C16" t="s">
+        <v>830</v>
+      </c>
+      <c r="D16" t="s">
+        <v>770</v>
+      </c>
+      <c r="E16" t="s">
+        <v>814</v>
+      </c>
+      <c r="F16" t="s">
+        <v>830</v>
+      </c>
+      <c r="G16" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" t="s">
+        <v>813</v>
+      </c>
+      <c r="C17" t="s">
+        <v>831</v>
+      </c>
+      <c r="D17" t="s">
+        <v>770</v>
+      </c>
+      <c r="E17" t="s">
+        <v>814</v>
+      </c>
+      <c r="F17" t="s">
+        <v>831</v>
+      </c>
+      <c r="G17" t="s">
+        <v>431</v>
+      </c>
+      <c r="H17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>769</v>
+      </c>
+      <c r="B18" t="s">
+        <v>813</v>
+      </c>
+      <c r="C18" t="s">
+        <v>832</v>
+      </c>
+      <c r="D18" t="s">
+        <v>770</v>
+      </c>
+      <c r="E18" t="s">
+        <v>814</v>
+      </c>
+      <c r="F18" t="s">
+        <v>832</v>
+      </c>
+      <c r="G18" t="s">
+        <v>431</v>
+      </c>
+      <c r="H18" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>769</v>
+      </c>
+      <c r="B19" t="s">
+        <v>813</v>
+      </c>
+      <c r="C19" t="s">
+        <v>833</v>
+      </c>
+      <c r="D19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" t="s">
+        <v>814</v>
+      </c>
+      <c r="F19" t="s">
+        <v>833</v>
+      </c>
+      <c r="G19" t="s">
+        <v>431</v>
+      </c>
+      <c r="H19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20" t="s">
+        <v>813</v>
+      </c>
+      <c r="C20" t="s">
+        <v>834</v>
+      </c>
+      <c r="D20" t="s">
+        <v>770</v>
+      </c>
+      <c r="E20" t="s">
+        <v>814</v>
+      </c>
+      <c r="F20" t="s">
+        <v>834</v>
+      </c>
+      <c r="G20" t="s">
+        <v>431</v>
+      </c>
+      <c r="H20" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>769</v>
+      </c>
+      <c r="B21" t="s">
+        <v>813</v>
+      </c>
+      <c r="C21" t="s">
+        <v>835</v>
+      </c>
+      <c r="D21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E21" t="s">
+        <v>814</v>
+      </c>
+      <c r="F21" t="s">
+        <v>835</v>
+      </c>
+      <c r="G21" t="s">
+        <v>431</v>
+      </c>
+      <c r="H21" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>769</v>
+      </c>
+      <c r="B22" t="s">
+        <v>813</v>
+      </c>
+      <c r="C22" t="s">
+        <v>836</v>
+      </c>
+      <c r="D22" t="s">
+        <v>770</v>
+      </c>
+      <c r="E22" t="s">
+        <v>814</v>
+      </c>
+      <c r="F22" t="s">
+        <v>836</v>
+      </c>
+      <c r="G22" t="s">
+        <v>431</v>
+      </c>
+      <c r="H22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>769</v>
+      </c>
+      <c r="B23" t="s">
+        <v>813</v>
+      </c>
+      <c r="C23" t="s">
+        <v>837</v>
+      </c>
+      <c r="D23" t="s">
+        <v>770</v>
+      </c>
+      <c r="E23" t="s">
+        <v>814</v>
+      </c>
+      <c r="F23" t="s">
+        <v>837</v>
+      </c>
+      <c r="G23" t="s">
+        <v>431</v>
+      </c>
+      <c r="H23" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>769</v>
+      </c>
+      <c r="B24" t="s">
+        <v>813</v>
+      </c>
+      <c r="C24" t="s">
+        <v>838</v>
+      </c>
+      <c r="D24" t="s">
+        <v>770</v>
+      </c>
+      <c r="E24" t="s">
+        <v>814</v>
+      </c>
+      <c r="F24" t="s">
+        <v>838</v>
+      </c>
+      <c r="G24" t="s">
+        <v>431</v>
+      </c>
+      <c r="H24" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>769</v>
+      </c>
+      <c r="B25" t="s">
+        <v>813</v>
+      </c>
+      <c r="C25" t="s">
+        <v>839</v>
+      </c>
+      <c r="D25" t="s">
+        <v>770</v>
+      </c>
+      <c r="E25" t="s">
+        <v>814</v>
+      </c>
+      <c r="F25" t="s">
+        <v>839</v>
+      </c>
+      <c r="G25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H25" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>769</v>
+      </c>
+      <c r="B26" t="s">
+        <v>813</v>
+      </c>
+      <c r="C26" t="s">
+        <v>840</v>
+      </c>
+      <c r="D26" t="s">
+        <v>770</v>
+      </c>
+      <c r="E26" t="s">
+        <v>814</v>
+      </c>
+      <c r="F26" t="s">
+        <v>840</v>
+      </c>
+      <c r="G26" t="s">
+        <v>431</v>
+      </c>
+      <c r="H26" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>769</v>
+      </c>
+      <c r="B27" t="s">
+        <v>813</v>
+      </c>
+      <c r="C27" t="s">
+        <v>841</v>
+      </c>
+      <c r="D27" t="s">
+        <v>770</v>
+      </c>
+      <c r="E27" t="s">
+        <v>814</v>
+      </c>
+      <c r="F27" t="s">
+        <v>841</v>
+      </c>
+      <c r="G27" t="s">
+        <v>431</v>
+      </c>
+      <c r="H27" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>769</v>
+      </c>
+      <c r="B28" t="s">
+        <v>813</v>
+      </c>
+      <c r="C28" t="s">
+        <v>842</v>
+      </c>
+      <c r="D28" t="s">
+        <v>770</v>
+      </c>
+      <c r="E28" t="s">
+        <v>814</v>
+      </c>
+      <c r="F28" t="s">
+        <v>842</v>
+      </c>
+      <c r="G28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H28" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>769</v>
+      </c>
+      <c r="B29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C29" t="s">
+        <v>843</v>
+      </c>
+      <c r="D29" t="s">
+        <v>770</v>
+      </c>
+      <c r="E29" t="s">
+        <v>814</v>
+      </c>
+      <c r="F29" t="s">
+        <v>843</v>
+      </c>
+      <c r="G29" t="s">
+        <v>431</v>
+      </c>
+      <c r="H29" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C30" t="s">
+        <v>844</v>
+      </c>
+      <c r="D30" t="s">
+        <v>770</v>
+      </c>
+      <c r="E30" t="s">
+        <v>814</v>
+      </c>
+      <c r="F30" t="s">
+        <v>844</v>
+      </c>
+      <c r="G30" t="s">
+        <v>431</v>
+      </c>
+      <c r="H30" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>769</v>
+      </c>
+      <c r="B31" t="s">
+        <v>813</v>
+      </c>
+      <c r="C31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D31" t="s">
+        <v>770</v>
+      </c>
+      <c r="E31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F31" t="s">
+        <v>845</v>
+      </c>
+      <c r="G31" t="s">
+        <v>431</v>
+      </c>
+      <c r="H31" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>769</v>
+      </c>
+      <c r="B32" t="s">
+        <v>813</v>
+      </c>
+      <c r="C32" t="s">
+        <v>846</v>
+      </c>
+      <c r="D32" t="s">
+        <v>770</v>
+      </c>
+      <c r="E32" t="s">
+        <v>814</v>
+      </c>
+      <c r="F32" t="s">
+        <v>846</v>
+      </c>
+      <c r="G32" t="s">
+        <v>431</v>
+      </c>
+      <c r="H32" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>769</v>
+      </c>
+      <c r="B33" t="s">
+        <v>813</v>
+      </c>
+      <c r="C33" t="s">
+        <v>847</v>
+      </c>
+      <c r="D33" t="s">
+        <v>770</v>
+      </c>
+      <c r="E33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F33" t="s">
+        <v>847</v>
+      </c>
+      <c r="G33" t="s">
+        <v>431</v>
+      </c>
+      <c r="H33" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>769</v>
+      </c>
+      <c r="B34" t="s">
+        <v>813</v>
+      </c>
+      <c r="C34" t="s">
+        <v>848</v>
+      </c>
+      <c r="D34" t="s">
+        <v>770</v>
+      </c>
+      <c r="E34" t="s">
+        <v>814</v>
+      </c>
+      <c r="F34" t="s">
+        <v>848</v>
+      </c>
+      <c r="G34" t="s">
+        <v>431</v>
+      </c>
+      <c r="H34" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5559084-3599-430D-BCA0-C5E3F95CCD56}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F1" t="s">
+        <v>849</v>
+      </c>
       <c r="G1" t="s">
-        <v>774</v>
+        <v>431</v>
       </c>
       <c r="H1" t="s">
-        <v>775</v>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>884</v>
+      </c>
+      <c r="F2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" t="s">
+        <v>884</v>
+      </c>
+      <c r="F4" t="s">
+        <v>852</v>
+      </c>
+      <c r="G4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>884</v>
+      </c>
+      <c r="C5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F5" t="s">
+        <v>853</v>
+      </c>
+      <c r="G5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>884</v>
+      </c>
+      <c r="C6" t="s">
+        <v>854</v>
+      </c>
+      <c r="D6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" t="s">
+        <v>884</v>
+      </c>
+      <c r="F6" t="s">
+        <v>854</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" t="s">
+        <v>884</v>
+      </c>
+      <c r="C7" t="s">
+        <v>885</v>
+      </c>
+      <c r="D7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E7" t="s">
+        <v>884</v>
+      </c>
+      <c r="F7" t="s">
+        <v>885</v>
+      </c>
+      <c r="G7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C8" t="s">
+        <v>855</v>
+      </c>
+      <c r="D8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E8" t="s">
+        <v>884</v>
+      </c>
+      <c r="F8" t="s">
+        <v>855</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B9" t="s">
+        <v>884</v>
+      </c>
+      <c r="C9" t="s">
+        <v>856</v>
+      </c>
+      <c r="D9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" t="s">
+        <v>884</v>
+      </c>
+      <c r="F9" t="s">
+        <v>856</v>
+      </c>
+      <c r="G9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>884</v>
+      </c>
+      <c r="C10" t="s">
+        <v>857</v>
+      </c>
+      <c r="D10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E10" t="s">
+        <v>884</v>
+      </c>
+      <c r="F10" t="s">
+        <v>857</v>
+      </c>
+      <c r="G10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" t="s">
+        <v>884</v>
+      </c>
+      <c r="C11" t="s">
+        <v>858</v>
+      </c>
+      <c r="D11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E11" t="s">
+        <v>884</v>
+      </c>
+      <c r="F11" t="s">
+        <v>858</v>
+      </c>
+      <c r="G11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="s">
+        <v>884</v>
+      </c>
+      <c r="C12" t="s">
+        <v>859</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F12" t="s">
+        <v>859</v>
+      </c>
+      <c r="G12" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" t="s">
+        <v>884</v>
+      </c>
+      <c r="C13" t="s">
+        <v>860</v>
+      </c>
+      <c r="D13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" t="s">
+        <v>884</v>
+      </c>
+      <c r="F13" t="s">
+        <v>860</v>
+      </c>
+      <c r="G13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B14" t="s">
+        <v>884</v>
+      </c>
+      <c r="C14" t="s">
+        <v>861</v>
+      </c>
+      <c r="D14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" t="s">
+        <v>884</v>
+      </c>
+      <c r="F14" t="s">
+        <v>861</v>
+      </c>
+      <c r="G14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" t="s">
+        <v>884</v>
+      </c>
+      <c r="C15" t="s">
+        <v>862</v>
+      </c>
+      <c r="D15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
+        <v>884</v>
+      </c>
+      <c r="F15" t="s">
+        <v>862</v>
+      </c>
+      <c r="G15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>769</v>
+      </c>
+      <c r="B16" t="s">
+        <v>884</v>
+      </c>
+      <c r="C16" t="s">
+        <v>863</v>
+      </c>
+      <c r="D16" t="s">
+        <v>770</v>
+      </c>
+      <c r="E16" t="s">
+        <v>884</v>
+      </c>
+      <c r="F16" t="s">
+        <v>863</v>
+      </c>
+      <c r="G16" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" t="s">
+        <v>884</v>
+      </c>
+      <c r="C17" t="s">
+        <v>864</v>
+      </c>
+      <c r="D17" t="s">
+        <v>770</v>
+      </c>
+      <c r="E17" t="s">
+        <v>884</v>
+      </c>
+      <c r="F17" t="s">
+        <v>864</v>
+      </c>
+      <c r="G17" t="s">
+        <v>431</v>
+      </c>
+      <c r="H17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>769</v>
+      </c>
+      <c r="B18" t="s">
+        <v>884</v>
+      </c>
+      <c r="C18" t="s">
+        <v>865</v>
+      </c>
+      <c r="D18" t="s">
+        <v>770</v>
+      </c>
+      <c r="E18" t="s">
+        <v>884</v>
+      </c>
+      <c r="F18" t="s">
+        <v>865</v>
+      </c>
+      <c r="G18" t="s">
+        <v>431</v>
+      </c>
+      <c r="H18" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>769</v>
+      </c>
+      <c r="B19" t="s">
+        <v>884</v>
+      </c>
+      <c r="C19" t="s">
+        <v>866</v>
+      </c>
+      <c r="D19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" t="s">
+        <v>884</v>
+      </c>
+      <c r="F19" t="s">
+        <v>866</v>
+      </c>
+      <c r="G19" t="s">
+        <v>431</v>
+      </c>
+      <c r="H19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20" t="s">
+        <v>884</v>
+      </c>
+      <c r="C20" t="s">
+        <v>867</v>
+      </c>
+      <c r="D20" t="s">
+        <v>770</v>
+      </c>
+      <c r="E20" t="s">
+        <v>884</v>
+      </c>
+      <c r="F20" t="s">
+        <v>867</v>
+      </c>
+      <c r="G20" t="s">
+        <v>431</v>
+      </c>
+      <c r="H20" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>769</v>
+      </c>
+      <c r="B21" t="s">
+        <v>884</v>
+      </c>
+      <c r="C21" t="s">
+        <v>868</v>
+      </c>
+      <c r="D21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E21" t="s">
+        <v>884</v>
+      </c>
+      <c r="F21" t="s">
+        <v>868</v>
+      </c>
+      <c r="G21" t="s">
+        <v>431</v>
+      </c>
+      <c r="H21" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>769</v>
+      </c>
+      <c r="B22" t="s">
+        <v>884</v>
+      </c>
+      <c r="C22" t="s">
+        <v>869</v>
+      </c>
+      <c r="D22" t="s">
+        <v>770</v>
+      </c>
+      <c r="E22" t="s">
+        <v>884</v>
+      </c>
+      <c r="F22" t="s">
+        <v>869</v>
+      </c>
+      <c r="G22" t="s">
+        <v>431</v>
+      </c>
+      <c r="H22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>769</v>
+      </c>
+      <c r="B23" t="s">
+        <v>884</v>
+      </c>
+      <c r="C23" t="s">
+        <v>870</v>
+      </c>
+      <c r="D23" t="s">
+        <v>770</v>
+      </c>
+      <c r="E23" t="s">
+        <v>884</v>
+      </c>
+      <c r="F23" t="s">
+        <v>870</v>
+      </c>
+      <c r="G23" t="s">
+        <v>431</v>
+      </c>
+      <c r="H23" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>769</v>
+      </c>
+      <c r="B24" t="s">
+        <v>884</v>
+      </c>
+      <c r="C24" t="s">
+        <v>871</v>
+      </c>
+      <c r="D24" t="s">
+        <v>770</v>
+      </c>
+      <c r="E24" t="s">
+        <v>884</v>
+      </c>
+      <c r="F24" t="s">
+        <v>871</v>
+      </c>
+      <c r="G24" t="s">
+        <v>431</v>
+      </c>
+      <c r="H24" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>769</v>
+      </c>
+      <c r="B25" t="s">
+        <v>884</v>
+      </c>
+      <c r="C25" t="s">
+        <v>872</v>
+      </c>
+      <c r="D25" t="s">
+        <v>770</v>
+      </c>
+      <c r="E25" t="s">
+        <v>884</v>
+      </c>
+      <c r="F25" t="s">
+        <v>872</v>
+      </c>
+      <c r="G25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H25" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>769</v>
+      </c>
+      <c r="B26" t="s">
+        <v>884</v>
+      </c>
+      <c r="C26" t="s">
+        <v>873</v>
+      </c>
+      <c r="D26" t="s">
+        <v>770</v>
+      </c>
+      <c r="E26" t="s">
+        <v>884</v>
+      </c>
+      <c r="F26" t="s">
+        <v>873</v>
+      </c>
+      <c r="G26" t="s">
+        <v>431</v>
+      </c>
+      <c r="H26" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>769</v>
+      </c>
+      <c r="B27" t="s">
+        <v>884</v>
+      </c>
+      <c r="C27" t="s">
+        <v>874</v>
+      </c>
+      <c r="D27" t="s">
+        <v>770</v>
+      </c>
+      <c r="E27" t="s">
+        <v>884</v>
+      </c>
+      <c r="F27" t="s">
+        <v>874</v>
+      </c>
+      <c r="G27" t="s">
+        <v>431</v>
+      </c>
+      <c r="H27" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>769</v>
+      </c>
+      <c r="B28" t="s">
+        <v>884</v>
+      </c>
+      <c r="C28" t="s">
+        <v>875</v>
+      </c>
+      <c r="D28" t="s">
+        <v>770</v>
+      </c>
+      <c r="E28" t="s">
+        <v>884</v>
+      </c>
+      <c r="F28" t="s">
+        <v>875</v>
+      </c>
+      <c r="G28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H28" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>769</v>
+      </c>
+      <c r="B29" t="s">
+        <v>884</v>
+      </c>
+      <c r="C29" t="s">
+        <v>876</v>
+      </c>
+      <c r="D29" t="s">
+        <v>770</v>
+      </c>
+      <c r="E29" t="s">
+        <v>884</v>
+      </c>
+      <c r="F29" t="s">
+        <v>876</v>
+      </c>
+      <c r="G29" t="s">
+        <v>431</v>
+      </c>
+      <c r="H29" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B30" t="s">
+        <v>884</v>
+      </c>
+      <c r="C30" t="s">
+        <v>877</v>
+      </c>
+      <c r="D30" t="s">
+        <v>770</v>
+      </c>
+      <c r="E30" t="s">
+        <v>884</v>
+      </c>
+      <c r="F30" t="s">
+        <v>877</v>
+      </c>
+      <c r="G30" t="s">
+        <v>431</v>
+      </c>
+      <c r="H30" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>769</v>
+      </c>
+      <c r="B31" t="s">
+        <v>884</v>
+      </c>
+      <c r="C31" t="s">
+        <v>878</v>
+      </c>
+      <c r="D31" t="s">
+        <v>770</v>
+      </c>
+      <c r="E31" t="s">
+        <v>884</v>
+      </c>
+      <c r="F31" t="s">
+        <v>878</v>
+      </c>
+      <c r="G31" t="s">
+        <v>431</v>
+      </c>
+      <c r="H31" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>769</v>
+      </c>
+      <c r="B32" t="s">
+        <v>884</v>
+      </c>
+      <c r="C32" t="s">
+        <v>879</v>
+      </c>
+      <c r="D32" t="s">
+        <v>770</v>
+      </c>
+      <c r="E32" t="s">
+        <v>884</v>
+      </c>
+      <c r="F32" t="s">
+        <v>879</v>
+      </c>
+      <c r="G32" t="s">
+        <v>431</v>
+      </c>
+      <c r="H32" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>769</v>
+      </c>
+      <c r="B33" t="s">
+        <v>884</v>
+      </c>
+      <c r="C33" t="s">
+        <v>880</v>
+      </c>
+      <c r="D33" t="s">
+        <v>770</v>
+      </c>
+      <c r="E33" t="s">
+        <v>884</v>
+      </c>
+      <c r="F33" t="s">
+        <v>880</v>
+      </c>
+      <c r="G33" t="s">
+        <v>431</v>
+      </c>
+      <c r="H33" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>769</v>
+      </c>
+      <c r="B34" t="s">
+        <v>884</v>
+      </c>
+      <c r="C34" t="s">
+        <v>881</v>
+      </c>
+      <c r="D34" t="s">
+        <v>770</v>
+      </c>
+      <c r="E34" t="s">
+        <v>884</v>
+      </c>
+      <c r="F34" t="s">
+        <v>881</v>
+      </c>
+      <c r="G34" t="s">
+        <v>431</v>
+      </c>
+      <c r="H34" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>769</v>
+      </c>
+      <c r="B35" t="s">
+        <v>884</v>
+      </c>
+      <c r="C35" t="s">
+        <v>882</v>
+      </c>
+      <c r="D35" t="s">
+        <v>770</v>
+      </c>
+      <c r="E35" t="s">
+        <v>884</v>
+      </c>
+      <c r="F35" t="s">
+        <v>882</v>
+      </c>
+      <c r="G35" t="s">
+        <v>431</v>
+      </c>
+      <c r="H35" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>769</v>
+      </c>
+      <c r="B36" t="s">
+        <v>884</v>
+      </c>
+      <c r="C36" t="s">
+        <v>883</v>
+      </c>
+      <c r="D36" t="s">
+        <v>770</v>
+      </c>
+      <c r="E36" t="s">
+        <v>884</v>
+      </c>
+      <c r="F36" t="s">
+        <v>883</v>
+      </c>
+      <c r="G36" t="s">
+        <v>431</v>
+      </c>
+      <c r="H36" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/2018_image_index.xlsx
+++ b/2018_image_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B411DC4E-B71F-4C87-8747-2F6292AE1C49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9D20A4E2-D2B3-4944-89F3-2F56D98E2125}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="image_naming_convention" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="interior" sheetId="14" r:id="rId9"/>
     <sheet name="furniture" sheetId="15" r:id="rId10"/>
     <sheet name="wall" sheetId="16" r:id="rId11"/>
+    <sheet name="face" sheetId="17" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">jobs!$C$1:$Y$79</definedName>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="939">
   <si>
     <t>the Faux Studio: customer feedback</t>
   </si>
@@ -2876,6 +2877,45 @@
   </si>
   <si>
     <t>b710_IMG_8036.JPG</t>
+  </si>
+  <si>
+    <t>images_raw/face/</t>
+  </si>
+  <si>
+    <t>IMG_0909.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1166.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1170.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1175.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1176.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1180.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1181.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1552_1024.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1553.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1554.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1564_1024.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1565.jpg</t>
   </si>
 </sst>
 </file>
@@ -4293,492 +4333,916 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253918D-7970-44E5-9176-F61118E11904}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.9140625" customWidth="1"/>
-    <col min="9" max="9" width="4.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.9140625" customWidth="1"/>
+    <col min="10" max="10" width="4.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>769</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>909</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>910</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>770</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>909</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>910</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>431</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>907</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>769</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>909</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>911</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>770</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>909</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>911</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>431</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>907</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>769</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>909</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>912</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>770</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>909</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>912</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>431</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>907</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>769</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>909</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>913</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>770</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>909</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>913</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>431</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>907</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>769</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>909</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>914</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>770</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>909</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>914</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>431</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>907</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>769</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>909</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>915</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>770</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>909</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>915</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>431</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>907</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>769</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>909</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>916</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>770</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>909</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>916</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>431</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>907</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>769</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>909</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>917</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>770</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>909</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>917</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>431</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>907</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>769</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>909</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>918</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>770</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>909</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>918</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>431</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>907</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>769</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>909</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>919</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>770</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>909</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>919</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>431</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>907</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>769</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>909</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>920</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>770</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>909</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>920</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>431</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>907</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>769</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>909</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>921</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>770</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>909</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>921</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>431</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>907</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>769</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>909</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>922</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>770</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>909</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>922</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>431</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>907</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>769</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>909</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>923</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>770</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>909</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>923</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>431</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>907</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>769</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>909</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>924</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>770</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>909</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>924</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>431</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>907</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>769</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>909</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>925</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>770</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>909</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>925</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>431</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>907</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>771</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C7DF96-5865-4CC7-9BA9-B713DD8469C6}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2" t="s">
+        <v>926</v>
+      </c>
+      <c r="D2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F2" t="s">
+        <v>926</v>
+      </c>
+      <c r="G2" t="s">
+        <v>928</v>
+      </c>
+      <c r="H2" t="s">
+        <v>431</v>
+      </c>
+      <c r="J2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F3" t="s">
+        <v>926</v>
+      </c>
+      <c r="G3" t="s">
+        <v>929</v>
+      </c>
+      <c r="H3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C4" t="s">
+        <v>926</v>
+      </c>
+      <c r="D4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F4" t="s">
+        <v>926</v>
+      </c>
+      <c r="G4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C5" t="s">
+        <v>926</v>
+      </c>
+      <c r="D5" t="s">
+        <v>931</v>
+      </c>
+      <c r="E5" t="s">
+        <v>770</v>
+      </c>
+      <c r="F5" t="s">
+        <v>926</v>
+      </c>
+      <c r="G5" t="s">
+        <v>931</v>
+      </c>
+      <c r="H5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" t="s">
+        <v>926</v>
+      </c>
+      <c r="D6" t="s">
+        <v>932</v>
+      </c>
+      <c r="E6" t="s">
+        <v>770</v>
+      </c>
+      <c r="F6" t="s">
+        <v>926</v>
+      </c>
+      <c r="G6" t="s">
+        <v>932</v>
+      </c>
+      <c r="H6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D7" t="s">
+        <v>933</v>
+      </c>
+      <c r="E7" t="s">
+        <v>770</v>
+      </c>
+      <c r="F7" t="s">
+        <v>926</v>
+      </c>
+      <c r="G7" t="s">
+        <v>933</v>
+      </c>
+      <c r="H7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C8" t="s">
+        <v>926</v>
+      </c>
+      <c r="D8" t="s">
+        <v>934</v>
+      </c>
+      <c r="E8" t="s">
+        <v>770</v>
+      </c>
+      <c r="F8" t="s">
+        <v>926</v>
+      </c>
+      <c r="G8" t="s">
+        <v>934</v>
+      </c>
+      <c r="H8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>769</v>
+      </c>
+      <c r="C9" t="s">
+        <v>926</v>
+      </c>
+      <c r="D9" t="s">
+        <v>935</v>
+      </c>
+      <c r="E9" t="s">
+        <v>770</v>
+      </c>
+      <c r="F9" t="s">
+        <v>926</v>
+      </c>
+      <c r="G9" t="s">
+        <v>935</v>
+      </c>
+      <c r="H9" t="s">
+        <v>431</v>
+      </c>
+      <c r="J9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C10" t="s">
+        <v>926</v>
+      </c>
+      <c r="D10" t="s">
+        <v>936</v>
+      </c>
+      <c r="E10" t="s">
+        <v>770</v>
+      </c>
+      <c r="F10" t="s">
+        <v>926</v>
+      </c>
+      <c r="G10" t="s">
+        <v>936</v>
+      </c>
+      <c r="H10" t="s">
+        <v>431</v>
+      </c>
+      <c r="J10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C11" t="s">
+        <v>926</v>
+      </c>
+      <c r="D11" t="s">
+        <v>937</v>
+      </c>
+      <c r="E11" t="s">
+        <v>770</v>
+      </c>
+      <c r="F11" t="s">
+        <v>926</v>
+      </c>
+      <c r="G11" t="s">
+        <v>937</v>
+      </c>
+      <c r="H11" t="s">
+        <v>431</v>
+      </c>
+      <c r="J11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C12" t="s">
+        <v>926</v>
+      </c>
+      <c r="D12" t="s">
+        <v>938</v>
+      </c>
+      <c r="E12" t="s">
+        <v>770</v>
+      </c>
+      <c r="F12" t="s">
+        <v>926</v>
+      </c>
+      <c r="G12" t="s">
+        <v>938</v>
+      </c>
+      <c r="H12" t="s">
+        <v>431</v>
+      </c>
+      <c r="J12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/2018_image_index.xlsx
+++ b/2018_image_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9D20A4E2-D2B3-4944-89F3-2F56D98E2125}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FEEE1B91-4D89-498E-8106-C34155C8FCDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="image_naming_convention" sheetId="2" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="947">
   <si>
     <t>the Faux Studio: customer feedback</t>
   </si>
@@ -2435,9 +2435,6 @@
     <t>images_raw/canvas/</t>
   </si>
   <si>
-    <t>images_raw/canvas/th/</t>
-  </si>
-  <si>
     <t>b003_0016.JPG</t>
   </si>
   <si>
@@ -2882,9 +2879,6 @@
     <t>images_raw/face/</t>
   </si>
   <si>
-    <t>IMG_0909.jpg</t>
-  </si>
-  <si>
     <t>IMG_1166.jpg</t>
   </si>
   <si>
@@ -2903,19 +2897,49 @@
     <t>IMG_1181.jpg</t>
   </si>
   <si>
-    <t>IMG_1552_1024.jpg</t>
-  </si>
-  <si>
-    <t>IMG_1553.jpg</t>
-  </si>
-  <si>
     <t>IMG_1554.jpg</t>
   </si>
   <si>
-    <t>IMG_1564_1024.jpg</t>
-  </si>
-  <si>
     <t>IMG_1565.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1164.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1173.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1564.jpg</t>
+  </si>
+  <si>
+    <t>b105_fl_arboretum_mural-15.jpg</t>
+  </si>
+  <si>
+    <t>b631_IMG_4206.jpg</t>
+  </si>
+  <si>
+    <t>b641_IMG_4608.jpg</t>
+  </si>
+  <si>
+    <t>b8_Image-1.jpg</t>
+  </si>
+  <si>
+    <t>designerhouse-10.jpg</t>
+  </si>
+  <si>
+    <t>designerhouse-22.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1732.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1882.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3113.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3153.jpg</t>
   </si>
 </sst>
 </file>
@@ -3751,25 +3775,25 @@
         <v>769</v>
       </c>
       <c r="B1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D1" t="s">
         <v>770</v>
       </c>
       <c r="E1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G1" t="s">
         <v>431</v>
       </c>
       <c r="H1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I1" t="s">
         <v>771</v>
@@ -3780,25 +3804,25 @@
         <v>769</v>
       </c>
       <c r="B2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D2" t="s">
         <v>770</v>
       </c>
       <c r="E2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G2" t="s">
         <v>431</v>
       </c>
       <c r="H2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I2" t="s">
         <v>771</v>
@@ -3809,25 +3833,25 @@
         <v>769</v>
       </c>
       <c r="B3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D3" t="s">
         <v>770</v>
       </c>
       <c r="E3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G3" t="s">
         <v>431</v>
       </c>
       <c r="H3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I3" t="s">
         <v>771</v>
@@ -3838,25 +3862,25 @@
         <v>769</v>
       </c>
       <c r="B4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D4" t="s">
         <v>770</v>
       </c>
       <c r="E4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G4" t="s">
         <v>431</v>
       </c>
       <c r="H4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I4" t="s">
         <v>771</v>
@@ -3867,25 +3891,25 @@
         <v>769</v>
       </c>
       <c r="B5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D5" t="s">
         <v>770</v>
       </c>
       <c r="E5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G5" t="s">
         <v>431</v>
       </c>
       <c r="H5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I5" t="s">
         <v>771</v>
@@ -3896,25 +3920,25 @@
         <v>769</v>
       </c>
       <c r="B6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D6" t="s">
         <v>770</v>
       </c>
       <c r="E6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G6" t="s">
         <v>431</v>
       </c>
       <c r="H6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I6" t="s">
         <v>771</v>
@@ -3925,25 +3949,25 @@
         <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D7" t="s">
         <v>770</v>
       </c>
       <c r="E7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G7" t="s">
         <v>431</v>
       </c>
       <c r="H7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I7" t="s">
         <v>771</v>
@@ -3954,25 +3978,25 @@
         <v>769</v>
       </c>
       <c r="B8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D8" t="s">
         <v>770</v>
       </c>
       <c r="E8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G8" t="s">
         <v>431</v>
       </c>
       <c r="H8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I8" t="s">
         <v>771</v>
@@ -3983,25 +4007,25 @@
         <v>769</v>
       </c>
       <c r="B9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D9" t="s">
         <v>770</v>
       </c>
       <c r="E9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G9" t="s">
         <v>431</v>
       </c>
       <c r="H9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I9" t="s">
         <v>771</v>
@@ -4012,25 +4036,25 @@
         <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D10" t="s">
         <v>770</v>
       </c>
       <c r="E10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G10" t="s">
         <v>431</v>
       </c>
       <c r="H10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I10" t="s">
         <v>771</v>
@@ -4041,25 +4065,25 @@
         <v>769</v>
       </c>
       <c r="B11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D11" t="s">
         <v>770</v>
       </c>
       <c r="E11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G11" t="s">
         <v>431</v>
       </c>
       <c r="H11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I11" t="s">
         <v>771</v>
@@ -4070,25 +4094,25 @@
         <v>769</v>
       </c>
       <c r="B12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D12" t="s">
         <v>770</v>
       </c>
       <c r="E12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G12" t="s">
         <v>431</v>
       </c>
       <c r="H12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I12" t="s">
         <v>771</v>
@@ -4099,25 +4123,25 @@
         <v>769</v>
       </c>
       <c r="B13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D13" t="s">
         <v>770</v>
       </c>
       <c r="E13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G13" t="s">
         <v>431</v>
       </c>
       <c r="H13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I13" t="s">
         <v>771</v>
@@ -4128,25 +4152,25 @@
         <v>769</v>
       </c>
       <c r="B14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D14" t="s">
         <v>770</v>
       </c>
       <c r="E14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G14" t="s">
         <v>431</v>
       </c>
       <c r="H14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I14" t="s">
         <v>771</v>
@@ -4157,25 +4181,25 @@
         <v>769</v>
       </c>
       <c r="B15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D15" t="s">
         <v>770</v>
       </c>
       <c r="E15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G15" t="s">
         <v>431</v>
       </c>
       <c r="H15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I15" t="s">
         <v>771</v>
@@ -4186,25 +4210,25 @@
         <v>769</v>
       </c>
       <c r="B16" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C16" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D16" t="s">
         <v>770</v>
       </c>
       <c r="E16" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F16" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G16" t="s">
         <v>431</v>
       </c>
       <c r="H16" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I16" t="s">
         <v>771</v>
@@ -4215,25 +4239,25 @@
         <v>769</v>
       </c>
       <c r="B17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D17" t="s">
         <v>770</v>
       </c>
       <c r="E17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G17" t="s">
         <v>431</v>
       </c>
       <c r="H17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I17" t="s">
         <v>771</v>
@@ -4244,25 +4268,25 @@
         <v>769</v>
       </c>
       <c r="B18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D18" t="s">
         <v>770</v>
       </c>
       <c r="E18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G18" t="s">
         <v>431</v>
       </c>
       <c r="H18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I18" t="s">
         <v>771</v>
@@ -4273,25 +4297,25 @@
         <v>769</v>
       </c>
       <c r="B19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D19" t="s">
         <v>770</v>
       </c>
       <c r="E19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G19" t="s">
         <v>431</v>
       </c>
       <c r="H19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I19" t="s">
         <v>771</v>
@@ -4302,25 +4326,25 @@
         <v>769</v>
       </c>
       <c r="B20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D20" t="s">
         <v>770</v>
       </c>
       <c r="E20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G20" t="s">
         <v>431</v>
       </c>
       <c r="H20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I20" t="s">
         <v>771</v>
@@ -4361,25 +4385,25 @@
         <v>769</v>
       </c>
       <c r="C1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1" t="s">
         <v>909</v>
-      </c>
-      <c r="D1" t="s">
-        <v>910</v>
       </c>
       <c r="E1" t="s">
         <v>770</v>
       </c>
       <c r="F1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1" t="s">
         <v>909</v>
-      </c>
-      <c r="G1" t="s">
-        <v>910</v>
       </c>
       <c r="H1" t="s">
         <v>431</v>
       </c>
       <c r="I1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J1" t="s">
         <v>771</v>
@@ -4393,25 +4417,25 @@
         <v>769</v>
       </c>
       <c r="C2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E2" t="s">
         <v>770</v>
       </c>
       <c r="F2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2" t="s">
         <v>431</v>
       </c>
       <c r="I2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J2" t="s">
         <v>771</v>
@@ -4425,25 +4449,25 @@
         <v>769</v>
       </c>
       <c r="C3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E3" t="s">
         <v>770</v>
       </c>
       <c r="F3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H3" t="s">
         <v>431</v>
       </c>
       <c r="I3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J3" t="s">
         <v>771</v>
@@ -4457,25 +4481,25 @@
         <v>769</v>
       </c>
       <c r="C4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E4" t="s">
         <v>770</v>
       </c>
       <c r="F4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H4" t="s">
         <v>431</v>
       </c>
       <c r="I4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J4" t="s">
         <v>771</v>
@@ -4489,25 +4513,25 @@
         <v>769</v>
       </c>
       <c r="C5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E5" t="s">
         <v>770</v>
       </c>
       <c r="F5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H5" t="s">
         <v>431</v>
       </c>
       <c r="I5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J5" t="s">
         <v>771</v>
@@ -4521,25 +4545,25 @@
         <v>769</v>
       </c>
       <c r="C6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E6" t="s">
         <v>770</v>
       </c>
       <c r="F6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H6" t="s">
         <v>431</v>
       </c>
       <c r="I6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J6" t="s">
         <v>771</v>
@@ -4553,25 +4577,25 @@
         <v>769</v>
       </c>
       <c r="C7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E7" t="s">
         <v>770</v>
       </c>
       <c r="F7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H7" t="s">
         <v>431</v>
       </c>
       <c r="I7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J7" t="s">
         <v>771</v>
@@ -4585,25 +4609,25 @@
         <v>769</v>
       </c>
       <c r="C8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E8" t="s">
         <v>770</v>
       </c>
       <c r="F8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H8" t="s">
         <v>431</v>
       </c>
       <c r="I8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J8" t="s">
         <v>771</v>
@@ -4617,25 +4641,25 @@
         <v>769</v>
       </c>
       <c r="C9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E9" t="s">
         <v>770</v>
       </c>
       <c r="F9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H9" t="s">
         <v>431</v>
       </c>
       <c r="I9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J9" t="s">
         <v>771</v>
@@ -4649,25 +4673,25 @@
         <v>769</v>
       </c>
       <c r="C10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E10" t="s">
         <v>770</v>
       </c>
       <c r="F10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H10" t="s">
         <v>431</v>
       </c>
       <c r="I10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J10" t="s">
         <v>771</v>
@@ -4681,25 +4705,25 @@
         <v>769</v>
       </c>
       <c r="C11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E11" t="s">
         <v>770</v>
       </c>
       <c r="F11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H11" t="s">
         <v>431</v>
       </c>
       <c r="I11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J11" t="s">
         <v>771</v>
@@ -4713,25 +4737,25 @@
         <v>769</v>
       </c>
       <c r="C12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E12" t="s">
         <v>770</v>
       </c>
       <c r="F12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H12" t="s">
         <v>431</v>
       </c>
       <c r="I12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J12" t="s">
         <v>771</v>
@@ -4745,25 +4769,25 @@
         <v>769</v>
       </c>
       <c r="C13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E13" t="s">
         <v>770</v>
       </c>
       <c r="F13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H13" t="s">
         <v>431</v>
       </c>
       <c r="I13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J13" t="s">
         <v>771</v>
@@ -4777,25 +4801,25 @@
         <v>769</v>
       </c>
       <c r="C14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D14" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E14" t="s">
         <v>770</v>
       </c>
       <c r="F14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G14" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H14" t="s">
         <v>431</v>
       </c>
       <c r="I14" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J14" t="s">
         <v>771</v>
@@ -4809,25 +4833,25 @@
         <v>769</v>
       </c>
       <c r="C15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D15" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E15" t="s">
         <v>770</v>
       </c>
       <c r="F15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G15" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H15" t="s">
         <v>431</v>
       </c>
       <c r="I15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J15" t="s">
         <v>771</v>
@@ -4841,25 +4865,25 @@
         <v>769</v>
       </c>
       <c r="C16" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E16" t="s">
         <v>770</v>
       </c>
       <c r="F16" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H16" t="s">
         <v>431</v>
       </c>
       <c r="I16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J16" t="s">
         <v>771</v>
@@ -4873,11 +4897,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C7DF96-5865-4CC7-9BA9-B713DD8469C6}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4901,19 +4923,19 @@
         <v>769</v>
       </c>
       <c r="C1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D1" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="E1" t="s">
         <v>770</v>
       </c>
       <c r="F1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G1" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="H1" t="s">
         <v>431</v>
@@ -4930,19 +4952,19 @@
         <v>769</v>
       </c>
       <c r="C2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D2" t="s">
         <v>926</v>
-      </c>
-      <c r="D2" t="s">
-        <v>928</v>
       </c>
       <c r="E2" t="s">
         <v>770</v>
       </c>
       <c r="F2" t="s">
+        <v>925</v>
+      </c>
+      <c r="G2" t="s">
         <v>926</v>
-      </c>
-      <c r="G2" t="s">
-        <v>928</v>
       </c>
       <c r="H2" t="s">
         <v>431</v>
@@ -4959,19 +4981,19 @@
         <v>769</v>
       </c>
       <c r="C3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E3" t="s">
         <v>770</v>
       </c>
       <c r="F3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H3" t="s">
         <v>431</v>
@@ -4988,19 +5010,19 @@
         <v>769</v>
       </c>
       <c r="C4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D4" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="E4" t="s">
         <v>770</v>
       </c>
       <c r="F4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G4" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="H4" t="s">
         <v>431</v>
@@ -5017,19 +5039,19 @@
         <v>769</v>
       </c>
       <c r="C5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E5" t="s">
         <v>770</v>
       </c>
       <c r="F5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="H5" t="s">
         <v>431</v>
@@ -5046,19 +5068,19 @@
         <v>769</v>
       </c>
       <c r="C6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D6" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E6" t="s">
         <v>770</v>
       </c>
       <c r="F6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G6" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="H6" t="s">
         <v>431</v>
@@ -5075,19 +5097,19 @@
         <v>769</v>
       </c>
       <c r="C7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E7" t="s">
         <v>770</v>
       </c>
       <c r="F7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H7" t="s">
         <v>431</v>
@@ -5104,19 +5126,19 @@
         <v>769</v>
       </c>
       <c r="C8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D8" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E8" t="s">
         <v>770</v>
       </c>
       <c r="F8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G8" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H8" t="s">
         <v>431</v>
@@ -5133,19 +5155,19 @@
         <v>769</v>
       </c>
       <c r="C9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D9" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E9" t="s">
         <v>770</v>
       </c>
       <c r="F9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G9" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H9" t="s">
         <v>431</v>
@@ -5162,7 +5184,7 @@
         <v>769</v>
       </c>
       <c r="C10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D10" t="s">
         <v>936</v>
@@ -5171,7 +5193,7 @@
         <v>770</v>
       </c>
       <c r="F10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G10" t="s">
         <v>936</v>
@@ -5191,53 +5213,24 @@
         <v>769</v>
       </c>
       <c r="C11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D11" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E11" t="s">
         <v>770</v>
       </c>
       <c r="F11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G11" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="H11" t="s">
         <v>431</v>
       </c>
       <c r="J11" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>769</v>
-      </c>
-      <c r="C12" t="s">
-        <v>926</v>
-      </c>
-      <c r="D12" t="s">
-        <v>938</v>
-      </c>
-      <c r="E12" t="s">
-        <v>770</v>
-      </c>
-      <c r="F12" t="s">
-        <v>926</v>
-      </c>
-      <c r="G12" t="s">
-        <v>938</v>
-      </c>
-      <c r="H12" t="s">
-        <v>431</v>
-      </c>
-      <c r="J12" t="s">
         <v>771</v>
       </c>
     </row>
@@ -18110,19 +18103,19 @@
         <v>769</v>
       </c>
       <c r="B1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D1" t="s">
         <v>770</v>
       </c>
       <c r="E1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G1" t="s">
         <v>431</v>
@@ -18136,19 +18129,19 @@
         <v>769</v>
       </c>
       <c r="B2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D2" t="s">
         <v>770</v>
       </c>
       <c r="E2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G2" t="s">
         <v>431</v>
@@ -18162,19 +18155,19 @@
         <v>769</v>
       </c>
       <c r="B3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D3" t="s">
         <v>770</v>
       </c>
       <c r="E3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G3" t="s">
         <v>431</v>
@@ -18188,19 +18181,19 @@
         <v>769</v>
       </c>
       <c r="B4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D4" t="s">
         <v>770</v>
       </c>
       <c r="E4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G4" t="s">
         <v>431</v>
@@ -18214,19 +18207,19 @@
         <v>769</v>
       </c>
       <c r="B5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D5" t="s">
         <v>770</v>
       </c>
       <c r="E5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G5" t="s">
         <v>431</v>
@@ -18240,19 +18233,19 @@
         <v>769</v>
       </c>
       <c r="B6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D6" t="s">
         <v>770</v>
       </c>
       <c r="E6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G6" t="s">
         <v>431</v>
@@ -18266,19 +18259,19 @@
         <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D7" t="s">
         <v>770</v>
       </c>
       <c r="E7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G7" t="s">
         <v>431</v>
@@ -18292,19 +18285,19 @@
         <v>769</v>
       </c>
       <c r="B8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D8" t="s">
         <v>770</v>
       </c>
       <c r="E8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G8" t="s">
         <v>431</v>
@@ -18318,19 +18311,19 @@
         <v>769</v>
       </c>
       <c r="B9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D9" t="s">
         <v>770</v>
       </c>
       <c r="E9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G9" t="s">
         <v>431</v>
@@ -18344,19 +18337,19 @@
         <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D10" t="s">
         <v>770</v>
       </c>
       <c r="E10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G10" t="s">
         <v>431</v>
@@ -18370,19 +18363,19 @@
         <v>769</v>
       </c>
       <c r="B11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D11" t="s">
         <v>770</v>
       </c>
       <c r="E11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G11" t="s">
         <v>431</v>
@@ -18396,19 +18389,19 @@
         <v>769</v>
       </c>
       <c r="B12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D12" t="s">
         <v>770</v>
       </c>
       <c r="E12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G12" t="s">
         <v>431</v>
@@ -18422,19 +18415,19 @@
         <v>769</v>
       </c>
       <c r="B13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D13" t="s">
         <v>770</v>
       </c>
       <c r="E13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G13" t="s">
         <v>431</v>
@@ -18448,19 +18441,19 @@
         <v>769</v>
       </c>
       <c r="B14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D14" t="s">
         <v>770</v>
       </c>
       <c r="E14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G14" t="s">
         <v>431</v>
@@ -18474,19 +18467,19 @@
         <v>769</v>
       </c>
       <c r="B15" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C15" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D15" t="s">
         <v>770</v>
       </c>
       <c r="E15" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F15" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G15" t="s">
         <v>431</v>
@@ -18525,19 +18518,19 @@
         <v>769</v>
       </c>
       <c r="B1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D1" t="s">
         <v>770</v>
       </c>
       <c r="E1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G1" t="s">
         <v>431</v>
@@ -18551,19 +18544,19 @@
         <v>769</v>
       </c>
       <c r="B2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D2" t="s">
         <v>770</v>
       </c>
       <c r="E2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G2" t="s">
         <v>431</v>
@@ -18577,19 +18570,19 @@
         <v>769</v>
       </c>
       <c r="B3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D3" t="s">
         <v>770</v>
       </c>
       <c r="E3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G3" t="s">
         <v>431</v>
@@ -18603,19 +18596,19 @@
         <v>769</v>
       </c>
       <c r="B4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D4" t="s">
         <v>770</v>
       </c>
       <c r="E4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G4" t="s">
         <v>431</v>
@@ -18629,19 +18622,19 @@
         <v>769</v>
       </c>
       <c r="B5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D5" t="s">
         <v>770</v>
       </c>
       <c r="E5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G5" t="s">
         <v>431</v>
@@ -18655,19 +18648,19 @@
         <v>769</v>
       </c>
       <c r="B6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D6" t="s">
         <v>770</v>
       </c>
       <c r="E6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G6" t="s">
         <v>431</v>
@@ -18681,19 +18674,19 @@
         <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D7" t="s">
         <v>770</v>
       </c>
       <c r="E7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G7" t="s">
         <v>431</v>
@@ -18707,19 +18700,19 @@
         <v>769</v>
       </c>
       <c r="B8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D8" t="s">
         <v>770</v>
       </c>
       <c r="E8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G8" t="s">
         <v>431</v>
@@ -18733,19 +18726,19 @@
         <v>769</v>
       </c>
       <c r="B9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D9" t="s">
         <v>770</v>
       </c>
       <c r="E9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G9" t="s">
         <v>431</v>
@@ -18759,19 +18752,19 @@
         <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D10" t="s">
         <v>770</v>
       </c>
       <c r="E10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G10" t="s">
         <v>431</v>
@@ -18785,19 +18778,19 @@
         <v>769</v>
       </c>
       <c r="B11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D11" t="s">
         <v>770</v>
       </c>
       <c r="E11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G11" t="s">
         <v>431</v>
@@ -18811,19 +18804,19 @@
         <v>769</v>
       </c>
       <c r="B12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D12" t="s">
         <v>770</v>
       </c>
       <c r="E12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G12" t="s">
         <v>431</v>
@@ -18837,19 +18830,19 @@
         <v>769</v>
       </c>
       <c r="B13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D13" t="s">
         <v>770</v>
       </c>
       <c r="E13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G13" t="s">
         <v>431</v>
@@ -18863,19 +18856,19 @@
         <v>769</v>
       </c>
       <c r="B14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D14" t="s">
         <v>770</v>
       </c>
       <c r="E14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G14" t="s">
         <v>431</v>
@@ -18889,19 +18882,19 @@
         <v>769</v>
       </c>
       <c r="B15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D15" t="s">
         <v>770</v>
       </c>
       <c r="E15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G15" t="s">
         <v>431</v>
@@ -18917,10 +18910,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FD9727-E3C6-4384-9626-C148FECD0BDD}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18942,16 +18935,16 @@
         <v>777</v>
       </c>
       <c r="C1" t="s">
-        <v>772</v>
+        <v>937</v>
       </c>
       <c r="D1" t="s">
         <v>770</v>
       </c>
       <c r="E1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F1" t="s">
-        <v>772</v>
+        <v>937</v>
       </c>
       <c r="G1" t="s">
         <v>431</v>
@@ -18968,16 +18961,16 @@
         <v>777</v>
       </c>
       <c r="C2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D2" t="s">
         <v>770</v>
       </c>
       <c r="E2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G2" t="s">
         <v>431</v>
@@ -18994,16 +18987,16 @@
         <v>777</v>
       </c>
       <c r="C3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D3" t="s">
         <v>770</v>
       </c>
       <c r="E3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G3" t="s">
         <v>431</v>
@@ -19020,16 +19013,16 @@
         <v>777</v>
       </c>
       <c r="C4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D4" t="s">
         <v>770</v>
       </c>
       <c r="E4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G4" t="s">
         <v>431</v>
@@ -19046,16 +19039,16 @@
         <v>777</v>
       </c>
       <c r="C5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D5" t="s">
         <v>770</v>
       </c>
       <c r="E5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G5" t="s">
         <v>431</v>
@@ -19072,21 +19065,255 @@
         <v>777</v>
       </c>
       <c r="C6" t="s">
-        <v>810</v>
+        <v>776</v>
       </c>
       <c r="D6" t="s">
         <v>770</v>
       </c>
       <c r="E6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F6" t="s">
-        <v>810</v>
+        <v>776</v>
       </c>
       <c r="G6" t="s">
         <v>431</v>
       </c>
       <c r="H6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" t="s">
+        <v>777</v>
+      </c>
+      <c r="C7" t="s">
+        <v>938</v>
+      </c>
+      <c r="D7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E7" t="s">
+        <v>777</v>
+      </c>
+      <c r="F7" t="s">
+        <v>938</v>
+      </c>
+      <c r="G7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C8" t="s">
+        <v>939</v>
+      </c>
+      <c r="D8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E8" t="s">
+        <v>777</v>
+      </c>
+      <c r="F8" t="s">
+        <v>939</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C9" t="s">
+        <v>940</v>
+      </c>
+      <c r="D9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E9" t="s">
+        <v>777</v>
+      </c>
+      <c r="F9" t="s">
+        <v>940</v>
+      </c>
+      <c r="G9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>777</v>
+      </c>
+      <c r="C10" t="s">
+        <v>941</v>
+      </c>
+      <c r="D10" t="s">
+        <v>770</v>
+      </c>
+      <c r="E10" t="s">
+        <v>777</v>
+      </c>
+      <c r="F10" t="s">
+        <v>941</v>
+      </c>
+      <c r="G10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C11" t="s">
+        <v>942</v>
+      </c>
+      <c r="D11" t="s">
+        <v>770</v>
+      </c>
+      <c r="E11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F11" t="s">
+        <v>942</v>
+      </c>
+      <c r="G11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C12" t="s">
+        <v>943</v>
+      </c>
+      <c r="D12" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" t="s">
+        <v>777</v>
+      </c>
+      <c r="F12" t="s">
+        <v>943</v>
+      </c>
+      <c r="G12" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" t="s">
+        <v>777</v>
+      </c>
+      <c r="C13" t="s">
+        <v>944</v>
+      </c>
+      <c r="D13" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" t="s">
+        <v>777</v>
+      </c>
+      <c r="F13" t="s">
+        <v>944</v>
+      </c>
+      <c r="G13" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B14" t="s">
+        <v>777</v>
+      </c>
+      <c r="C14" t="s">
+        <v>945</v>
+      </c>
+      <c r="D14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" t="s">
+        <v>777</v>
+      </c>
+      <c r="F14" t="s">
+        <v>945</v>
+      </c>
+      <c r="G14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" t="s">
+        <v>777</v>
+      </c>
+      <c r="C15" t="s">
+        <v>946</v>
+      </c>
+      <c r="D15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
+        <v>777</v>
+      </c>
+      <c r="F15" t="s">
+        <v>946</v>
+      </c>
+      <c r="G15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" t="s">
         <v>771</v>
       </c>
     </row>
@@ -19120,19 +19347,19 @@
         <v>769</v>
       </c>
       <c r="B1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D1" t="s">
         <v>770</v>
       </c>
       <c r="E1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F1" t="s">
         <v>814</v>
-      </c>
-      <c r="F1" t="s">
-        <v>815</v>
       </c>
       <c r="G1" t="s">
         <v>431</v>
@@ -19146,19 +19373,19 @@
         <v>769</v>
       </c>
       <c r="B2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D2" t="s">
         <v>770</v>
       </c>
       <c r="E2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G2" t="s">
         <v>431</v>
@@ -19172,19 +19399,19 @@
         <v>769</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D3" t="s">
         <v>770</v>
       </c>
       <c r="E3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G3" t="s">
         <v>431</v>
@@ -19198,19 +19425,19 @@
         <v>769</v>
       </c>
       <c r="B4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D4" t="s">
         <v>770</v>
       </c>
       <c r="E4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G4" t="s">
         <v>431</v>
@@ -19224,19 +19451,19 @@
         <v>769</v>
       </c>
       <c r="B5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" t="s">
         <v>770</v>
       </c>
       <c r="E5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G5" t="s">
         <v>431</v>
@@ -19250,19 +19477,19 @@
         <v>769</v>
       </c>
       <c r="B6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D6" t="s">
         <v>770</v>
       </c>
       <c r="E6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G6" t="s">
         <v>431</v>
@@ -19276,19 +19503,19 @@
         <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D7" t="s">
         <v>770</v>
       </c>
       <c r="E7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G7" t="s">
         <v>431</v>
@@ -19302,19 +19529,19 @@
         <v>769</v>
       </c>
       <c r="B8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D8" t="s">
         <v>770</v>
       </c>
       <c r="E8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G8" t="s">
         <v>431</v>
@@ -19328,19 +19555,19 @@
         <v>769</v>
       </c>
       <c r="B9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D9" t="s">
         <v>770</v>
       </c>
       <c r="E9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G9" t="s">
         <v>431</v>
@@ -19354,19 +19581,19 @@
         <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D10" t="s">
         <v>770</v>
       </c>
       <c r="E10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G10" t="s">
         <v>431</v>
@@ -19380,19 +19607,19 @@
         <v>769</v>
       </c>
       <c r="B11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D11" t="s">
         <v>770</v>
       </c>
       <c r="E11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G11" t="s">
         <v>431</v>
@@ -19406,19 +19633,19 @@
         <v>769</v>
       </c>
       <c r="B12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D12" t="s">
         <v>770</v>
       </c>
       <c r="E12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G12" t="s">
         <v>431</v>
@@ -19432,19 +19659,19 @@
         <v>769</v>
       </c>
       <c r="B13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D13" t="s">
         <v>770</v>
       </c>
       <c r="E13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G13" t="s">
         <v>431</v>
@@ -19458,19 +19685,19 @@
         <v>769</v>
       </c>
       <c r="B14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D14" t="s">
         <v>770</v>
       </c>
       <c r="E14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G14" t="s">
         <v>431</v>
@@ -19484,19 +19711,19 @@
         <v>769</v>
       </c>
       <c r="B15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D15" t="s">
         <v>770</v>
       </c>
       <c r="E15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G15" t="s">
         <v>431</v>
@@ -19510,19 +19737,19 @@
         <v>769</v>
       </c>
       <c r="B16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D16" t="s">
         <v>770</v>
       </c>
       <c r="E16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G16" t="s">
         <v>431</v>
@@ -19536,19 +19763,19 @@
         <v>769</v>
       </c>
       <c r="B17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D17" t="s">
         <v>770</v>
       </c>
       <c r="E17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G17" t="s">
         <v>431</v>
@@ -19562,19 +19789,19 @@
         <v>769</v>
       </c>
       <c r="B18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D18" t="s">
         <v>770</v>
       </c>
       <c r="E18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G18" t="s">
         <v>431</v>
@@ -19588,19 +19815,19 @@
         <v>769</v>
       </c>
       <c r="B19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D19" t="s">
         <v>770</v>
       </c>
       <c r="E19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G19" t="s">
         <v>431</v>
@@ -19614,19 +19841,19 @@
         <v>769</v>
       </c>
       <c r="B20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D20" t="s">
         <v>770</v>
       </c>
       <c r="E20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G20" t="s">
         <v>431</v>
@@ -19640,19 +19867,19 @@
         <v>769</v>
       </c>
       <c r="B21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D21" t="s">
         <v>770</v>
       </c>
       <c r="E21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G21" t="s">
         <v>431</v>
@@ -19666,19 +19893,19 @@
         <v>769</v>
       </c>
       <c r="B22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C22" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D22" t="s">
         <v>770</v>
       </c>
       <c r="E22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F22" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G22" t="s">
         <v>431</v>
@@ -19692,19 +19919,19 @@
         <v>769</v>
       </c>
       <c r="B23" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D23" t="s">
         <v>770</v>
       </c>
       <c r="E23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G23" t="s">
         <v>431</v>
@@ -19718,19 +19945,19 @@
         <v>769</v>
       </c>
       <c r="B24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D24" t="s">
         <v>770</v>
       </c>
       <c r="E24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G24" t="s">
         <v>431</v>
@@ -19744,19 +19971,19 @@
         <v>769</v>
       </c>
       <c r="B25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C25" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D25" t="s">
         <v>770</v>
       </c>
       <c r="E25" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F25" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G25" t="s">
         <v>431</v>
@@ -19770,19 +19997,19 @@
         <v>769</v>
       </c>
       <c r="B26" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C26" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D26" t="s">
         <v>770</v>
       </c>
       <c r="E26" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F26" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G26" t="s">
         <v>431</v>
@@ -19796,19 +20023,19 @@
         <v>769</v>
       </c>
       <c r="B27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D27" t="s">
         <v>770</v>
       </c>
       <c r="E27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G27" t="s">
         <v>431</v>
@@ -19822,19 +20049,19 @@
         <v>769</v>
       </c>
       <c r="B28" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D28" t="s">
         <v>770</v>
       </c>
       <c r="E28" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G28" t="s">
         <v>431</v>
@@ -19848,19 +20075,19 @@
         <v>769</v>
       </c>
       <c r="B29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D29" t="s">
         <v>770</v>
       </c>
       <c r="E29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G29" t="s">
         <v>431</v>
@@ -19874,19 +20101,19 @@
         <v>769</v>
       </c>
       <c r="B30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C30" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D30" t="s">
         <v>770</v>
       </c>
       <c r="E30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F30" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G30" t="s">
         <v>431</v>
@@ -19900,19 +20127,19 @@
         <v>769</v>
       </c>
       <c r="B31" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C31" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D31" t="s">
         <v>770</v>
       </c>
       <c r="E31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F31" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G31" t="s">
         <v>431</v>
@@ -19926,19 +20153,19 @@
         <v>769</v>
       </c>
       <c r="B32" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D32" t="s">
         <v>770</v>
       </c>
       <c r="E32" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G32" t="s">
         <v>431</v>
@@ -19952,19 +20179,19 @@
         <v>769</v>
       </c>
       <c r="B33" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C33" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D33" t="s">
         <v>770</v>
       </c>
       <c r="E33" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F33" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G33" t="s">
         <v>431</v>
@@ -19978,19 +20205,19 @@
         <v>769</v>
       </c>
       <c r="B34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D34" t="s">
         <v>770</v>
       </c>
       <c r="E34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G34" t="s">
         <v>431</v>
@@ -20029,19 +20256,19 @@
         <v>769</v>
       </c>
       <c r="B1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D1" t="s">
         <v>770</v>
       </c>
       <c r="E1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G1" t="s">
         <v>431</v>
@@ -20055,19 +20282,19 @@
         <v>769</v>
       </c>
       <c r="B2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D2" t="s">
         <v>770</v>
       </c>
       <c r="E2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G2" t="s">
         <v>431</v>
@@ -20081,19 +20308,19 @@
         <v>769</v>
       </c>
       <c r="B3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D3" t="s">
         <v>770</v>
       </c>
       <c r="E3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G3" t="s">
         <v>431</v>
@@ -20107,19 +20334,19 @@
         <v>769</v>
       </c>
       <c r="B4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D4" t="s">
         <v>770</v>
       </c>
       <c r="E4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G4" t="s">
         <v>431</v>
@@ -20133,19 +20360,19 @@
         <v>769</v>
       </c>
       <c r="B5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D5" t="s">
         <v>770</v>
       </c>
       <c r="E5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G5" t="s">
         <v>431</v>
@@ -20159,19 +20386,19 @@
         <v>769</v>
       </c>
       <c r="B6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D6" t="s">
         <v>770</v>
       </c>
       <c r="E6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G6" t="s">
         <v>431</v>
@@ -20185,19 +20412,19 @@
         <v>769</v>
       </c>
       <c r="B7" t="s">
+        <v>883</v>
+      </c>
+      <c r="C7" t="s">
         <v>884</v>
-      </c>
-      <c r="C7" t="s">
-        <v>885</v>
       </c>
       <c r="D7" t="s">
         <v>770</v>
       </c>
       <c r="E7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F7" t="s">
         <v>884</v>
-      </c>
-      <c r="F7" t="s">
-        <v>885</v>
       </c>
       <c r="G7" t="s">
         <v>431</v>
@@ -20211,19 +20438,19 @@
         <v>769</v>
       </c>
       <c r="B8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D8" t="s">
         <v>770</v>
       </c>
       <c r="E8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G8" t="s">
         <v>431</v>
@@ -20237,19 +20464,19 @@
         <v>769</v>
       </c>
       <c r="B9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D9" t="s">
         <v>770</v>
       </c>
       <c r="E9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F9" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G9" t="s">
         <v>431</v>
@@ -20263,19 +20490,19 @@
         <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D10" t="s">
         <v>770</v>
       </c>
       <c r="E10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G10" t="s">
         <v>431</v>
@@ -20289,19 +20516,19 @@
         <v>769</v>
       </c>
       <c r="B11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D11" t="s">
         <v>770</v>
       </c>
       <c r="E11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G11" t="s">
         <v>431</v>
@@ -20315,19 +20542,19 @@
         <v>769</v>
       </c>
       <c r="B12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D12" t="s">
         <v>770</v>
       </c>
       <c r="E12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G12" t="s">
         <v>431</v>
@@ -20341,19 +20568,19 @@
         <v>769</v>
       </c>
       <c r="B13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D13" t="s">
         <v>770</v>
       </c>
       <c r="E13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G13" t="s">
         <v>431</v>
@@ -20367,19 +20594,19 @@
         <v>769</v>
       </c>
       <c r="B14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D14" t="s">
         <v>770</v>
       </c>
       <c r="E14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G14" t="s">
         <v>431</v>
@@ -20393,19 +20620,19 @@
         <v>769</v>
       </c>
       <c r="B15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D15" t="s">
         <v>770</v>
       </c>
       <c r="E15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G15" t="s">
         <v>431</v>
@@ -20419,19 +20646,19 @@
         <v>769</v>
       </c>
       <c r="B16" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C16" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D16" t="s">
         <v>770</v>
       </c>
       <c r="E16" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F16" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G16" t="s">
         <v>431</v>
@@ -20445,19 +20672,19 @@
         <v>769</v>
       </c>
       <c r="B17" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D17" t="s">
         <v>770</v>
       </c>
       <c r="E17" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G17" t="s">
         <v>431</v>
@@ -20471,19 +20698,19 @@
         <v>769</v>
       </c>
       <c r="B18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D18" t="s">
         <v>770</v>
       </c>
       <c r="E18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G18" t="s">
         <v>431</v>
@@ -20497,19 +20724,19 @@
         <v>769</v>
       </c>
       <c r="B19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D19" t="s">
         <v>770</v>
       </c>
       <c r="E19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G19" t="s">
         <v>431</v>
@@ -20523,19 +20750,19 @@
         <v>769</v>
       </c>
       <c r="B20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D20" t="s">
         <v>770</v>
       </c>
       <c r="E20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G20" t="s">
         <v>431</v>
@@ -20549,19 +20776,19 @@
         <v>769</v>
       </c>
       <c r="B21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D21" t="s">
         <v>770</v>
       </c>
       <c r="E21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G21" t="s">
         <v>431</v>
@@ -20575,19 +20802,19 @@
         <v>769</v>
       </c>
       <c r="B22" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D22" t="s">
         <v>770</v>
       </c>
       <c r="E22" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G22" t="s">
         <v>431</v>
@@ -20601,19 +20828,19 @@
         <v>769</v>
       </c>
       <c r="B23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D23" t="s">
         <v>770</v>
       </c>
       <c r="E23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G23" t="s">
         <v>431</v>
@@ -20627,19 +20854,19 @@
         <v>769</v>
       </c>
       <c r="B24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D24" t="s">
         <v>770</v>
       </c>
       <c r="E24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G24" t="s">
         <v>431</v>
@@ -20653,19 +20880,19 @@
         <v>769</v>
       </c>
       <c r="B25" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D25" t="s">
         <v>770</v>
       </c>
       <c r="E25" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G25" t="s">
         <v>431</v>
@@ -20679,19 +20906,19 @@
         <v>769</v>
       </c>
       <c r="B26" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C26" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D26" t="s">
         <v>770</v>
       </c>
       <c r="E26" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F26" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G26" t="s">
         <v>431</v>
@@ -20705,19 +20932,19 @@
         <v>769</v>
       </c>
       <c r="B27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D27" t="s">
         <v>770</v>
       </c>
       <c r="E27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G27" t="s">
         <v>431</v>
@@ -20731,19 +20958,19 @@
         <v>769</v>
       </c>
       <c r="B28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D28" t="s">
         <v>770</v>
       </c>
       <c r="E28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G28" t="s">
         <v>431</v>
@@ -20757,19 +20984,19 @@
         <v>769</v>
       </c>
       <c r="B29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C29" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D29" t="s">
         <v>770</v>
       </c>
       <c r="E29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F29" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G29" t="s">
         <v>431</v>
@@ -20783,19 +21010,19 @@
         <v>769</v>
       </c>
       <c r="B30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C30" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D30" t="s">
         <v>770</v>
       </c>
       <c r="E30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F30" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G30" t="s">
         <v>431</v>
@@ -20809,19 +21036,19 @@
         <v>769</v>
       </c>
       <c r="B31" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D31" t="s">
         <v>770</v>
       </c>
       <c r="E31" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G31" t="s">
         <v>431</v>
@@ -20835,19 +21062,19 @@
         <v>769</v>
       </c>
       <c r="B32" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D32" t="s">
         <v>770</v>
       </c>
       <c r="E32" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G32" t="s">
         <v>431</v>
@@ -20861,19 +21088,19 @@
         <v>769</v>
       </c>
       <c r="B33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C33" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D33" t="s">
         <v>770</v>
       </c>
       <c r="E33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F33" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G33" t="s">
         <v>431</v>
@@ -20887,19 +21114,19 @@
         <v>769</v>
       </c>
       <c r="B34" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C34" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D34" t="s">
         <v>770</v>
       </c>
       <c r="E34" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F34" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G34" t="s">
         <v>431</v>
@@ -20913,19 +21140,19 @@
         <v>769</v>
       </c>
       <c r="B35" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C35" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D35" t="s">
         <v>770</v>
       </c>
       <c r="E35" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F35" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G35" t="s">
         <v>431</v>
@@ -20939,19 +21166,19 @@
         <v>769</v>
       </c>
       <c r="B36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D36" t="s">
         <v>770</v>
       </c>
       <c r="E36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G36" t="s">
         <v>431</v>

--- a/2018_image_index.xlsx
+++ b/2018_image_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FEEE1B91-4D89-498E-8106-C34155C8FCDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B332E4DD-4436-45ED-9D55-62124E439642}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="image_naming_convention" sheetId="2" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="959">
   <si>
     <t>the Faux Studio: customer feedback</t>
   </si>
@@ -2940,6 +2940,42 @@
   </si>
   <si>
     <t>IMG_3153.jpg</t>
+  </si>
+  <si>
+    <t>IMG_0266.jpg</t>
+  </si>
+  <si>
+    <t>IMG_0269.jpg</t>
+  </si>
+  <si>
+    <t>IMG_0270.jpg</t>
+  </si>
+  <si>
+    <t>IMG_0918.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1516.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2018.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2019.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2934.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3457.jpg</t>
+  </si>
+  <si>
+    <t>Orig</t>
+  </si>
+  <si>
+    <t>Curr</t>
+  </si>
+  <si>
+    <t>b502b_Before.jpg</t>
   </si>
 </sst>
 </file>
@@ -3752,606 +3788,1124 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2053E9-8D8A-409C-B8F4-BD8851F40782}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>769</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
         <v>905</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
         <v>887</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" t="s">
         <v>770</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" t="s">
         <v>905</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" t="s">
         <v>887</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I2" t="s">
         <v>431</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J2" t="s">
         <v>906</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K2" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>769</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
         <v>905</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
         <v>888</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>770</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>905</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H3" t="s">
         <v>888</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I3" t="s">
         <v>431</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J3" t="s">
         <v>907</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>769</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>905</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
+        <v>958</v>
+      </c>
+      <c r="F4" t="s">
+        <v>770</v>
+      </c>
+      <c r="G4" t="s">
+        <v>905</v>
+      </c>
+      <c r="H4" t="s">
+        <v>958</v>
+      </c>
+      <c r="I4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J4" t="s">
+        <v>906</v>
+      </c>
+      <c r="K4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>769</v>
+      </c>
+      <c r="D5" t="s">
+        <v>905</v>
+      </c>
+      <c r="E5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F5" t="s">
+        <v>770</v>
+      </c>
+      <c r="G5" t="s">
+        <v>905</v>
+      </c>
+      <c r="H5" t="s">
+        <v>861</v>
+      </c>
+      <c r="I5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J5" t="s">
+        <v>907</v>
+      </c>
+      <c r="K5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>769</v>
+      </c>
+      <c r="D6" t="s">
+        <v>905</v>
+      </c>
+      <c r="E6" t="s">
+        <v>862</v>
+      </c>
+      <c r="F6" t="s">
+        <v>770</v>
+      </c>
+      <c r="G6" t="s">
+        <v>905</v>
+      </c>
+      <c r="H6" t="s">
+        <v>862</v>
+      </c>
+      <c r="I6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J6" t="s">
+        <v>907</v>
+      </c>
+      <c r="K6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D7" t="s">
+        <v>905</v>
+      </c>
+      <c r="E7" t="s">
+        <v>863</v>
+      </c>
+      <c r="F7" t="s">
+        <v>770</v>
+      </c>
+      <c r="G7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H7" t="s">
+        <v>863</v>
+      </c>
+      <c r="I7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J7" t="s">
+        <v>907</v>
+      </c>
+      <c r="K7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>769</v>
+      </c>
+      <c r="D8" t="s">
+        <v>905</v>
+      </c>
+      <c r="E8" t="s">
+        <v>864</v>
+      </c>
+      <c r="F8" t="s">
+        <v>770</v>
+      </c>
+      <c r="G8" t="s">
+        <v>905</v>
+      </c>
+      <c r="H8" t="s">
+        <v>864</v>
+      </c>
+      <c r="I8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J8" t="s">
+        <v>907</v>
+      </c>
+      <c r="K8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D9" t="s">
+        <v>905</v>
+      </c>
+      <c r="E9" t="s">
         <v>889</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F9" t="s">
         <v>770</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G9" t="s">
         <v>905</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H9" t="s">
         <v>889</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I9" t="s">
         <v>431</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J9" t="s">
         <v>907</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K9" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>769</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D10" t="s">
         <v>905</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E10" t="s">
         <v>890</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F10" t="s">
         <v>770</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G10" t="s">
         <v>905</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H10" t="s">
         <v>890</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I10" t="s">
         <v>431</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J10" t="s">
         <v>907</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K10" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>769</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D11" t="s">
         <v>905</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E11" t="s">
         <v>891</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F11" t="s">
         <v>770</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G11" t="s">
         <v>905</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H11" t="s">
         <v>891</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I11" t="s">
         <v>431</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J11" t="s">
         <v>907</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K11" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
         <v>769</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D12" t="s">
         <v>905</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E12" t="s">
         <v>892</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F12" t="s">
         <v>770</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G12" t="s">
         <v>905</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H12" t="s">
         <v>892</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I12" t="s">
         <v>431</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J12" t="s">
         <v>907</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K12" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>769</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D13" t="s">
         <v>905</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E13" t="s">
         <v>893</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F13" t="s">
         <v>770</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G13" t="s">
         <v>905</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H13" t="s">
         <v>893</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I13" t="s">
         <v>431</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J13" t="s">
         <v>906</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K13" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>769</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D14" t="s">
         <v>905</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E14" t="s">
         <v>894</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F14" t="s">
         <v>770</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G14" t="s">
         <v>905</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H14" t="s">
         <v>894</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I14" t="s">
         <v>431</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J14" t="s">
         <v>906</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K14" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>769</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D15" t="s">
         <v>905</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E15" t="s">
         <v>895</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F15" t="s">
         <v>770</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G15" t="s">
         <v>905</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H15" t="s">
         <v>895</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I15" t="s">
         <v>431</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J15" t="s">
         <v>907</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K15" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>769</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D16" t="s">
         <v>905</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E16" t="s">
         <v>896</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F16" t="s">
         <v>770</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G16" t="s">
         <v>905</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H16" t="s">
         <v>896</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I16" t="s">
         <v>431</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J16" t="s">
         <v>907</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K16" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
         <v>769</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D17" t="s">
         <v>905</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E17" t="s">
         <v>897</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F17" t="s">
         <v>770</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G17" t="s">
         <v>905</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H17" t="s">
         <v>897</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I17" t="s">
         <v>431</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J17" t="s">
         <v>907</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K17" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
         <v>769</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D18" t="s">
         <v>905</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E18" t="s">
         <v>898</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F18" t="s">
         <v>770</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G18" t="s">
         <v>905</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H18" t="s">
         <v>898</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I18" t="s">
         <v>431</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J18" t="s">
         <v>907</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K18" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
         <v>769</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D19" t="s">
         <v>905</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E19" t="s">
         <v>899</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F19" t="s">
         <v>770</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G19" t="s">
         <v>905</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H19" t="s">
         <v>899</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I19" t="s">
         <v>431</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J19" t="s">
         <v>906</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K19" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
         <v>769</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D20" t="s">
         <v>905</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E20" t="s">
         <v>900</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F20" t="s">
         <v>770</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G20" t="s">
         <v>905</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H20" t="s">
         <v>900</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I20" t="s">
         <v>431</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J20" t="s">
         <v>907</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K20" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>769</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D21" t="s">
         <v>905</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E21" t="s">
+        <v>950</v>
+      </c>
+      <c r="F21" t="s">
+        <v>770</v>
+      </c>
+      <c r="G21" t="s">
+        <v>905</v>
+      </c>
+      <c r="H21" t="s">
+        <v>950</v>
+      </c>
+      <c r="I21" t="s">
+        <v>431</v>
+      </c>
+      <c r="J21" t="s">
+        <v>906</v>
+      </c>
+      <c r="K21" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>769</v>
+      </c>
+      <c r="D22" t="s">
+        <v>905</v>
+      </c>
+      <c r="E22" t="s">
+        <v>954</v>
+      </c>
+      <c r="F22" t="s">
+        <v>770</v>
+      </c>
+      <c r="G22" t="s">
+        <v>905</v>
+      </c>
+      <c r="H22" t="s">
+        <v>954</v>
+      </c>
+      <c r="I22" t="s">
+        <v>431</v>
+      </c>
+      <c r="J22" t="s">
+        <v>907</v>
+      </c>
+      <c r="K22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>769</v>
+      </c>
+      <c r="D23" t="s">
+        <v>905</v>
+      </c>
+      <c r="E23" t="s">
+        <v>901</v>
+      </c>
+      <c r="F23" t="s">
+        <v>770</v>
+      </c>
+      <c r="G23" t="s">
+        <v>905</v>
+      </c>
+      <c r="H23" t="s">
+        <v>901</v>
+      </c>
+      <c r="I23" t="s">
+        <v>431</v>
+      </c>
+      <c r="J23" t="s">
+        <v>907</v>
+      </c>
+      <c r="K23" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>769</v>
+      </c>
+      <c r="D24" t="s">
+        <v>905</v>
+      </c>
+      <c r="E24" t="s">
+        <v>902</v>
+      </c>
+      <c r="F24" t="s">
+        <v>770</v>
+      </c>
+      <c r="G24" t="s">
+        <v>905</v>
+      </c>
+      <c r="H24" t="s">
+        <v>902</v>
+      </c>
+      <c r="I24" t="s">
+        <v>431</v>
+      </c>
+      <c r="J24" t="s">
+        <v>907</v>
+      </c>
+      <c r="K24" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>769</v>
+      </c>
+      <c r="D25" t="s">
+        <v>905</v>
+      </c>
+      <c r="E25" t="s">
         <v>904</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F25" t="s">
         <v>770</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G25" t="s">
         <v>905</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H25" t="s">
         <v>904</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I25" t="s">
         <v>431</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J25" t="s">
         <v>906</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K25" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
         <v>769</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D26" t="s">
         <v>905</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E26" t="s">
         <v>903</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F26" t="s">
         <v>770</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G26" t="s">
         <v>905</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H26" t="s">
         <v>903</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I26" t="s">
         <v>431</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J26" t="s">
         <v>907</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K26" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
         <v>769</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D27" t="s">
         <v>905</v>
       </c>
-      <c r="C17" t="s">
-        <v>901</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E27" t="s">
+        <v>947</v>
+      </c>
+      <c r="F27" t="s">
         <v>770</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G27" t="s">
         <v>905</v>
       </c>
-      <c r="F17" t="s">
-        <v>901</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H27" t="s">
+        <v>947</v>
+      </c>
+      <c r="I27" t="s">
         <v>431</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J27" t="s">
         <v>907</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K27" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
         <v>769</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D28" t="s">
         <v>905</v>
       </c>
-      <c r="C18" t="s">
-        <v>902</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E28" t="s">
+        <v>948</v>
+      </c>
+      <c r="F28" t="s">
         <v>770</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G28" t="s">
         <v>905</v>
       </c>
-      <c r="F18" t="s">
-        <v>902</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H28" t="s">
+        <v>948</v>
+      </c>
+      <c r="I28" t="s">
         <v>431</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J28" t="s">
         <v>907</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K28" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
         <v>769</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D29" t="s">
         <v>905</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E29" t="s">
+        <v>949</v>
+      </c>
+      <c r="F29" t="s">
+        <v>770</v>
+      </c>
+      <c r="G29" t="s">
+        <v>905</v>
+      </c>
+      <c r="H29" t="s">
+        <v>949</v>
+      </c>
+      <c r="I29" t="s">
+        <v>431</v>
+      </c>
+      <c r="J29" t="s">
+        <v>907</v>
+      </c>
+      <c r="K29" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>769</v>
+      </c>
+      <c r="D30" t="s">
+        <v>905</v>
+      </c>
+      <c r="E30" t="s">
+        <v>951</v>
+      </c>
+      <c r="F30" t="s">
+        <v>770</v>
+      </c>
+      <c r="G30" t="s">
+        <v>905</v>
+      </c>
+      <c r="H30" t="s">
+        <v>951</v>
+      </c>
+      <c r="I30" t="s">
+        <v>431</v>
+      </c>
+      <c r="J30" t="s">
+        <v>907</v>
+      </c>
+      <c r="K30" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>769</v>
+      </c>
+      <c r="D31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E31" t="s">
+        <v>952</v>
+      </c>
+      <c r="F31" t="s">
+        <v>770</v>
+      </c>
+      <c r="G31" t="s">
+        <v>905</v>
+      </c>
+      <c r="H31" t="s">
+        <v>952</v>
+      </c>
+      <c r="I31" t="s">
+        <v>431</v>
+      </c>
+      <c r="J31" t="s">
+        <v>907</v>
+      </c>
+      <c r="K31" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>769</v>
+      </c>
+      <c r="D32" t="s">
+        <v>905</v>
+      </c>
+      <c r="E32" t="s">
+        <v>953</v>
+      </c>
+      <c r="F32" t="s">
+        <v>770</v>
+      </c>
+      <c r="G32" t="s">
+        <v>905</v>
+      </c>
+      <c r="H32" t="s">
+        <v>953</v>
+      </c>
+      <c r="I32" t="s">
+        <v>431</v>
+      </c>
+      <c r="J32" t="s">
+        <v>907</v>
+      </c>
+      <c r="K32" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>769</v>
+      </c>
+      <c r="D33" t="s">
+        <v>905</v>
+      </c>
+      <c r="E33" t="s">
+        <v>955</v>
+      </c>
+      <c r="F33" t="s">
+        <v>770</v>
+      </c>
+      <c r="G33" t="s">
+        <v>905</v>
+      </c>
+      <c r="H33" t="s">
+        <v>955</v>
+      </c>
+      <c r="I33" t="s">
+        <v>431</v>
+      </c>
+      <c r="J33" t="s">
+        <v>907</v>
+      </c>
+      <c r="K33" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>769</v>
+      </c>
+      <c r="D34" t="s">
+        <v>905</v>
+      </c>
+      <c r="E34" t="s">
         <v>885</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F34" t="s">
         <v>770</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G34" t="s">
         <v>905</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H34" t="s">
         <v>885</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I34" t="s">
         <v>431</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J34" t="s">
         <v>907</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K34" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
         <v>769</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D35" t="s">
         <v>905</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E35" t="s">
         <v>886</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F35" t="s">
         <v>770</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G35" t="s">
         <v>905</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H35" t="s">
         <v>886</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I35" t="s">
         <v>431</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J35" t="s">
         <v>907</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K35" t="s">
         <v>771</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18912,7 +19466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FD9727-E3C6-4384-9626-C148FECD0BDD}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>

--- a/2018_image_index.xlsx
+++ b/2018_image_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4AD82EF-7C1D-454A-AF53-1AC2CE2AF6CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4C556464-F21D-4CA1-81D0-7F42E5B804E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" tabRatio="740" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5998" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5844" uniqueCount="1032">
   <si>
     <t>the Faux Studio: customer feedback</t>
   </si>
@@ -3018,9 +3018,6 @@
     <t>IMG_2434.jpg</t>
   </si>
   <si>
-    <t>DSC_0832.JPG</t>
-  </si>
-  <si>
     <t>IMG_5894.JPG</t>
   </si>
   <si>
@@ -3099,10 +3096,112 @@
     <t>IMG_0291.JPG</t>
   </si>
   <si>
-    <t>IMG_2367.JPG</t>
-  </si>
-  <si>
     <t>IMG_3096.jpg</t>
+  </si>
+  <si>
+    <t>b623_IMG_4017.JPG</t>
+  </si>
+  <si>
+    <t>b791a_IMG_1929.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1162.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1171.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1172.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1177.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1178.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1179.JPG</t>
+  </si>
+  <si>
+    <t>b011_DSC_0832.JPG</t>
+  </si>
+  <si>
+    <t>b106_fl_spring_house_mural2-43.jpg</t>
+  </si>
+  <si>
+    <t>Arboretum Mural</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0968.jpg</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0970.jpg</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0971.jpg</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0972.jpg</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0974.jpg</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0979.jpg</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0981.jpg</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0983.jpg</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0984.jpg</t>
+  </si>
+  <si>
+    <t>bz510_IMG_0985.jpg</t>
+  </si>
+  <si>
+    <t>b_IMG_1516.jpg</t>
+  </si>
+  <si>
+    <t>b_IMG_2018.jpg</t>
+  </si>
+  <si>
+    <t>b_IMG_3457.jpg</t>
+  </si>
+  <si>
+    <t>IMG_1292.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1294.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1295.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1296.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1297.JPG</t>
+  </si>
+  <si>
+    <t>IMG_1299.JPG</t>
+  </si>
+  <si>
+    <t>bz502e_IMG_2444.JPG</t>
+  </si>
+  <si>
+    <t>b000_designerhouse-10.jpg</t>
+  </si>
+  <si>
+    <t>b000_IMG_1882.jpg</t>
+  </si>
+  <si>
+    <t>b000_IMG_3153.jpg</t>
+  </si>
+  <si>
+    <t>IMG_3081.JPG</t>
   </si>
 </sst>
 </file>
@@ -3919,7 +4018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681ADBFA-6E43-4D9B-9E7E-C242CA8050B2}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3950,7 +4051,7 @@
         <v>951</v>
       </c>
       <c r="E1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>962</v>
@@ -3959,7 +4060,7 @@
         <v>951</v>
       </c>
       <c r="H1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>963</v>
@@ -3985,7 +4086,7 @@
         <v>951</v>
       </c>
       <c r="E2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>962</v>
@@ -3994,7 +4095,7 @@
         <v>951</v>
       </c>
       <c r="H2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>963</v>
@@ -4020,7 +4121,7 @@
         <v>951</v>
       </c>
       <c r="E3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>962</v>
@@ -4029,7 +4130,7 @@
         <v>951</v>
       </c>
       <c r="H3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>963</v>
@@ -4055,7 +4156,7 @@
         <v>951</v>
       </c>
       <c r="E4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F4" s="48" t="s">
         <v>962</v>
@@ -4064,7 +4165,7 @@
         <v>951</v>
       </c>
       <c r="H4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>963</v>
@@ -4265,7 +4366,7 @@
         <v>951</v>
       </c>
       <c r="E10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>962</v>
@@ -4274,7 +4375,7 @@
         <v>951</v>
       </c>
       <c r="H10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>963</v>
@@ -4370,7 +4471,7 @@
         <v>951</v>
       </c>
       <c r="E13" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>962</v>
@@ -4379,7 +4480,7 @@
         <v>951</v>
       </c>
       <c r="H13" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>963</v>
@@ -4405,7 +4506,7 @@
         <v>951</v>
       </c>
       <c r="E14" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="F14" s="48" t="s">
         <v>962</v>
@@ -4414,7 +4515,7 @@
         <v>951</v>
       </c>
       <c r="H14" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>963</v>
@@ -4440,7 +4541,7 @@
         <v>951</v>
       </c>
       <c r="E15" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="F15" s="48" t="s">
         <v>962</v>
@@ -4449,7 +4550,7 @@
         <v>951</v>
       </c>
       <c r="H15" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>963</v>
@@ -4475,7 +4576,7 @@
         <v>951</v>
       </c>
       <c r="E16" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="F16" s="48" t="s">
         <v>962</v>
@@ -4484,7 +4585,7 @@
         <v>951</v>
       </c>
       <c r="H16" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>963</v>
@@ -4510,7 +4611,7 @@
         <v>951</v>
       </c>
       <c r="E17" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="F17" s="48" t="s">
         <v>962</v>
@@ -4519,7 +4620,7 @@
         <v>951</v>
       </c>
       <c r="H17" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>963</v>
@@ -4545,7 +4646,7 @@
         <v>951</v>
       </c>
       <c r="E18" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>962</v>
@@ -4554,7 +4655,7 @@
         <v>951</v>
       </c>
       <c r="H18" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="I18" s="48" t="s">
         <v>963</v>
@@ -4580,7 +4681,7 @@
         <v>951</v>
       </c>
       <c r="E19" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>962</v>
@@ -4589,7 +4690,7 @@
         <v>951</v>
       </c>
       <c r="H19" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>963</v>
@@ -4615,7 +4716,7 @@
         <v>951</v>
       </c>
       <c r="E20" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>962</v>
@@ -4624,7 +4725,7 @@
         <v>951</v>
       </c>
       <c r="H20" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="I20" s="48" t="s">
         <v>963</v>
@@ -4650,7 +4751,7 @@
         <v>951</v>
       </c>
       <c r="E21" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="F21" s="48" t="s">
         <v>962</v>
@@ -4659,7 +4760,7 @@
         <v>951</v>
       </c>
       <c r="H21" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="I21" s="48" t="s">
         <v>963</v>
@@ -4685,7 +4786,7 @@
         <v>951</v>
       </c>
       <c r="E22" t="s">
-        <v>860</v>
+        <v>1027</v>
       </c>
       <c r="F22" s="48" t="s">
         <v>962</v>
@@ -4694,7 +4795,7 @@
         <v>951</v>
       </c>
       <c r="H22" t="s">
-        <v>860</v>
+        <v>1027</v>
       </c>
       <c r="I22" s="48" t="s">
         <v>963</v>
@@ -4719,17 +4820,11 @@
       <c r="D23" t="s">
         <v>951</v>
       </c>
-      <c r="E23" t="s">
-        <v>861</v>
-      </c>
       <c r="F23" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G23" t="s">
         <v>951</v>
-      </c>
-      <c r="H23" t="s">
-        <v>861</v>
       </c>
       <c r="I23" s="48" t="s">
         <v>963</v>
@@ -4754,17 +4849,11 @@
       <c r="D24" t="s">
         <v>951</v>
       </c>
-      <c r="E24" t="s">
-        <v>862</v>
-      </c>
       <c r="F24" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G24" t="s">
         <v>951</v>
-      </c>
-      <c r="H24" t="s">
-        <v>862</v>
       </c>
       <c r="I24" s="48" t="s">
         <v>963</v>
@@ -4789,17 +4878,11 @@
       <c r="D25" t="s">
         <v>951</v>
       </c>
-      <c r="E25" t="s">
-        <v>863</v>
-      </c>
       <c r="F25" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G25" t="s">
         <v>951</v>
-      </c>
-      <c r="H25" t="s">
-        <v>863</v>
       </c>
       <c r="I25" s="48" t="s">
         <v>963</v>
@@ -4824,17 +4907,11 @@
       <c r="D26" t="s">
         <v>951</v>
       </c>
-      <c r="E26" t="s">
-        <v>864</v>
-      </c>
       <c r="F26" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G26" t="s">
         <v>951</v>
-      </c>
-      <c r="H26" t="s">
-        <v>864</v>
       </c>
       <c r="I26" s="48" t="s">
         <v>963</v>
@@ -4859,17 +4936,11 @@
       <c r="D27" t="s">
         <v>951</v>
       </c>
-      <c r="E27" t="s">
-        <v>865</v>
-      </c>
       <c r="F27" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G27" t="s">
         <v>951</v>
-      </c>
-      <c r="H27" t="s">
-        <v>865</v>
       </c>
       <c r="I27" s="48" t="s">
         <v>963</v>
@@ -4894,17 +4965,11 @@
       <c r="D28" t="s">
         <v>951</v>
       </c>
-      <c r="E28" t="s">
-        <v>866</v>
-      </c>
       <c r="F28" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G28" t="s">
         <v>951</v>
-      </c>
-      <c r="H28" t="s">
-        <v>866</v>
       </c>
       <c r="I28" s="48" t="s">
         <v>963</v>
@@ -4929,17 +4994,11 @@
       <c r="D29" t="s">
         <v>951</v>
       </c>
-      <c r="E29" t="s">
-        <v>867</v>
-      </c>
       <c r="F29" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G29" t="s">
         <v>951</v>
-      </c>
-      <c r="H29" t="s">
-        <v>867</v>
       </c>
       <c r="I29" s="48" t="s">
         <v>963</v>
@@ -4964,17 +5023,11 @@
       <c r="D30" t="s">
         <v>951</v>
       </c>
-      <c r="E30" t="s">
-        <v>868</v>
-      </c>
       <c r="F30" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G30" t="s">
         <v>951</v>
-      </c>
-      <c r="H30" t="s">
-        <v>868</v>
       </c>
       <c r="I30" s="48" t="s">
         <v>963</v>
@@ -4999,17 +5052,11 @@
       <c r="D31" t="s">
         <v>951</v>
       </c>
-      <c r="E31" t="s">
-        <v>869</v>
-      </c>
       <c r="F31" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G31" t="s">
         <v>951</v>
-      </c>
-      <c r="H31" t="s">
-        <v>869</v>
       </c>
       <c r="I31" s="48" t="s">
         <v>963</v>
@@ -5034,17 +5081,11 @@
       <c r="D32" t="s">
         <v>951</v>
       </c>
-      <c r="E32" t="s">
-        <v>870</v>
-      </c>
       <c r="F32" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G32" t="s">
         <v>951</v>
-      </c>
-      <c r="H32" t="s">
-        <v>870</v>
       </c>
       <c r="I32" s="48" t="s">
         <v>963</v>
@@ -5069,17 +5110,11 @@
       <c r="D33" t="s">
         <v>951</v>
       </c>
-      <c r="E33" t="s">
-        <v>871</v>
-      </c>
       <c r="F33" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G33" t="s">
         <v>951</v>
-      </c>
-      <c r="H33" t="s">
-        <v>871</v>
       </c>
       <c r="I33" s="48" t="s">
         <v>963</v>
@@ -5104,17 +5139,11 @@
       <c r="D34" t="s">
         <v>951</v>
       </c>
-      <c r="E34" t="s">
-        <v>872</v>
-      </c>
       <c r="F34" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G34" t="s">
         <v>951</v>
-      </c>
-      <c r="H34" t="s">
-        <v>872</v>
       </c>
       <c r="I34" s="48" t="s">
         <v>963</v>
@@ -5139,17 +5168,11 @@
       <c r="D35" t="s">
         <v>951</v>
       </c>
-      <c r="E35" t="s">
-        <v>873</v>
-      </c>
       <c r="F35" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G35" t="s">
         <v>951</v>
-      </c>
-      <c r="H35" t="s">
-        <v>873</v>
       </c>
       <c r="I35" s="48" t="s">
         <v>963</v>
@@ -5174,17 +5197,11 @@
       <c r="D36" t="s">
         <v>951</v>
       </c>
-      <c r="E36" t="s">
-        <v>874</v>
-      </c>
       <c r="F36" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G36" t="s">
         <v>951</v>
-      </c>
-      <c r="H36" t="s">
-        <v>874</v>
       </c>
       <c r="I36" s="48" t="s">
         <v>963</v>
@@ -5209,17 +5226,11 @@
       <c r="D37" t="s">
         <v>951</v>
       </c>
-      <c r="E37" t="s">
-        <v>875</v>
-      </c>
       <c r="F37" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G37" t="s">
         <v>951</v>
-      </c>
-      <c r="H37" t="s">
-        <v>875</v>
       </c>
       <c r="I37" s="48" t="s">
         <v>963</v>
@@ -5820,8 +5831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C6B398-795C-4182-B95B-591F9D99738C}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5993,7 +6004,7 @@
         <v>950</v>
       </c>
       <c r="E5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>962</v>
@@ -6002,7 +6013,7 @@
         <v>950</v>
       </c>
       <c r="H5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>963</v>
@@ -6063,7 +6074,7 @@
         <v>950</v>
       </c>
       <c r="E7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>962</v>
@@ -6072,7 +6083,7 @@
         <v>950</v>
       </c>
       <c r="H7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>963</v>
@@ -6133,7 +6144,7 @@
         <v>950</v>
       </c>
       <c r="E9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>962</v>
@@ -6142,7 +6153,7 @@
         <v>950</v>
       </c>
       <c r="H9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>963</v>
@@ -6168,7 +6179,7 @@
         <v>950</v>
       </c>
       <c r="E10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>962</v>
@@ -6177,7 +6188,7 @@
         <v>950</v>
       </c>
       <c r="H10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>963</v>
@@ -6203,7 +6214,7 @@
         <v>950</v>
       </c>
       <c r="E11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F11" s="48" t="s">
         <v>962</v>
@@ -6212,7 +6223,7 @@
         <v>950</v>
       </c>
       <c r="H11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>963</v>
@@ -6238,7 +6249,7 @@
         <v>950</v>
       </c>
       <c r="E12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>962</v>
@@ -6247,7 +6258,7 @@
         <v>950</v>
       </c>
       <c r="H12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>963</v>
@@ -6273,7 +6284,7 @@
         <v>950</v>
       </c>
       <c r="E13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>962</v>
@@ -6282,7 +6293,7 @@
         <v>950</v>
       </c>
       <c r="H13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>963</v>
@@ -6308,7 +6319,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F14" s="48" t="s">
         <v>962</v>
@@ -6317,7 +6328,7 @@
         <v>950</v>
       </c>
       <c r="H14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>963</v>
@@ -6378,7 +6389,7 @@
         <v>950</v>
       </c>
       <c r="E16" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F16" s="48" t="s">
         <v>962</v>
@@ -6387,7 +6398,7 @@
         <v>950</v>
       </c>
       <c r="H16" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>963</v>
@@ -6413,7 +6424,7 @@
         <v>950</v>
       </c>
       <c r="E17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F17" s="48" t="s">
         <v>962</v>
@@ -6422,7 +6433,7 @@
         <v>950</v>
       </c>
       <c r="H17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>963</v>
@@ -6448,7 +6459,7 @@
         <v>950</v>
       </c>
       <c r="E18" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>962</v>
@@ -6457,7 +6468,7 @@
         <v>950</v>
       </c>
       <c r="H18" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I18" s="48" t="s">
         <v>963</v>
@@ -6553,7 +6564,7 @@
         <v>950</v>
       </c>
       <c r="E21" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F21" s="48" t="s">
         <v>962</v>
@@ -6562,7 +6573,7 @@
         <v>950</v>
       </c>
       <c r="H21" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I21" s="48" t="s">
         <v>963</v>
@@ -6658,7 +6669,7 @@
         <v>950</v>
       </c>
       <c r="E24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F24" s="48" t="s">
         <v>962</v>
@@ -6667,7 +6678,7 @@
         <v>950</v>
       </c>
       <c r="H24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I24" s="48" t="s">
         <v>963</v>
@@ -6693,7 +6704,7 @@
         <v>950</v>
       </c>
       <c r="E25" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>962</v>
@@ -6702,7 +6713,7 @@
         <v>950</v>
       </c>
       <c r="H25" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I25" s="48" t="s">
         <v>963</v>
@@ -6798,7 +6809,7 @@
         <v>950</v>
       </c>
       <c r="E28" t="s">
-        <v>996</v>
+        <v>840</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>962</v>
@@ -6807,7 +6818,7 @@
         <v>950</v>
       </c>
       <c r="H28" t="s">
-        <v>996</v>
+        <v>840</v>
       </c>
       <c r="I28" s="48" t="s">
         <v>963</v>
@@ -6833,7 +6844,7 @@
         <v>950</v>
       </c>
       <c r="E29" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>962</v>
@@ -6842,7 +6853,7 @@
         <v>950</v>
       </c>
       <c r="H29" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I29" s="48" t="s">
         <v>963</v>
@@ -6868,7 +6879,7 @@
         <v>950</v>
       </c>
       <c r="E30" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>962</v>
@@ -6877,7 +6888,7 @@
         <v>950</v>
       </c>
       <c r="H30" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
       <c r="I30" s="48" t="s">
         <v>963</v>
@@ -6902,11 +6913,17 @@
       <c r="D31" t="s">
         <v>950</v>
       </c>
+      <c r="E31" t="s">
+        <v>996</v>
+      </c>
       <c r="F31" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G31" t="s">
         <v>950</v>
+      </c>
+      <c r="H31" t="s">
+        <v>996</v>
       </c>
       <c r="I31" s="48" t="s">
         <v>963</v>
@@ -25141,16 +25158,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D365253-76DD-4632-B44B-A5302FEFD464}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
     <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
@@ -25175,7 +25192,7 @@
         <v>954</v>
       </c>
       <c r="E1" t="s">
-        <v>935</v>
+        <v>1028</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>962</v>
@@ -25184,7 +25201,7 @@
         <v>954</v>
       </c>
       <c r="H1" t="s">
-        <v>935</v>
+        <v>1028</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>963</v>
@@ -25210,7 +25227,7 @@
         <v>954</v>
       </c>
       <c r="E2" t="s">
-        <v>933</v>
+        <v>1029</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>962</v>
@@ -25219,7 +25236,7 @@
         <v>954</v>
       </c>
       <c r="H2" t="s">
-        <v>933</v>
+        <v>1029</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>963</v>
@@ -25245,7 +25262,7 @@
         <v>954</v>
       </c>
       <c r="E3" t="s">
-        <v>932</v>
+        <v>1030</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>962</v>
@@ -25254,7 +25271,7 @@
         <v>954</v>
       </c>
       <c r="H3" t="s">
-        <v>932</v>
+        <v>1030</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>963</v>
@@ -25271,7 +25288,7 @@
         <v>959</v>
       </c>
       <c r="B4" t="s">
-        <v>960</v>
+        <v>1007</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>961</v>
@@ -25280,7 +25297,7 @@
         <v>954</v>
       </c>
       <c r="E4" t="s">
-        <v>930</v>
+        <v>777</v>
       </c>
       <c r="F4" s="48" t="s">
         <v>962</v>
@@ -25289,7 +25306,7 @@
         <v>954</v>
       </c>
       <c r="H4" t="s">
-        <v>930</v>
+        <v>777</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>963</v>
@@ -25315,7 +25332,7 @@
         <v>954</v>
       </c>
       <c r="E5" t="s">
-        <v>928</v>
+        <v>778</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>962</v>
@@ -25324,7 +25341,7 @@
         <v>954</v>
       </c>
       <c r="H5" t="s">
-        <v>928</v>
+        <v>778</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>963</v>
@@ -25350,7 +25367,7 @@
         <v>954</v>
       </c>
       <c r="E6" t="s">
-        <v>927</v>
+        <v>779</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>962</v>
@@ -25359,7 +25376,7 @@
         <v>954</v>
       </c>
       <c r="H6" t="s">
-        <v>927</v>
+        <v>779</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>963</v>
@@ -25385,7 +25402,7 @@
         <v>954</v>
       </c>
       <c r="E7" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>962</v>
@@ -25394,7 +25411,7 @@
         <v>954</v>
       </c>
       <c r="H7" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>963</v>
@@ -25420,7 +25437,7 @@
         <v>954</v>
       </c>
       <c r="E8" t="s">
-        <v>931</v>
+        <v>1005</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>962</v>
@@ -25429,7 +25446,7 @@
         <v>954</v>
       </c>
       <c r="H8" t="s">
-        <v>931</v>
+        <v>1005</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>963</v>
@@ -25455,7 +25472,7 @@
         <v>954</v>
       </c>
       <c r="E9" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>962</v>
@@ -25464,7 +25481,7 @@
         <v>954</v>
       </c>
       <c r="H9" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>963</v>
@@ -25490,7 +25507,7 @@
         <v>954</v>
       </c>
       <c r="E10" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>962</v>
@@ -25499,7 +25516,7 @@
         <v>954</v>
       </c>
       <c r="H10" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>963</v>
@@ -25525,7 +25542,7 @@
         <v>954</v>
       </c>
       <c r="E11" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="F11" s="48" t="s">
         <v>962</v>
@@ -25534,7 +25551,7 @@
         <v>954</v>
       </c>
       <c r="H11" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>963</v>
@@ -25560,7 +25577,7 @@
         <v>954</v>
       </c>
       <c r="E12" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>962</v>
@@ -25569,7 +25586,7 @@
         <v>954</v>
       </c>
       <c r="H12" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>963</v>
@@ -25595,7 +25612,7 @@
         <v>954</v>
       </c>
       <c r="E13" t="s">
-        <v>934</v>
+        <v>785</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>962</v>
@@ -25604,7 +25621,7 @@
         <v>954</v>
       </c>
       <c r="H13" t="s">
-        <v>934</v>
+        <v>785</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>963</v>
@@ -25626,20 +25643,20 @@
       <c r="C14" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D14" t="s">
-        <v>957</v>
+      <c r="D14" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E14" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F14" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G14" t="s">
-        <v>957</v>
+      <c r="G14" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H14" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>963</v>
@@ -25661,20 +25678,20 @@
       <c r="C15" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D15" t="s">
-        <v>957</v>
+      <c r="D15" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E15" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F15" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G15" t="s">
-        <v>957</v>
+      <c r="G15" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H15" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>963</v>
@@ -25696,20 +25713,20 @@
       <c r="C16" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D16" t="s">
-        <v>957</v>
+      <c r="D16" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E16" t="s">
-        <v>788</v>
+        <v>926</v>
       </c>
       <c r="F16" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G16" t="s">
-        <v>957</v>
+      <c r="G16" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H16" t="s">
-        <v>788</v>
+        <v>926</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>963</v>
@@ -25735,7 +25752,7 @@
         <v>954</v>
       </c>
       <c r="E17" t="s">
-        <v>926</v>
+        <v>1006</v>
       </c>
       <c r="F17" s="48" t="s">
         <v>962</v>
@@ -25744,7 +25761,7 @@
         <v>954</v>
       </c>
       <c r="H17" t="s">
-        <v>926</v>
+        <v>1006</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>963</v>
@@ -25755,7 +25772,6 @@
       <c r="K17" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -25767,20 +25783,20 @@
       <c r="C18" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D18" t="s">
-        <v>957</v>
+      <c r="D18" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G18" t="s">
-        <v>957</v>
+      <c r="G18" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I18" s="48" t="s">
         <v>963</v>
@@ -25802,20 +25818,20 @@
       <c r="C19" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D19" t="s">
-        <v>957</v>
+      <c r="D19" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E19" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G19" t="s">
-        <v>957</v>
+      <c r="G19" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H19" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>963</v>
@@ -25837,20 +25853,20 @@
       <c r="C20" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D20" t="s">
-        <v>957</v>
+      <c r="D20" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E20" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G20" t="s">
-        <v>957</v>
+      <c r="G20" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H20" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="I20" s="48" t="s">
         <v>963</v>
@@ -25861,6 +25877,7 @@
       <c r="K20" s="48" t="s">
         <v>431</v>
       </c>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -25872,20 +25889,20 @@
       <c r="C21" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D21" t="s">
-        <v>957</v>
+      <c r="D21" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E21" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="F21" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G21" t="s">
-        <v>957</v>
+      <c r="G21" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H21" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="I21" s="48" t="s">
         <v>963</v>
@@ -25907,20 +25924,20 @@
       <c r="C22" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D22" t="s">
-        <v>957</v>
+      <c r="D22" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E22" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="F22" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G22" t="s">
-        <v>957</v>
+      <c r="G22" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H22" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="I22" s="48" t="s">
         <v>963</v>
@@ -25942,20 +25959,20 @@
       <c r="C23" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D23" t="s">
-        <v>957</v>
+      <c r="D23" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E23" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="F23" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G23" t="s">
-        <v>957</v>
+      <c r="G23" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H23" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="I23" s="48" t="s">
         <v>963</v>
@@ -25977,20 +25994,20 @@
       <c r="C24" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D24" t="s">
-        <v>957</v>
+      <c r="D24" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E24" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F24" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G24" t="s">
-        <v>957</v>
+      <c r="G24" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H24" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="I24" s="48" t="s">
         <v>963</v>
@@ -26012,20 +26029,20 @@
       <c r="C25" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D25" t="s">
-        <v>957</v>
+      <c r="D25" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E25" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G25" t="s">
-        <v>957</v>
+      <c r="G25" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H25" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="I25" s="48" t="s">
         <v>963</v>
@@ -26047,20 +26064,20 @@
       <c r="C26" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D26" t="s">
-        <v>957</v>
+      <c r="D26" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E26" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G26" t="s">
-        <v>957</v>
+      <c r="G26" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H26" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I26" s="48" t="s">
         <v>963</v>
@@ -26082,20 +26099,20 @@
       <c r="C27" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D27" t="s">
-        <v>957</v>
+      <c r="D27" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E27" t="s">
-        <v>778</v>
+        <v>927</v>
       </c>
       <c r="F27" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G27" t="s">
-        <v>957</v>
+      <c r="G27" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H27" t="s">
-        <v>778</v>
+        <v>927</v>
       </c>
       <c r="I27" s="48" t="s">
         <v>963</v>
@@ -26117,20 +26134,20 @@
       <c r="C28" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D28" t="s">
-        <v>957</v>
+      <c r="D28" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E28" t="s">
-        <v>777</v>
+        <v>928</v>
       </c>
       <c r="F28" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G28" t="s">
-        <v>957</v>
+      <c r="G28" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H28" t="s">
-        <v>777</v>
+        <v>928</v>
       </c>
       <c r="I28" s="48" t="s">
         <v>963</v>
@@ -26152,20 +26169,20 @@
       <c r="C29" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D29" t="s">
-        <v>957</v>
+      <c r="D29" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E29" t="s">
-        <v>790</v>
+        <v>931</v>
       </c>
       <c r="F29" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G29" t="s">
-        <v>957</v>
+      <c r="G29" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H29" t="s">
-        <v>790</v>
+        <v>931</v>
       </c>
       <c r="I29" s="48" t="s">
         <v>963</v>
@@ -26187,20 +26204,20 @@
       <c r="C30" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D30" t="s">
-        <v>957</v>
+      <c r="D30" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E30" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G30" t="s">
-        <v>957</v>
+      <c r="G30" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H30" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="I30" s="48" t="s">
         <v>963</v>
@@ -26222,20 +26239,20 @@
       <c r="C31" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D31" t="s">
-        <v>957</v>
+      <c r="D31" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E31" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G31" t="s">
-        <v>957</v>
+      <c r="G31" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H31" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I31" s="48" t="s">
         <v>963</v>
@@ -26257,20 +26274,20 @@
       <c r="C32" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D32" t="s">
-        <v>957</v>
+      <c r="D32" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E32" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G32" t="s">
-        <v>957</v>
+      <c r="G32" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H32" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I32" s="48" t="s">
         <v>963</v>
@@ -26292,20 +26309,20 @@
       <c r="C33" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D33" t="s">
-        <v>957</v>
+      <c r="D33" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E33" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G33" t="s">
-        <v>957</v>
+      <c r="G33" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H33" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I33" s="48" t="s">
         <v>963</v>
@@ -26327,20 +26344,20 @@
       <c r="C34" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="D34" t="s">
-        <v>957</v>
+      <c r="D34" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="E34" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F34" s="48" t="s">
         <v>962</v>
       </c>
-      <c r="G34" t="s">
-        <v>957</v>
+      <c r="G34" s="48" t="s">
+        <v>954</v>
       </c>
       <c r="H34" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I34" s="48" t="s">
         <v>963</v>
@@ -26366,7 +26383,7 @@
         <v>954</v>
       </c>
       <c r="E35" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F35" s="48" t="s">
         <v>962</v>
@@ -26375,7 +26392,7 @@
         <v>954</v>
       </c>
       <c r="H35" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I35" s="48" t="s">
         <v>963</v>
@@ -26387,9 +26404,44 @@
         <v>431</v>
       </c>
     </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>959</v>
+      </c>
+      <c r="B36" t="s">
+        <v>960</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>954</v>
+      </c>
+      <c r="E36" t="s">
+        <v>934</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>962</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>954</v>
+      </c>
+      <c r="H36" t="s">
+        <v>934</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>963</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>964</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:L28">
-    <sortCondition descending="1" ref="E1:E28"/>
+  <sortState ref="A4:L28">
+    <sortCondition descending="1" ref="E4:E28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26400,7 +26452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A138CE-3CF6-4E53-B74F-2FFB7108209C}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K21" sqref="A1:K21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26431,7 +26485,7 @@
         <v>955</v>
       </c>
       <c r="E1" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>962</v>
@@ -26440,7 +26494,7 @@
         <v>955</v>
       </c>
       <c r="H1" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>963</v>
@@ -26466,7 +26520,7 @@
         <v>955</v>
       </c>
       <c r="E2" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>962</v>
@@ -26475,7 +26529,7 @@
         <v>955</v>
       </c>
       <c r="H2" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>963</v>
@@ -26501,7 +26555,7 @@
         <v>955</v>
       </c>
       <c r="E3" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>962</v>
@@ -26510,7 +26564,7 @@
         <v>955</v>
       </c>
       <c r="H3" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>963</v>
@@ -26536,7 +26590,7 @@
         <v>955</v>
       </c>
       <c r="E4" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="F4" s="48" t="s">
         <v>962</v>
@@ -26545,7 +26599,7 @@
         <v>955</v>
       </c>
       <c r="H4" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>963</v>
@@ -26571,7 +26625,7 @@
         <v>955</v>
       </c>
       <c r="E5" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>962</v>
@@ -26580,7 +26634,7 @@
         <v>955</v>
       </c>
       <c r="H5" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>963</v>
@@ -26606,7 +26660,7 @@
         <v>955</v>
       </c>
       <c r="E6" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>962</v>
@@ -26615,7 +26669,7 @@
         <v>955</v>
       </c>
       <c r="H6" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>963</v>
@@ -26641,7 +26695,7 @@
         <v>955</v>
       </c>
       <c r="E7" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>962</v>
@@ -26650,7 +26704,7 @@
         <v>955</v>
       </c>
       <c r="H7" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>963</v>
@@ -26676,7 +26730,7 @@
         <v>955</v>
       </c>
       <c r="E8" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>962</v>
@@ -26685,7 +26739,7 @@
         <v>955</v>
       </c>
       <c r="H8" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>963</v>
@@ -26711,7 +26765,7 @@
         <v>955</v>
       </c>
       <c r="E9" t="s">
-        <v>800</v>
+        <v>1008</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>962</v>
@@ -26720,7 +26774,7 @@
         <v>955</v>
       </c>
       <c r="H9" t="s">
-        <v>800</v>
+        <v>1008</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>963</v>
@@ -26746,7 +26800,7 @@
         <v>955</v>
       </c>
       <c r="E10" t="s">
-        <v>801</v>
+        <v>1009</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>962</v>
@@ -26755,7 +26809,7 @@
         <v>955</v>
       </c>
       <c r="H10" t="s">
-        <v>801</v>
+        <v>1009</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>963</v>
@@ -26781,7 +26835,7 @@
         <v>955</v>
       </c>
       <c r="E11" t="s">
-        <v>818</v>
+        <v>1010</v>
       </c>
       <c r="F11" s="48" t="s">
         <v>962</v>
@@ -26790,7 +26844,7 @@
         <v>955</v>
       </c>
       <c r="H11" t="s">
-        <v>818</v>
+        <v>1010</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>963</v>
@@ -26816,7 +26870,7 @@
         <v>955</v>
       </c>
       <c r="E12" t="s">
-        <v>820</v>
+        <v>1011</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>962</v>
@@ -26825,7 +26879,7 @@
         <v>955</v>
       </c>
       <c r="H12" t="s">
-        <v>820</v>
+        <v>1011</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>963</v>
@@ -26851,7 +26905,7 @@
         <v>955</v>
       </c>
       <c r="E13" t="s">
-        <v>822</v>
+        <v>1012</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>962</v>
@@ -26860,7 +26914,7 @@
         <v>955</v>
       </c>
       <c r="H13" t="s">
-        <v>822</v>
+        <v>1012</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>963</v>
@@ -26886,7 +26940,7 @@
         <v>955</v>
       </c>
       <c r="E14" t="s">
-        <v>802</v>
+        <v>1013</v>
       </c>
       <c r="F14" s="48" t="s">
         <v>962</v>
@@ -26895,7 +26949,7 @@
         <v>955</v>
       </c>
       <c r="H14" t="s">
-        <v>802</v>
+        <v>1013</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>963</v>
@@ -26921,7 +26975,7 @@
         <v>955</v>
       </c>
       <c r="E15" t="s">
-        <v>803</v>
+        <v>1014</v>
       </c>
       <c r="F15" s="48" t="s">
         <v>962</v>
@@ -26930,7 +26984,7 @@
         <v>955</v>
       </c>
       <c r="H15" t="s">
-        <v>803</v>
+        <v>1014</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>963</v>
@@ -26956,7 +27010,7 @@
         <v>955</v>
       </c>
       <c r="E16" t="s">
-        <v>804</v>
+        <v>1015</v>
       </c>
       <c r="F16" s="48" t="s">
         <v>962</v>
@@ -26965,7 +27019,7 @@
         <v>955</v>
       </c>
       <c r="H16" t="s">
-        <v>804</v>
+        <v>1015</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>963</v>
@@ -26991,7 +27045,7 @@
         <v>955</v>
       </c>
       <c r="E17" t="s">
-        <v>805</v>
+        <v>1016</v>
       </c>
       <c r="F17" s="48" t="s">
         <v>962</v>
@@ -27000,7 +27054,7 @@
         <v>955</v>
       </c>
       <c r="H17" t="s">
-        <v>805</v>
+        <v>1016</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>963</v>
@@ -27026,7 +27080,7 @@
         <v>955</v>
       </c>
       <c r="E18" t="s">
-        <v>806</v>
+        <v>1017</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>962</v>
@@ -27035,7 +27089,7 @@
         <v>955</v>
       </c>
       <c r="H18" t="s">
-        <v>806</v>
+        <v>1017</v>
       </c>
       <c r="I18" s="48" t="s">
         <v>963</v>
@@ -27061,7 +27115,7 @@
         <v>955</v>
       </c>
       <c r="E19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>962</v>
@@ -27070,7 +27124,7 @@
         <v>955</v>
       </c>
       <c r="H19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>963</v>
@@ -27096,7 +27150,7 @@
         <v>955</v>
       </c>
       <c r="E20" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>962</v>
@@ -27105,7 +27159,7 @@
         <v>955</v>
       </c>
       <c r="H20" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I20" s="48" t="s">
         <v>963</v>
@@ -27131,7 +27185,7 @@
         <v>955</v>
       </c>
       <c r="E21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F21" s="48" t="s">
         <v>962</v>
@@ -27140,7 +27194,7 @@
         <v>955</v>
       </c>
       <c r="H21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I21" s="48" t="s">
         <v>963</v>
@@ -27945,7 +27999,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K17" sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -27954,10 +28008,10 @@
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.9140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.58203125" bestFit="1" customWidth="1"/>
@@ -27977,7 +28031,7 @@
         <v>949</v>
       </c>
       <c r="E1" t="s">
-        <v>923</v>
+        <v>999</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>962</v>
@@ -27986,7 +28040,7 @@
         <v>949</v>
       </c>
       <c r="H1" t="s">
-        <v>923</v>
+        <v>999</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>963</v>
@@ -28012,7 +28066,7 @@
         <v>949</v>
       </c>
       <c r="E2" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>962</v>
@@ -28021,7 +28075,7 @@
         <v>949</v>
       </c>
       <c r="H2" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>963</v>
@@ -28047,7 +28101,7 @@
         <v>949</v>
       </c>
       <c r="E3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>962</v>
@@ -28056,7 +28110,7 @@
         <v>949</v>
       </c>
       <c r="H3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>963</v>
@@ -28082,7 +28136,7 @@
         <v>949</v>
       </c>
       <c r="E4" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="F4" s="48" t="s">
         <v>962</v>
@@ -28091,7 +28145,7 @@
         <v>949</v>
       </c>
       <c r="H4" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>963</v>
@@ -28117,7 +28171,7 @@
         <v>949</v>
       </c>
       <c r="E5" t="s">
-        <v>917</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>962</v>
@@ -28126,7 +28180,7 @@
         <v>949</v>
       </c>
       <c r="H5" t="s">
-        <v>917</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>963</v>
@@ -28152,7 +28206,7 @@
         <v>949</v>
       </c>
       <c r="E6" t="s">
-        <v>918</v>
+        <v>1001</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>962</v>
@@ -28161,7 +28215,7 @@
         <v>949</v>
       </c>
       <c r="H6" t="s">
-        <v>918</v>
+        <v>1001</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>963</v>
@@ -28187,7 +28241,7 @@
         <v>949</v>
       </c>
       <c r="E7" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>962</v>
@@ -28196,7 +28250,7 @@
         <v>949</v>
       </c>
       <c r="H7" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>963</v>
@@ -28222,7 +28276,7 @@
         <v>949</v>
       </c>
       <c r="E8" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>962</v>
@@ -28231,7 +28285,7 @@
         <v>949</v>
       </c>
       <c r="H8" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>963</v>
@@ -28257,7 +28311,7 @@
         <v>949</v>
       </c>
       <c r="E9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>962</v>
@@ -28266,7 +28320,7 @@
         <v>949</v>
       </c>
       <c r="H9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>963</v>
@@ -28292,7 +28346,7 @@
         <v>949</v>
       </c>
       <c r="E10" t="s">
-        <v>925</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>962</v>
@@ -28301,7 +28355,7 @@
         <v>949</v>
       </c>
       <c r="H10" t="s">
-        <v>925</v>
+        <v>1002</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>963</v>
@@ -28327,7 +28381,7 @@
         <v>949</v>
       </c>
       <c r="E11" t="s">
-        <v>922</v>
+        <v>1003</v>
       </c>
       <c r="F11" s="48" t="s">
         <v>962</v>
@@ -28336,7 +28390,7 @@
         <v>949</v>
       </c>
       <c r="H11" t="s">
-        <v>922</v>
+        <v>1003</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>963</v>
@@ -28361,11 +28415,17 @@
       <c r="D12" t="s">
         <v>949</v>
       </c>
+      <c r="E12" t="s">
+        <v>1004</v>
+      </c>
       <c r="F12" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G12" t="s">
         <v>949</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1004</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>963</v>
@@ -28390,11 +28450,17 @@
       <c r="D13" t="s">
         <v>949</v>
       </c>
+      <c r="E13" t="s">
+        <v>919</v>
+      </c>
       <c r="F13" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G13" t="s">
         <v>949</v>
+      </c>
+      <c r="H13" t="s">
+        <v>919</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>963</v>
@@ -28419,11 +28485,17 @@
       <c r="D14" t="s">
         <v>949</v>
       </c>
+      <c r="E14" t="s">
+        <v>920</v>
+      </c>
       <c r="F14" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G14" t="s">
         <v>949</v>
+      </c>
+      <c r="H14" t="s">
+        <v>920</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>963</v>
@@ -28448,11 +28520,17 @@
       <c r="D15" t="s">
         <v>949</v>
       </c>
+      <c r="E15" t="s">
+        <v>921</v>
+      </c>
       <c r="F15" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G15" t="s">
         <v>949</v>
+      </c>
+      <c r="H15" t="s">
+        <v>921</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>963</v>
@@ -28477,11 +28555,17 @@
       <c r="D16" t="s">
         <v>949</v>
       </c>
+      <c r="E16" t="s">
+        <v>925</v>
+      </c>
       <c r="F16" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G16" t="s">
         <v>949</v>
+      </c>
+      <c r="H16" t="s">
+        <v>925</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>963</v>
@@ -28506,11 +28590,17 @@
       <c r="D17" t="s">
         <v>949</v>
       </c>
+      <c r="E17" t="s">
+        <v>922</v>
+      </c>
       <c r="F17" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G17" t="s">
         <v>949</v>
+      </c>
+      <c r="H17" t="s">
+        <v>922</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>963</v>
@@ -28611,15 +28701,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785C4BC6-0396-41C4-9397-E6D96B4ADA45}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -28628,10 +28719,10 @@
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.4140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.9140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.58203125" bestFit="1" customWidth="1"/>
@@ -28651,7 +28742,7 @@
         <v>952</v>
       </c>
       <c r="E1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>962</v>
@@ -28660,7 +28751,7 @@
         <v>952</v>
       </c>
       <c r="H1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>963</v>
@@ -28686,7 +28777,7 @@
         <v>952</v>
       </c>
       <c r="E2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>962</v>
@@ -28695,7 +28786,7 @@
         <v>952</v>
       </c>
       <c r="H2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>963</v>
@@ -29736,7 +29827,7 @@
         <v>952</v>
       </c>
       <c r="E32" t="s">
-        <v>840</v>
+        <v>975</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>962</v>
@@ -29745,7 +29836,7 @@
         <v>952</v>
       </c>
       <c r="H32" t="s">
-        <v>840</v>
+        <v>975</v>
       </c>
       <c r="I32" s="48" t="s">
         <v>963</v>
@@ -29805,17 +29896,11 @@
       <c r="D34" t="s">
         <v>952</v>
       </c>
-      <c r="E34" t="s">
-        <v>977</v>
-      </c>
       <c r="F34" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G34" t="s">
         <v>952</v>
-      </c>
-      <c r="H34" t="s">
-        <v>977</v>
       </c>
       <c r="I34" s="48" t="s">
         <v>963</v>
@@ -30317,35 +30402,6 @@
         <v>964</v>
       </c>
       <c r="K51" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>959</v>
-      </c>
-      <c r="B52" t="s">
-        <v>960</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>961</v>
-      </c>
-      <c r="D52" t="s">
-        <v>952</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>962</v>
-      </c>
-      <c r="G52" t="s">
-        <v>952</v>
-      </c>
-      <c r="I52" s="48" t="s">
-        <v>963</v>
-      </c>
-      <c r="J52" s="48" t="s">
-        <v>964</v>
-      </c>
-      <c r="K52" s="48" t="s">
         <v>431</v>
       </c>
     </row>
@@ -30357,9 +30413,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF55E53E-A140-452C-904C-AF820B72B360}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -30380,9 +30438,6 @@
       <c r="A1" t="s">
         <v>959</v>
       </c>
-      <c r="B1" t="s">
-        <v>897</v>
-      </c>
       <c r="C1" s="49" t="s">
         <v>961</v>
       </c>
@@ -30390,7 +30445,7 @@
         <v>948</v>
       </c>
       <c r="E1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>962</v>
@@ -30399,13 +30454,10 @@
         <v>948</v>
       </c>
       <c r="H1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J1" t="s">
-        <v>897</v>
       </c>
       <c r="K1" s="48" t="s">
         <v>431</v>
@@ -30415,9 +30467,6 @@
       <c r="A2" t="s">
         <v>959</v>
       </c>
-      <c r="B2" t="s">
-        <v>898</v>
-      </c>
       <c r="C2" s="49" t="s">
         <v>961</v>
       </c>
@@ -30425,7 +30474,7 @@
         <v>948</v>
       </c>
       <c r="E2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>962</v>
@@ -30434,13 +30483,10 @@
         <v>948</v>
       </c>
       <c r="H2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J2" t="s">
-        <v>898</v>
       </c>
       <c r="K2" s="48" t="s">
         <v>431</v>
@@ -30450,9 +30496,6 @@
       <c r="A3" t="s">
         <v>959</v>
       </c>
-      <c r="B3" t="s">
-        <v>897</v>
-      </c>
       <c r="C3" s="49" t="s">
         <v>961</v>
       </c>
@@ -30460,7 +30503,7 @@
         <v>948</v>
       </c>
       <c r="E3" t="s">
-        <v>947</v>
+        <v>856</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>962</v>
@@ -30469,13 +30512,10 @@
         <v>948</v>
       </c>
       <c r="H3" t="s">
-        <v>947</v>
+        <v>856</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J3" t="s">
-        <v>897</v>
       </c>
       <c r="K3" s="48" t="s">
         <v>431</v>
@@ -30485,9 +30525,6 @@
       <c r="A4" t="s">
         <v>959</v>
       </c>
-      <c r="B4" t="s">
-        <v>898</v>
-      </c>
       <c r="C4" s="49" t="s">
         <v>961</v>
       </c>
@@ -30495,7 +30532,7 @@
         <v>948</v>
       </c>
       <c r="E4" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F4" s="48" t="s">
         <v>962</v>
@@ -30504,13 +30541,10 @@
         <v>948</v>
       </c>
       <c r="H4" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J4" t="s">
-        <v>898</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>431</v>
@@ -30520,9 +30554,6 @@
       <c r="A5" t="s">
         <v>959</v>
       </c>
-      <c r="B5" t="s">
-        <v>898</v>
-      </c>
       <c r="C5" s="49" t="s">
         <v>961</v>
       </c>
@@ -30530,7 +30561,7 @@
         <v>948</v>
       </c>
       <c r="E5" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>962</v>
@@ -30539,13 +30570,10 @@
         <v>948</v>
       </c>
       <c r="H5" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J5" t="s">
-        <v>898</v>
       </c>
       <c r="K5" s="48" t="s">
         <v>431</v>
@@ -30555,9 +30583,6 @@
       <c r="A6" t="s">
         <v>959</v>
       </c>
-      <c r="B6" t="s">
-        <v>898</v>
-      </c>
       <c r="C6" s="49" t="s">
         <v>961</v>
       </c>
@@ -30565,7 +30590,7 @@
         <v>948</v>
       </c>
       <c r="E6" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>962</v>
@@ -30574,13 +30599,10 @@
         <v>948</v>
       </c>
       <c r="H6" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J6" t="s">
-        <v>898</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>431</v>
@@ -30590,9 +30612,6 @@
       <c r="A7" t="s">
         <v>959</v>
       </c>
-      <c r="B7" t="s">
-        <v>898</v>
-      </c>
       <c r="C7" s="49" t="s">
         <v>961</v>
       </c>
@@ -30600,7 +30619,7 @@
         <v>948</v>
       </c>
       <c r="E7" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>962</v>
@@ -30609,13 +30628,10 @@
         <v>948</v>
       </c>
       <c r="H7" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J7" t="s">
-        <v>898</v>
       </c>
       <c r="K7" s="48" t="s">
         <v>431</v>
@@ -30625,9 +30641,6 @@
       <c r="A8" t="s">
         <v>959</v>
       </c>
-      <c r="B8" t="s">
-        <v>898</v>
-      </c>
       <c r="C8" s="49" t="s">
         <v>961</v>
       </c>
@@ -30635,7 +30648,7 @@
         <v>948</v>
       </c>
       <c r="E8" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>962</v>
@@ -30644,13 +30657,10 @@
         <v>948</v>
       </c>
       <c r="H8" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J8" t="s">
-        <v>898</v>
       </c>
       <c r="K8" s="48" t="s">
         <v>431</v>
@@ -30660,9 +30670,6 @@
       <c r="A9" t="s">
         <v>959</v>
       </c>
-      <c r="B9" t="s">
-        <v>898</v>
-      </c>
       <c r="C9" s="49" t="s">
         <v>961</v>
       </c>
@@ -30670,7 +30677,7 @@
         <v>948</v>
       </c>
       <c r="E9" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>962</v>
@@ -30679,13 +30686,10 @@
         <v>948</v>
       </c>
       <c r="H9" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J9" t="s">
-        <v>898</v>
       </c>
       <c r="K9" s="48" t="s">
         <v>431</v>
@@ -30695,9 +30699,6 @@
       <c r="A10" t="s">
         <v>959</v>
       </c>
-      <c r="B10" t="s">
-        <v>898</v>
-      </c>
       <c r="C10" s="49" t="s">
         <v>961</v>
       </c>
@@ -30705,7 +30706,7 @@
         <v>948</v>
       </c>
       <c r="E10" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>962</v>
@@ -30714,13 +30715,10 @@
         <v>948</v>
       </c>
       <c r="H10" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J10" t="s">
-        <v>898</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>431</v>
@@ -30730,9 +30728,6 @@
       <c r="A11" t="s">
         <v>959</v>
       </c>
-      <c r="B11" t="s">
-        <v>898</v>
-      </c>
       <c r="C11" s="49" t="s">
         <v>961</v>
       </c>
@@ -30740,7 +30735,7 @@
         <v>948</v>
       </c>
       <c r="E11" t="s">
-        <v>884</v>
+        <v>997</v>
       </c>
       <c r="F11" s="48" t="s">
         <v>962</v>
@@ -30749,13 +30744,10 @@
         <v>948</v>
       </c>
       <c r="H11" t="s">
-        <v>884</v>
+        <v>997</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J11" t="s">
-        <v>898</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>431</v>
@@ -30765,9 +30757,6 @@
       <c r="A12" t="s">
         <v>959</v>
       </c>
-      <c r="B12" t="s">
-        <v>897</v>
-      </c>
       <c r="C12" s="49" t="s">
         <v>961</v>
       </c>
@@ -30775,7 +30764,7 @@
         <v>948</v>
       </c>
       <c r="E12" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>962</v>
@@ -30784,13 +30773,10 @@
         <v>948</v>
       </c>
       <c r="H12" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J12" t="s">
-        <v>897</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>431</v>
@@ -30800,9 +30786,6 @@
       <c r="A13" t="s">
         <v>959</v>
       </c>
-      <c r="B13" t="s">
-        <v>897</v>
-      </c>
       <c r="C13" s="49" t="s">
         <v>961</v>
       </c>
@@ -30810,7 +30793,7 @@
         <v>948</v>
       </c>
       <c r="E13" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>962</v>
@@ -30819,13 +30802,10 @@
         <v>948</v>
       </c>
       <c r="H13" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J13" t="s">
-        <v>897</v>
       </c>
       <c r="K13" s="48" t="s">
         <v>431</v>
@@ -30835,9 +30815,6 @@
       <c r="A14" t="s">
         <v>959</v>
       </c>
-      <c r="B14" t="s">
-        <v>898</v>
-      </c>
       <c r="C14" s="49" t="s">
         <v>961</v>
       </c>
@@ -30845,7 +30822,7 @@
         <v>948</v>
       </c>
       <c r="E14" t="s">
-        <v>887</v>
+        <v>998</v>
       </c>
       <c r="F14" s="48" t="s">
         <v>962</v>
@@ -30854,13 +30831,10 @@
         <v>948</v>
       </c>
       <c r="H14" t="s">
-        <v>887</v>
+        <v>998</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J14" t="s">
-        <v>898</v>
       </c>
       <c r="K14" s="48" t="s">
         <v>431</v>
@@ -30870,9 +30844,6 @@
       <c r="A15" t="s">
         <v>959</v>
       </c>
-      <c r="B15" t="s">
-        <v>898</v>
-      </c>
       <c r="C15" s="49" t="s">
         <v>961</v>
       </c>
@@ -30880,7 +30851,7 @@
         <v>948</v>
       </c>
       <c r="E15" t="s">
-        <v>888</v>
+        <v>1018</v>
       </c>
       <c r="F15" s="48" t="s">
         <v>962</v>
@@ -30889,13 +30860,10 @@
         <v>948</v>
       </c>
       <c r="H15" t="s">
-        <v>888</v>
+        <v>1018</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J15" t="s">
-        <v>898</v>
       </c>
       <c r="K15" s="48" t="s">
         <v>431</v>
@@ -30905,9 +30873,6 @@
       <c r="A16" t="s">
         <v>959</v>
       </c>
-      <c r="B16" t="s">
-        <v>898</v>
-      </c>
       <c r="C16" s="49" t="s">
         <v>961</v>
       </c>
@@ -30915,7 +30880,7 @@
         <v>948</v>
       </c>
       <c r="E16" t="s">
-        <v>889</v>
+        <v>1019</v>
       </c>
       <c r="F16" s="48" t="s">
         <v>962</v>
@@ -30924,13 +30889,10 @@
         <v>948</v>
       </c>
       <c r="H16" t="s">
-        <v>889</v>
+        <v>1019</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J16" t="s">
-        <v>898</v>
       </c>
       <c r="K16" s="48" t="s">
         <v>431</v>
@@ -30940,9 +30902,6 @@
       <c r="A17" t="s">
         <v>959</v>
       </c>
-      <c r="B17" t="s">
-        <v>898</v>
-      </c>
       <c r="C17" s="49" t="s">
         <v>961</v>
       </c>
@@ -30950,7 +30909,7 @@
         <v>948</v>
       </c>
       <c r="E17" t="s">
-        <v>890</v>
+        <v>1020</v>
       </c>
       <c r="F17" s="48" t="s">
         <v>962</v>
@@ -30959,13 +30918,10 @@
         <v>948</v>
       </c>
       <c r="H17" t="s">
-        <v>890</v>
+        <v>1020</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J17" t="s">
-        <v>898</v>
       </c>
       <c r="K17" s="48" t="s">
         <v>431</v>
@@ -30975,9 +30931,6 @@
       <c r="A18" t="s">
         <v>959</v>
       </c>
-      <c r="B18" t="s">
-        <v>897</v>
-      </c>
       <c r="C18" s="49" t="s">
         <v>961</v>
       </c>
@@ -30985,7 +30938,7 @@
         <v>948</v>
       </c>
       <c r="E18" t="s">
-        <v>891</v>
+        <v>938</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>962</v>
@@ -30994,60 +30947,25 @@
         <v>948</v>
       </c>
       <c r="H18" t="s">
-        <v>891</v>
+        <v>938</v>
       </c>
       <c r="I18" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J18" t="s">
-        <v>897</v>
-      </c>
       <c r="K18" s="48" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>959</v>
-      </c>
-      <c r="B19" t="s">
-        <v>898</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>961</v>
-      </c>
-      <c r="D19" t="s">
-        <v>948</v>
-      </c>
-      <c r="E19" t="s">
-        <v>892</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>962</v>
-      </c>
-      <c r="G19" t="s">
-        <v>948</v>
-      </c>
-      <c r="H19" t="s">
-        <v>892</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>963</v>
-      </c>
-      <c r="J19" t="s">
-        <v>898</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>431</v>
-      </c>
+      <c r="C19" s="49"/>
+      <c r="F19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>959</v>
       </c>
-      <c r="B20" t="s">
-        <v>897</v>
-      </c>
       <c r="C20" s="49" t="s">
         <v>961</v>
       </c>
@@ -31055,7 +30973,7 @@
         <v>948</v>
       </c>
       <c r="E20" t="s">
-        <v>939</v>
+        <v>1021</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>962</v>
@@ -31064,13 +30982,10 @@
         <v>948</v>
       </c>
       <c r="H20" t="s">
-        <v>939</v>
+        <v>1021</v>
       </c>
       <c r="I20" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J20" t="s">
-        <v>897</v>
       </c>
       <c r="K20" s="48" t="s">
         <v>431</v>
@@ -31080,9 +30995,6 @@
       <c r="A21" t="s">
         <v>959</v>
       </c>
-      <c r="B21" t="s">
-        <v>898</v>
-      </c>
       <c r="C21" s="49" t="s">
         <v>961</v>
       </c>
@@ -31090,7 +31002,7 @@
         <v>948</v>
       </c>
       <c r="E21" t="s">
-        <v>943</v>
+        <v>1022</v>
       </c>
       <c r="F21" s="48" t="s">
         <v>962</v>
@@ -31099,13 +31011,10 @@
         <v>948</v>
       </c>
       <c r="H21" t="s">
-        <v>943</v>
+        <v>1022</v>
       </c>
       <c r="I21" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J21" t="s">
-        <v>898</v>
       </c>
       <c r="K21" s="48" t="s">
         <v>431</v>
@@ -31115,9 +31024,6 @@
       <c r="A22" t="s">
         <v>959</v>
       </c>
-      <c r="B22" t="s">
-        <v>898</v>
-      </c>
       <c r="C22" s="49" t="s">
         <v>961</v>
       </c>
@@ -31125,7 +31031,7 @@
         <v>948</v>
       </c>
       <c r="E22" t="s">
-        <v>893</v>
+        <v>1023</v>
       </c>
       <c r="F22" s="48" t="s">
         <v>962</v>
@@ -31134,13 +31040,10 @@
         <v>948</v>
       </c>
       <c r="H22" t="s">
-        <v>893</v>
+        <v>1023</v>
       </c>
       <c r="I22" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J22" t="s">
-        <v>898</v>
       </c>
       <c r="K22" s="48" t="s">
         <v>431</v>
@@ -31150,9 +31053,6 @@
       <c r="A23" t="s">
         <v>959</v>
       </c>
-      <c r="B23" t="s">
-        <v>898</v>
-      </c>
       <c r="C23" s="49" t="s">
         <v>961</v>
       </c>
@@ -31160,7 +31060,7 @@
         <v>948</v>
       </c>
       <c r="E23" t="s">
-        <v>894</v>
+        <v>1024</v>
       </c>
       <c r="F23" s="48" t="s">
         <v>962</v>
@@ -31169,13 +31069,10 @@
         <v>948</v>
       </c>
       <c r="H23" t="s">
-        <v>894</v>
+        <v>1024</v>
       </c>
       <c r="I23" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J23" t="s">
-        <v>898</v>
       </c>
       <c r="K23" s="48" t="s">
         <v>431</v>
@@ -31185,9 +31082,6 @@
       <c r="A24" t="s">
         <v>959</v>
       </c>
-      <c r="B24" t="s">
-        <v>897</v>
-      </c>
       <c r="C24" s="49" t="s">
         <v>961</v>
       </c>
@@ -31195,7 +31089,7 @@
         <v>948</v>
       </c>
       <c r="E24" t="s">
-        <v>896</v>
+        <v>1025</v>
       </c>
       <c r="F24" s="48" t="s">
         <v>962</v>
@@ -31204,13 +31098,10 @@
         <v>948</v>
       </c>
       <c r="H24" t="s">
-        <v>896</v>
+        <v>1025</v>
       </c>
       <c r="I24" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J24" t="s">
-        <v>897</v>
       </c>
       <c r="K24" s="48" t="s">
         <v>431</v>
@@ -31220,9 +31111,6 @@
       <c r="A25" t="s">
         <v>959</v>
       </c>
-      <c r="B25" t="s">
-        <v>898</v>
-      </c>
       <c r="C25" s="49" t="s">
         <v>961</v>
       </c>
@@ -31230,7 +31118,7 @@
         <v>948</v>
       </c>
       <c r="E25" t="s">
-        <v>895</v>
+        <v>1026</v>
       </c>
       <c r="F25" s="48" t="s">
         <v>962</v>
@@ -31239,13 +31127,10 @@
         <v>948</v>
       </c>
       <c r="H25" t="s">
-        <v>895</v>
+        <v>1026</v>
       </c>
       <c r="I25" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J25" t="s">
-        <v>898</v>
       </c>
       <c r="K25" s="48" t="s">
         <v>431</v>
@@ -31255,32 +31140,20 @@
       <c r="A26" t="s">
         <v>959</v>
       </c>
-      <c r="B26" t="s">
-        <v>898</v>
-      </c>
       <c r="C26" s="49" t="s">
         <v>961</v>
       </c>
       <c r="D26" t="s">
         <v>948</v>
       </c>
-      <c r="E26" t="s">
-        <v>936</v>
-      </c>
       <c r="F26" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G26" t="s">
         <v>948</v>
       </c>
-      <c r="H26" t="s">
-        <v>936</v>
-      </c>
       <c r="I26" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J26" t="s">
-        <v>898</v>
       </c>
       <c r="K26" s="48" t="s">
         <v>431</v>
@@ -31290,32 +31163,20 @@
       <c r="A27" t="s">
         <v>959</v>
       </c>
-      <c r="B27" t="s">
-        <v>898</v>
-      </c>
       <c r="C27" s="49" t="s">
         <v>961</v>
       </c>
       <c r="D27" t="s">
         <v>948</v>
       </c>
-      <c r="E27" t="s">
-        <v>937</v>
-      </c>
       <c r="F27" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G27" t="s">
         <v>948</v>
       </c>
-      <c r="H27" t="s">
-        <v>937</v>
-      </c>
       <c r="I27" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J27" t="s">
-        <v>898</v>
       </c>
       <c r="K27" s="48" t="s">
         <v>431</v>
@@ -31325,32 +31186,20 @@
       <c r="A28" t="s">
         <v>959</v>
       </c>
-      <c r="B28" t="s">
-        <v>898</v>
-      </c>
       <c r="C28" s="49" t="s">
         <v>961</v>
       </c>
       <c r="D28" t="s">
         <v>948</v>
       </c>
-      <c r="E28" t="s">
-        <v>938</v>
-      </c>
       <c r="F28" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G28" t="s">
         <v>948</v>
       </c>
-      <c r="H28" t="s">
-        <v>938</v>
-      </c>
       <c r="I28" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J28" t="s">
-        <v>898</v>
       </c>
       <c r="K28" s="48" t="s">
         <v>431</v>
@@ -31360,32 +31209,20 @@
       <c r="A29" t="s">
         <v>959</v>
       </c>
-      <c r="B29" t="s">
-        <v>898</v>
-      </c>
       <c r="C29" s="49" t="s">
         <v>961</v>
       </c>
       <c r="D29" t="s">
         <v>948</v>
       </c>
-      <c r="E29" t="s">
-        <v>940</v>
-      </c>
       <c r="F29" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G29" t="s">
         <v>948</v>
       </c>
-      <c r="H29" t="s">
-        <v>940</v>
-      </c>
       <c r="I29" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J29" t="s">
-        <v>898</v>
       </c>
       <c r="K29" s="48" t="s">
         <v>431</v>
@@ -31395,32 +31232,20 @@
       <c r="A30" t="s">
         <v>959</v>
       </c>
-      <c r="B30" t="s">
-        <v>898</v>
-      </c>
       <c r="C30" s="49" t="s">
         <v>961</v>
       </c>
       <c r="D30" t="s">
         <v>948</v>
       </c>
-      <c r="E30" t="s">
-        <v>941</v>
-      </c>
       <c r="F30" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G30" t="s">
         <v>948</v>
       </c>
-      <c r="H30" t="s">
-        <v>941</v>
-      </c>
       <c r="I30" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J30" t="s">
-        <v>898</v>
       </c>
       <c r="K30" s="48" t="s">
         <v>431</v>
@@ -31430,32 +31255,20 @@
       <c r="A31" t="s">
         <v>959</v>
       </c>
-      <c r="B31" t="s">
-        <v>898</v>
-      </c>
       <c r="C31" s="49" t="s">
         <v>961</v>
       </c>
       <c r="D31" t="s">
         <v>948</v>
       </c>
-      <c r="E31" t="s">
-        <v>942</v>
-      </c>
       <c r="F31" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G31" t="s">
         <v>948</v>
       </c>
-      <c r="H31" t="s">
-        <v>942</v>
-      </c>
       <c r="I31" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J31" t="s">
-        <v>898</v>
       </c>
       <c r="K31" s="48" t="s">
         <v>431</v>
@@ -31465,32 +31278,20 @@
       <c r="A32" t="s">
         <v>959</v>
       </c>
-      <c r="B32" t="s">
-        <v>898</v>
-      </c>
       <c r="C32" s="49" t="s">
         <v>961</v>
       </c>
       <c r="D32" t="s">
         <v>948</v>
       </c>
-      <c r="E32" t="s">
-        <v>944</v>
-      </c>
       <c r="F32" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G32" t="s">
         <v>948</v>
       </c>
-      <c r="H32" t="s">
-        <v>944</v>
-      </c>
       <c r="I32" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J32" t="s">
-        <v>898</v>
       </c>
       <c r="K32" s="48" t="s">
         <v>431</v>
@@ -31500,32 +31301,20 @@
       <c r="A33" t="s">
         <v>959</v>
       </c>
-      <c r="B33" t="s">
-        <v>898</v>
-      </c>
       <c r="C33" s="49" t="s">
         <v>961</v>
       </c>
       <c r="D33" t="s">
         <v>948</v>
       </c>
-      <c r="E33" t="s">
-        <v>877</v>
-      </c>
       <c r="F33" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G33" t="s">
         <v>948</v>
       </c>
-      <c r="H33" t="s">
-        <v>877</v>
-      </c>
       <c r="I33" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J33" t="s">
-        <v>898</v>
       </c>
       <c r="K33" s="48" t="s">
         <v>431</v>
@@ -31535,32 +31324,20 @@
       <c r="A34" t="s">
         <v>959</v>
       </c>
-      <c r="B34" t="s">
-        <v>898</v>
-      </c>
       <c r="C34" s="49" t="s">
         <v>961</v>
       </c>
       <c r="D34" t="s">
         <v>948</v>
       </c>
-      <c r="E34" t="s">
-        <v>878</v>
-      </c>
       <c r="F34" s="48" t="s">
         <v>962</v>
       </c>
       <c r="G34" t="s">
         <v>948</v>
       </c>
-      <c r="H34" t="s">
-        <v>878</v>
-      </c>
       <c r="I34" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J34" t="s">
-        <v>898</v>
       </c>
       <c r="K34" s="48" t="s">
         <v>431</v>
@@ -31570,9 +31347,6 @@
       <c r="A35" t="s">
         <v>959</v>
       </c>
-      <c r="B35" t="s">
-        <v>960</v>
-      </c>
       <c r="C35" s="49" t="s">
         <v>961</v>
       </c>
@@ -31587,9 +31361,6 @@
       </c>
       <c r="I35" s="48" t="s">
         <v>963</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>964</v>
       </c>
       <c r="K35" s="48" t="s">
         <v>431</v>
@@ -31599,9 +31370,6 @@
       <c r="A36" t="s">
         <v>959</v>
       </c>
-      <c r="B36" t="s">
-        <v>960</v>
-      </c>
       <c r="C36" s="49" t="s">
         <v>961</v>
       </c>
@@ -31617,9 +31385,7 @@
       <c r="I36" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J36" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J36" s="48"/>
       <c r="K36" s="48" t="s">
         <v>431</v>
       </c>
@@ -31628,9 +31394,6 @@
       <c r="A37" t="s">
         <v>959</v>
       </c>
-      <c r="B37" t="s">
-        <v>960</v>
-      </c>
       <c r="C37" s="49" t="s">
         <v>961</v>
       </c>
@@ -31646,9 +31409,7 @@
       <c r="I37" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J37" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J37" s="48"/>
       <c r="K37" s="48" t="s">
         <v>431</v>
       </c>
@@ -31657,9 +31418,6 @@
       <c r="A38" t="s">
         <v>959</v>
       </c>
-      <c r="B38" t="s">
-        <v>960</v>
-      </c>
       <c r="C38" s="49" t="s">
         <v>961</v>
       </c>
@@ -31675,9 +31433,7 @@
       <c r="I38" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J38" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J38" s="48"/>
       <c r="K38" s="48" t="s">
         <v>431</v>
       </c>
@@ -31686,9 +31442,6 @@
       <c r="A39" t="s">
         <v>959</v>
       </c>
-      <c r="B39" t="s">
-        <v>960</v>
-      </c>
       <c r="C39" s="49" t="s">
         <v>961</v>
       </c>
@@ -31704,9 +31457,7 @@
       <c r="I39" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J39" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J39" s="48"/>
       <c r="K39" s="48" t="s">
         <v>431</v>
       </c>
@@ -31715,9 +31466,6 @@
       <c r="A40" t="s">
         <v>959</v>
       </c>
-      <c r="B40" t="s">
-        <v>960</v>
-      </c>
       <c r="C40" s="49" t="s">
         <v>961</v>
       </c>
@@ -31733,9 +31481,7 @@
       <c r="I40" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J40" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J40" s="48"/>
       <c r="K40" s="48" t="s">
         <v>431</v>
       </c>
@@ -31744,9 +31490,6 @@
       <c r="A41" t="s">
         <v>959</v>
       </c>
-      <c r="B41" t="s">
-        <v>960</v>
-      </c>
       <c r="C41" s="49" t="s">
         <v>961</v>
       </c>
@@ -31762,9 +31505,7 @@
       <c r="I41" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J41" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J41" s="48"/>
       <c r="K41" s="48" t="s">
         <v>431</v>
       </c>
@@ -31773,9 +31514,6 @@
       <c r="A42" t="s">
         <v>959</v>
       </c>
-      <c r="B42" t="s">
-        <v>960</v>
-      </c>
       <c r="C42" s="49" t="s">
         <v>961</v>
       </c>
@@ -31791,9 +31529,7 @@
       <c r="I42" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J42" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J42" s="48"/>
       <c r="K42" s="48" t="s">
         <v>431</v>
       </c>
@@ -31802,9 +31538,6 @@
       <c r="A43" t="s">
         <v>959</v>
       </c>
-      <c r="B43" t="s">
-        <v>960</v>
-      </c>
       <c r="C43" s="49" t="s">
         <v>961</v>
       </c>
@@ -31820,9 +31553,7 @@
       <c r="I43" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J43" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J43" s="48"/>
       <c r="K43" s="48" t="s">
         <v>431</v>
       </c>
@@ -31831,9 +31562,6 @@
       <c r="A44" t="s">
         <v>959</v>
       </c>
-      <c r="B44" t="s">
-        <v>960</v>
-      </c>
       <c r="C44" s="49" t="s">
         <v>961</v>
       </c>
@@ -31849,9 +31577,7 @@
       <c r="I44" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J44" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J44" s="48"/>
       <c r="K44" s="48" t="s">
         <v>431</v>
       </c>
@@ -31860,9 +31586,6 @@
       <c r="A45" t="s">
         <v>959</v>
       </c>
-      <c r="B45" t="s">
-        <v>960</v>
-      </c>
       <c r="C45" s="49" t="s">
         <v>961</v>
       </c>
@@ -31878,9 +31601,7 @@
       <c r="I45" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J45" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J45" s="48"/>
       <c r="K45" s="48" t="s">
         <v>431</v>
       </c>
@@ -31889,9 +31610,6 @@
       <c r="A46" t="s">
         <v>959</v>
       </c>
-      <c r="B46" t="s">
-        <v>960</v>
-      </c>
       <c r="C46" s="49" t="s">
         <v>961</v>
       </c>
@@ -31907,9 +31625,7 @@
       <c r="I46" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J46" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J46" s="48"/>
       <c r="K46" s="48" t="s">
         <v>431</v>
       </c>
@@ -31918,9 +31634,6 @@
       <c r="A47" t="s">
         <v>959</v>
       </c>
-      <c r="B47" t="s">
-        <v>960</v>
-      </c>
       <c r="C47" s="49" t="s">
         <v>961</v>
       </c>
@@ -31936,9 +31649,7 @@
       <c r="I47" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J47" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J47" s="48"/>
       <c r="K47" s="48" t="s">
         <v>431</v>
       </c>
@@ -31947,9 +31658,6 @@
       <c r="A48" t="s">
         <v>959</v>
       </c>
-      <c r="B48" t="s">
-        <v>960</v>
-      </c>
       <c r="C48" s="49" t="s">
         <v>961</v>
       </c>
@@ -31965,9 +31673,7 @@
       <c r="I48" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J48" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J48" s="48"/>
       <c r="K48" s="48" t="s">
         <v>431</v>
       </c>
@@ -31976,9 +31682,6 @@
       <c r="A49" t="s">
         <v>959</v>
       </c>
-      <c r="B49" t="s">
-        <v>960</v>
-      </c>
       <c r="C49" s="49" t="s">
         <v>961</v>
       </c>
@@ -31994,9 +31697,7 @@
       <c r="I49" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J49" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J49" s="48"/>
       <c r="K49" s="48" t="s">
         <v>431</v>
       </c>
@@ -32005,9 +31706,6 @@
       <c r="A50" t="s">
         <v>959</v>
       </c>
-      <c r="B50" t="s">
-        <v>960</v>
-      </c>
       <c r="C50" s="49" t="s">
         <v>961</v>
       </c>
@@ -32023,9 +31721,7 @@
       <c r="I50" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J50" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J50" s="48"/>
       <c r="K50" s="48" t="s">
         <v>431</v>
       </c>
@@ -32034,9 +31730,6 @@
       <c r="A51" t="s">
         <v>959</v>
       </c>
-      <c r="B51" t="s">
-        <v>960</v>
-      </c>
       <c r="C51" s="49" t="s">
         <v>961</v>
       </c>
@@ -32052,9 +31745,7 @@
       <c r="I51" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J51" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J51" s="48"/>
       <c r="K51" s="48" t="s">
         <v>431</v>
       </c>
@@ -32063,9 +31754,6 @@
       <c r="A52" t="s">
         <v>959</v>
       </c>
-      <c r="B52" t="s">
-        <v>960</v>
-      </c>
       <c r="C52" s="49" t="s">
         <v>961</v>
       </c>
@@ -32081,9 +31769,7 @@
       <c r="I52" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J52" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J52" s="48"/>
       <c r="K52" s="48" t="s">
         <v>431</v>
       </c>
@@ -32092,9 +31778,6 @@
       <c r="A53" t="s">
         <v>959</v>
       </c>
-      <c r="B53" t="s">
-        <v>960</v>
-      </c>
       <c r="C53" s="49" t="s">
         <v>961</v>
       </c>
@@ -32110,9 +31793,7 @@
       <c r="I53" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J53" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J53" s="48"/>
       <c r="K53" s="48" t="s">
         <v>431</v>
       </c>
@@ -32121,9 +31802,6 @@
       <c r="A54" t="s">
         <v>959</v>
       </c>
-      <c r="B54" t="s">
-        <v>960</v>
-      </c>
       <c r="C54" s="49" t="s">
         <v>961</v>
       </c>
@@ -32139,9 +31817,7 @@
       <c r="I54" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J54" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J54" s="48"/>
       <c r="K54" s="48" t="s">
         <v>431</v>
       </c>
@@ -32150,9 +31826,6 @@
       <c r="A55" t="s">
         <v>959</v>
       </c>
-      <c r="B55" t="s">
-        <v>960</v>
-      </c>
       <c r="C55" s="49" t="s">
         <v>961</v>
       </c>
@@ -32168,9 +31841,7 @@
       <c r="I55" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J55" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J55" s="48"/>
       <c r="K55" s="48" t="s">
         <v>431</v>
       </c>
@@ -32179,9 +31850,6 @@
       <c r="A56" t="s">
         <v>959</v>
       </c>
-      <c r="B56" t="s">
-        <v>960</v>
-      </c>
       <c r="C56" s="49" t="s">
         <v>961</v>
       </c>
@@ -32197,9 +31865,7 @@
       <c r="I56" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J56" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J56" s="48"/>
       <c r="K56" s="48" t="s">
         <v>431</v>
       </c>
@@ -32208,9 +31874,6 @@
       <c r="A57" t="s">
         <v>959</v>
       </c>
-      <c r="B57" t="s">
-        <v>960</v>
-      </c>
       <c r="C57" s="49" t="s">
         <v>961</v>
       </c>
@@ -32226,9 +31889,7 @@
       <c r="I57" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J57" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J57" s="48"/>
       <c r="K57" s="48" t="s">
         <v>431</v>
       </c>
@@ -32237,9 +31898,6 @@
       <c r="A58" t="s">
         <v>959</v>
       </c>
-      <c r="B58" t="s">
-        <v>960</v>
-      </c>
       <c r="C58" s="49" t="s">
         <v>961</v>
       </c>
@@ -32255,9 +31913,7 @@
       <c r="I58" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J58" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J58" s="48"/>
       <c r="K58" s="48" t="s">
         <v>431</v>
       </c>
@@ -32266,9 +31922,6 @@
       <c r="A59" t="s">
         <v>959</v>
       </c>
-      <c r="B59" t="s">
-        <v>960</v>
-      </c>
       <c r="C59" s="49" t="s">
         <v>961</v>
       </c>
@@ -32284,10 +31937,32 @@
       <c r="I59" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="J59" s="48" t="s">
-        <v>964</v>
-      </c>
+      <c r="J59" s="48"/>
       <c r="K59" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>959</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="D60" t="s">
+        <v>948</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>962</v>
+      </c>
+      <c r="G60" t="s">
+        <v>948</v>
+      </c>
+      <c r="I60" s="48" t="s">
+        <v>963</v>
+      </c>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48" t="s">
         <v>431</v>
       </c>
     </row>

--- a/2018_image_index.xlsx
+++ b/2018_image_index.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps038353\Documents\NetBeansProjects\FauxStudio2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA8AEECD-1232-45AE-BD9D-2A5A14E0980F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2BAD6760-3416-4BCD-97C5-96E95F8E614E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" tabRatio="740" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="14870" windowHeight="9020" tabRatio="740" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="image_naming_convention" sheetId="2" r:id="rId1"/>
     <sheet name="jobs" sheetId="4" r:id="rId2"/>
     <sheet name="Keywords Title Desc" sheetId="6" r:id="rId3"/>
     <sheet name="SiteMap 2012" sheetId="10" r:id="rId4"/>
-    <sheet name="canvas (2)" sheetId="18" r:id="rId5"/>
-    <sheet name="event (2)" sheetId="19" r:id="rId6"/>
-    <sheet name="face (2)" sheetId="20" r:id="rId7"/>
-    <sheet name="floral (2)" sheetId="21" r:id="rId8"/>
-    <sheet name="furniture (2)" sheetId="22" r:id="rId9"/>
-    <sheet name="interior (2)" sheetId="23" r:id="rId10"/>
-    <sheet name="wall (2)" sheetId="25" r:id="rId11"/>
+    <sheet name="img Sitemap 2018" sheetId="26" r:id="rId5"/>
+    <sheet name="canvas (2)" sheetId="18" r:id="rId6"/>
+    <sheet name="event (2)" sheetId="19" r:id="rId7"/>
+    <sheet name="face (2)" sheetId="20" r:id="rId8"/>
+    <sheet name="floral (2)" sheetId="21" r:id="rId9"/>
+    <sheet name="furniture (2)" sheetId="22" r:id="rId10"/>
+    <sheet name="interior (2)" sheetId="23" r:id="rId11"/>
+    <sheet name="wall (2)" sheetId="25" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">jobs!$C$1:$Y$79</definedName>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="1251">
   <si>
     <t>the Faux Studio: customer feedback</t>
   </si>
@@ -3308,6 +3309,549 @@
   </si>
   <si>
     <t>Ceiling Modello</t>
+  </si>
+  <si>
+    <t>http://www.faux-studio.com/</t>
+  </si>
+  <si>
+    <t>img/canvas/0016_hummingbird_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/0102_bluejay_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/0203_pear_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/0832_abstract_canvas_room_divider.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/1486_saint-cirq-lapopie.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/15_arboretum_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/1732_pagoda_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/1760_cloud_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/1873_temple_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/1882_triptych_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/19_chinoiserie_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/2182_tree_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/2186_nature_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/2192_butterfly_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/2357_eagles_graffiti_tin.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/2370_wisteria_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/2371_abstract_poppies_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/2434_garden_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/2438_triptych_seagull_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/2521_peacock_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/3113_blooming_rose_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/3130_rose_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/3153_rose_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/4206_geometric_art_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/43_floor_cloth_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/446_bluebird_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/4608_peacock_feather_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/467_robin_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/614_sleepy_hollow_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/695_walking_bridge_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/833_bluebird_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/865_willow_tree_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/883_butterfly_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/canvas/b000_arboretum_mural.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0751_reception_florals.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0752_reception_florals.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0866_reception_florals.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0867_reception_florals.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0869_reception_florals.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0968_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0970_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0971_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0972_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0974_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0979_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0981_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0983_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0984_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/0985_theme_party_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/5894_wedding_backdrop.jpg</t>
+  </si>
+  <si>
+    <t>img/event/7579_reception_centerpiece.jpg</t>
+  </si>
+  <si>
+    <t>img/event/7596_pew_swags.jpg</t>
+  </si>
+  <si>
+    <t>img/event/7598_custom_signage.jpg</t>
+  </si>
+  <si>
+    <t>img/event/7604_sweetheart_table_decor.jpg</t>
+  </si>
+  <si>
+    <t>img/event/8729_wedding_reception.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1162_tiger.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1164_flower.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1166_butterfly.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1170_puppy.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1171_snake.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1172_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1175_butterfly.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1176_puppy.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1177_tiger.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1178_puppy.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1179_tiger.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1180_butterfly.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1181_butterfly.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1334_dinosaur.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1335_tiger.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1336_unicorn.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1337_rainbow.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1338_unicorn_rainbow.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1339_tiger.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1340_dinosaur.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1554_butterfly.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1564_butterfly.jpg</t>
+  </si>
+  <si>
+    <t>img/face/1565_butterfly.jpg</t>
+  </si>
+  <si>
+    <t>img/face/IMG_1021.MOV</t>
+  </si>
+  <si>
+    <t>img/floral/0023_white_silk_arrangement.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/0351_event_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/0353_event_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/0354_event_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/0384_event_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/0425_floral_bouquet.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/1136_event_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/1137_event_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/1139_tropical_dish_arrangement.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/1165_tropical_arrangement.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/1175_dish_arrangement.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/1355_floral_bouquet.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/1611_floral_bouquet.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/1700_silk_arrangement.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/1932_seasonal_centerpiece.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/2066_floral_arrangement.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/2126_bridal_party_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/2618_silk_arrangement.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/5129_vintage_wedding_backdrop.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/5139_wrist_coursage.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/5141_wrist_coursage.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/5142_roses_hydrangeas.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/5143_wedding_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/5146_wedding_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/5181_bridal_bouquet.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/7579_reception_centerpiece.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/7601_ceremony_flowers.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/7625_bridesmaid_bouquet.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/8749_floral_arrangement.jpg</t>
+  </si>
+  <si>
+    <t>img/floral/8754_floral_arrangement.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/0270_end_table_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/1466_dresser_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/1467_dresser_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/1516_cabinet_refinish.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/1929_hutch_conversion.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/2018_dry_sink_refinish.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/2599_dresser_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/312_cabinet_refinish.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/3694_desk_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/3696_desk_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/4014_dresser_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/4016_sideboard_conversion.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/4017_accent_table_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/4018_sideboard_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/4153_accent_table_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/4155_accent_table_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/654_cabinet_refinish.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/b1292_wainscoting_refinish.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/b1294_dresser_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/b1295_hutch_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/b1296_sideboard_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/b1297_accent_table_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/furniture/b1299_dresser_upcycle.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/0182_custom_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/1082_dining_room_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/1083_dining_room_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/1304_window_seat.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/23_springhouse_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/2438_bedroom_makeover_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/2441_bedroom_makeover_canvas.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/2443_loft_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/2444_loft.makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/2448_window_seat.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/26_springhouse_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/2823_laundry_room_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/28_springhouse_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/3983_bathroom_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/4058_dressing_area_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/45_springhouse_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/46_springhouse_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/5889_master_bath_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/interior/77_springhouse_makeover.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/0093_embossed_grapes.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/0122_embossed_grapes.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/0181_lusterstone_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/0291_allover_damask_stencil.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/059_olde_world_color_wash.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/0_8036_modello_crystal_embellishment.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/3033_reclaimed_wood_wall.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/3081_silver_gold_leaf.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/3096_lusterstone_embossed_damask.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/3979_color_wash_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/4050_color_wash_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/4174_rustic_stone.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/4186_rustic_stone.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/44_color_wash.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/4541_rustic_stone.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/4719_accent_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/4734_venetian_plaster.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/4750_venetian_plaster.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/4845_olde_world_color_wash.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/5218_tinted_rustic_stone.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/5263_accent_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/5286_ceiling_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/528_color_wash.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/5889_sandstone_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/5896_ceiling_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/6012_lusterstone_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/6026_lusterstone_modello.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/7256_modello_border.jpg</t>
+  </si>
+  <si>
+    <t>img/wall/873_venetian_plaster_modello.jpg</t>
   </si>
 </sst>
 </file>
@@ -4128,6 +4672,1647 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF55E53E-A140-452C-904C-AF820B72B360}">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4140625" customWidth="1"/>
+    <col min="5" max="5" width="32.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="11" max="11" width="2.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G2" t="s">
+        <v>769</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G3" t="s">
+        <v>769</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G4" t="s">
+        <v>769</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B5" t="s">
+        <v>835</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G5" t="s">
+        <v>769</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G6" t="s">
+        <v>769</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>778</v>
+      </c>
+      <c r="B7" t="s">
+        <v>830</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G7" t="s">
+        <v>769</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G8" t="s">
+        <v>769</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B9" t="s">
+        <v>831</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G9" t="s">
+        <v>769</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>778</v>
+      </c>
+      <c r="B10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G10" t="s">
+        <v>769</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>778</v>
+      </c>
+      <c r="B11" t="s">
+        <v>830</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G11" t="s">
+        <v>769</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>778</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>833</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G12" t="s">
+        <v>769</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>778</v>
+      </c>
+      <c r="B13" t="s">
+        <v>832</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G13" t="s">
+        <v>769</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>778</v>
+      </c>
+      <c r="B14" t="s">
+        <v>834</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G14" t="s">
+        <v>769</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>778</v>
+      </c>
+      <c r="B15" t="s">
+        <v>832</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G15" t="s">
+        <v>769</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>778</v>
+      </c>
+      <c r="B16" t="s">
+        <v>832</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G16" t="s">
+        <v>769</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B17" t="s">
+        <v>829</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G17" t="s">
+        <v>769</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>778</v>
+      </c>
+      <c r="B18" t="s">
+        <v>838</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G18" t="s">
+        <v>769</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>778</v>
+      </c>
+      <c r="B19" t="s">
+        <v>830</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G19" t="s">
+        <v>769</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>839</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G20" t="s">
+        <v>769</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>778</v>
+      </c>
+      <c r="B21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G21" t="s">
+        <v>769</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>778</v>
+      </c>
+      <c r="B22" t="s">
+        <v>832</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G22" t="s">
+        <v>769</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>778</v>
+      </c>
+      <c r="B23" t="s">
+        <v>830</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G23" t="s">
+        <v>769</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>778</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G24" t="s">
+        <v>769</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>778</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G25" t="s">
+        <v>769</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>778</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G26" t="s">
+        <v>769</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>778</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D27" t="s">
+        <v>769</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G27" t="s">
+        <v>769</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>778</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D28" t="s">
+        <v>769</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G28" t="s">
+        <v>769</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>778</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D29" t="s">
+        <v>769</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G29" t="s">
+        <v>769</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G30" t="s">
+        <v>769</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>778</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D31" t="s">
+        <v>769</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G31" t="s">
+        <v>769</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>778</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D32" t="s">
+        <v>769</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G32" t="s">
+        <v>769</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>778</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D33" t="s">
+        <v>769</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G33" t="s">
+        <v>769</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>778</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D34" t="s">
+        <v>769</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G34" t="s">
+        <v>769</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>778</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D35" t="s">
+        <v>769</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G35" t="s">
+        <v>769</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>778</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D36" t="s">
+        <v>769</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G36" t="s">
+        <v>769</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>778</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D37" t="s">
+        <v>769</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G37" t="s">
+        <v>769</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>778</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D38" t="s">
+        <v>769</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G38" t="s">
+        <v>769</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>778</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D39" t="s">
+        <v>769</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G39" t="s">
+        <v>769</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>778</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D40" t="s">
+        <v>769</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G40" t="s">
+        <v>769</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>778</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D41" t="s">
+        <v>769</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G41" t="s">
+        <v>769</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D42" t="s">
+        <v>769</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G42" t="s">
+        <v>769</v>
+      </c>
+      <c r="I42" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>778</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D43" t="s">
+        <v>769</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G43" t="s">
+        <v>769</v>
+      </c>
+      <c r="I43" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>778</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D44" t="s">
+        <v>769</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G44" t="s">
+        <v>769</v>
+      </c>
+      <c r="I44" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>778</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D45" t="s">
+        <v>769</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G45" t="s">
+        <v>769</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D46" t="s">
+        <v>769</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G46" t="s">
+        <v>769</v>
+      </c>
+      <c r="I46" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>778</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D47" t="s">
+        <v>769</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G47" t="s">
+        <v>769</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>778</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D48" t="s">
+        <v>769</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G48" t="s">
+        <v>769</v>
+      </c>
+      <c r="I48" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>778</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D49" t="s">
+        <v>769</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G49" t="s">
+        <v>769</v>
+      </c>
+      <c r="I49" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>778</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D50" t="s">
+        <v>769</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G50" t="s">
+        <v>769</v>
+      </c>
+      <c r="I50" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>778</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D51" t="s">
+        <v>769</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G51" t="s">
+        <v>769</v>
+      </c>
+      <c r="I51" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>778</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D52" t="s">
+        <v>769</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G52" t="s">
+        <v>769</v>
+      </c>
+      <c r="I52" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>778</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D53" t="s">
+        <v>769</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G53" t="s">
+        <v>769</v>
+      </c>
+      <c r="I53" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>778</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D54" t="s">
+        <v>769</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G54" t="s">
+        <v>769</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>778</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D55" t="s">
+        <v>769</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G55" t="s">
+        <v>769</v>
+      </c>
+      <c r="I55" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>778</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D56" t="s">
+        <v>769</v>
+      </c>
+      <c r="F56" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G56" t="s">
+        <v>769</v>
+      </c>
+      <c r="I56" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>778</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D57" t="s">
+        <v>769</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G57" t="s">
+        <v>769</v>
+      </c>
+      <c r="I57" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>778</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D58" t="s">
+        <v>769</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G58" t="s">
+        <v>769</v>
+      </c>
+      <c r="I58" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>778</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D59" t="s">
+        <v>769</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G59" t="s">
+        <v>769</v>
+      </c>
+      <c r="I59" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>778</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D60" t="s">
+        <v>769</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="G60" t="s">
+        <v>769</v>
+      </c>
+      <c r="I60" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681ADBFA-6E43-4D9B-9E7E-C242CA8050B2}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -4976,7 +7161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C6B398-795C-4182-B95B-591F9D99738C}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -19136,6 +21321,1464 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D75C1B-0409-4C1B-A796-585899D8DBC7}">
+  <dimension ref="A1:B180"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D365253-76DD-4632-B44B-A5302FEFD464}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -20411,7 +24054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A138CE-3CF6-4E53-B74F-2FFB7108209C}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -21261,11 +24904,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1062FE34-E6DD-400D-86F8-0230C6329520}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -22095,7 +25738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785C4BC6-0396-41C4-9397-E6D96B4ADA45}">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -23718,1645 +27361,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF55E53E-A140-452C-904C-AF820B72B360}">
-  <dimension ref="A1:K60"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.58203125" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.4140625" customWidth="1"/>
-    <col min="5" max="5" width="32.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.9140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>837</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G1" t="s">
-        <v>769</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G2" t="s">
-        <v>769</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>778</v>
-      </c>
-      <c r="B3" t="s">
-        <v>830</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G3" t="s">
-        <v>769</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>778</v>
-      </c>
-      <c r="B4" t="s">
-        <v>829</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G4" t="s">
-        <v>769</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>778</v>
-      </c>
-      <c r="B5" t="s">
-        <v>835</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G5" t="s">
-        <v>769</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>778</v>
-      </c>
-      <c r="B6" t="s">
-        <v>836</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G6" t="s">
-        <v>769</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>778</v>
-      </c>
-      <c r="B7" t="s">
-        <v>830</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G7" t="s">
-        <v>769</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>778</v>
-      </c>
-      <c r="B8" t="s">
-        <v>829</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G8" t="s">
-        <v>769</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>778</v>
-      </c>
-      <c r="B9" t="s">
-        <v>831</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G9" t="s">
-        <v>769</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>778</v>
-      </c>
-      <c r="B10" t="s">
-        <v>831</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G10" t="s">
-        <v>769</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>778</v>
-      </c>
-      <c r="B11" t="s">
-        <v>830</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G11" t="s">
-        <v>769</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>778</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>833</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G12" t="s">
-        <v>769</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>778</v>
-      </c>
-      <c r="B13" t="s">
-        <v>832</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G13" t="s">
-        <v>769</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>778</v>
-      </c>
-      <c r="B14" t="s">
-        <v>834</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G14" t="s">
-        <v>769</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>778</v>
-      </c>
-      <c r="B15" t="s">
-        <v>832</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G15" t="s">
-        <v>769</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>778</v>
-      </c>
-      <c r="B16" t="s">
-        <v>832</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G16" t="s">
-        <v>769</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>778</v>
-      </c>
-      <c r="B17" t="s">
-        <v>829</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G17" t="s">
-        <v>769</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>778</v>
-      </c>
-      <c r="B18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G18" t="s">
-        <v>769</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>778</v>
-      </c>
-      <c r="B19" t="s">
-        <v>830</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G19" t="s">
-        <v>769</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>778</v>
-      </c>
-      <c r="B20" t="s">
-        <v>839</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G20" t="s">
-        <v>769</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>778</v>
-      </c>
-      <c r="B21" t="s">
-        <v>834</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G21" t="s">
-        <v>769</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>778</v>
-      </c>
-      <c r="B22" t="s">
-        <v>832</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G22" t="s">
-        <v>769</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>778</v>
-      </c>
-      <c r="B23" t="s">
-        <v>830</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G23" t="s">
-        <v>769</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>778</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G24" t="s">
-        <v>769</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>778</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G25" t="s">
-        <v>769</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K25" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>778</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G26" t="s">
-        <v>769</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>778</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D27" t="s">
-        <v>769</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G27" t="s">
-        <v>769</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K27" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>778</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D28" t="s">
-        <v>769</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G28" t="s">
-        <v>769</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>778</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D29" t="s">
-        <v>769</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G29" t="s">
-        <v>769</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K29" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>778</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G30" t="s">
-        <v>769</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K30" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>778</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D31" t="s">
-        <v>769</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G31" t="s">
-        <v>769</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>778</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D32" t="s">
-        <v>769</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G32" t="s">
-        <v>769</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>778</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D33" t="s">
-        <v>769</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G33" t="s">
-        <v>769</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K33" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>778</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D34" t="s">
-        <v>769</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G34" t="s">
-        <v>769</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K34" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>778</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D35" t="s">
-        <v>769</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G35" t="s">
-        <v>769</v>
-      </c>
-      <c r="I35" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>778</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D36" t="s">
-        <v>769</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G36" t="s">
-        <v>769</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>778</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D37" t="s">
-        <v>769</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G37" t="s">
-        <v>769</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>778</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D38" t="s">
-        <v>769</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G38" t="s">
-        <v>769</v>
-      </c>
-      <c r="I38" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>778</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D39" t="s">
-        <v>769</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G39" t="s">
-        <v>769</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>778</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D40" t="s">
-        <v>769</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G40" t="s">
-        <v>769</v>
-      </c>
-      <c r="I40" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>778</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D41" t="s">
-        <v>769</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G41" t="s">
-        <v>769</v>
-      </c>
-      <c r="I41" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>778</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D42" t="s">
-        <v>769</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G42" t="s">
-        <v>769</v>
-      </c>
-      <c r="I42" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>778</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D43" t="s">
-        <v>769</v>
-      </c>
-      <c r="F43" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G43" t="s">
-        <v>769</v>
-      </c>
-      <c r="I43" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>778</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D44" t="s">
-        <v>769</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G44" t="s">
-        <v>769</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>778</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D45" t="s">
-        <v>769</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G45" t="s">
-        <v>769</v>
-      </c>
-      <c r="I45" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>778</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D46" t="s">
-        <v>769</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G46" t="s">
-        <v>769</v>
-      </c>
-      <c r="I46" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>778</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D47" t="s">
-        <v>769</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G47" t="s">
-        <v>769</v>
-      </c>
-      <c r="I47" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>778</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D48" t="s">
-        <v>769</v>
-      </c>
-      <c r="F48" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G48" t="s">
-        <v>769</v>
-      </c>
-      <c r="I48" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>778</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D49" t="s">
-        <v>769</v>
-      </c>
-      <c r="F49" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G49" t="s">
-        <v>769</v>
-      </c>
-      <c r="I49" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>778</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D50" t="s">
-        <v>769</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G50" t="s">
-        <v>769</v>
-      </c>
-      <c r="I50" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>778</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D51" t="s">
-        <v>769</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G51" t="s">
-        <v>769</v>
-      </c>
-      <c r="I51" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>778</v>
-      </c>
-      <c r="C52" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D52" t="s">
-        <v>769</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G52" t="s">
-        <v>769</v>
-      </c>
-      <c r="I52" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>778</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D53" t="s">
-        <v>769</v>
-      </c>
-      <c r="F53" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G53" t="s">
-        <v>769</v>
-      </c>
-      <c r="I53" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>778</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D54" t="s">
-        <v>769</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G54" t="s">
-        <v>769</v>
-      </c>
-      <c r="I54" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>778</v>
-      </c>
-      <c r="C55" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D55" t="s">
-        <v>769</v>
-      </c>
-      <c r="F55" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G55" t="s">
-        <v>769</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>778</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D56" t="s">
-        <v>769</v>
-      </c>
-      <c r="F56" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G56" t="s">
-        <v>769</v>
-      </c>
-      <c r="I56" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>778</v>
-      </c>
-      <c r="C57" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D57" t="s">
-        <v>769</v>
-      </c>
-      <c r="F57" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G57" t="s">
-        <v>769</v>
-      </c>
-      <c r="I57" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>778</v>
-      </c>
-      <c r="C58" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D58" t="s">
-        <v>769</v>
-      </c>
-      <c r="F58" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G58" t="s">
-        <v>769</v>
-      </c>
-      <c r="I58" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>778</v>
-      </c>
-      <c r="C59" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D59" t="s">
-        <v>769</v>
-      </c>
-      <c r="F59" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G59" t="s">
-        <v>769</v>
-      </c>
-      <c r="I59" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>778</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D60" t="s">
-        <v>769</v>
-      </c>
-      <c r="F60" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="G60" t="s">
-        <v>769</v>
-      </c>
-      <c r="I60" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>